--- a/reading flight data/short_period2.xlsx
+++ b/reading flight data/short_period2.xlsx
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX12"/>
+  <dimension ref="A1:AX45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,139 +675,139 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="1">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B2">
-        <v>25883</v>
+        <v>25877</v>
       </c>
       <c r="C2">
-        <v>7.86777402845225</v>
+        <v>7.687652961220393</v>
       </c>
       <c r="D2">
-        <v>2.250783602606984</v>
+        <v>2.251013708932208</v>
       </c>
       <c r="E2">
-        <v>-2.556387510417857</v>
+        <v>-22.90777111276761</v>
       </c>
       <c r="F2">
-        <v>389.8903904276113</v>
+        <v>390.1275989160796</v>
       </c>
       <c r="G2">
-        <v>429.098165403266</v>
+        <v>428.630818960198</v>
       </c>
       <c r="H2">
-        <v>423.3438883981235</v>
+        <v>423.3507640659915</v>
       </c>
       <c r="I2">
-        <v>426.4119662502592</v>
+        <v>426.1805458406216</v>
       </c>
       <c r="J2">
-        <v>79.28734893386576</v>
+        <v>79.28736924071843</v>
       </c>
       <c r="K2">
-        <v>78.29603337044198</v>
+        <v>78.29801785918679</v>
       </c>
       <c r="L2">
-        <v>62.95684031154397</v>
+        <v>62.96658047188301</v>
       </c>
       <c r="M2">
-        <v>75.81849932629376</v>
+        <v>75.81988557903409</v>
       </c>
       <c r="N2">
-        <v>62.99021490515878</v>
+        <v>62.98694411257524</v>
       </c>
       <c r="O2">
-        <v>76.27054384703342</v>
+        <v>76.26606566158742</v>
       </c>
       <c r="P2">
-        <v>348.570240448983</v>
+        <v>348.5052281002258</v>
       </c>
       <c r="Q2">
-        <v>379.6884595075354</v>
+        <v>379.6169738751915</v>
       </c>
       <c r="R2">
-        <v>0.7341554133672379</v>
+        <v>0.7575726397173889</v>
       </c>
       <c r="S2">
-        <v>-0.7894483579063943</v>
+        <v>-1.301512803520338</v>
       </c>
       <c r="T2">
-        <v>-0.1816823235795019</v>
+        <v>-0.1793629429536925</v>
       </c>
       <c r="U2">
         <v>120320</v>
       </c>
       <c r="V2">
-        <v>42158.48775081794</v>
+        <v>42157.88781256802</v>
       </c>
       <c r="W2">
-        <v>-0.4831021558757154</v>
+        <v>-0.8007980682363864</v>
       </c>
       <c r="X2">
-        <v>9.85894450785128</v>
+        <v>9.934845515339523</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>51.80778755642072</v>
+        <v>51.80779067434433</v>
       </c>
       <c r="AA2">
-        <v>5.386183449836302</v>
+        <v>5.385390742348313</v>
       </c>
       <c r="AB2">
-        <v>0.8038967891310604</v>
+        <v>-0.09685474270979222</v>
       </c>
       <c r="AC2">
-        <v>-0.5903986437271215</v>
+        <v>0.08708555791866091</v>
       </c>
       <c r="AD2">
-        <v>0.3586199875185945</v>
+        <v>0.363737676744874</v>
       </c>
       <c r="AE2">
-        <v>0.1114154032432983</v>
+        <v>0.1135685634662401</v>
       </c>
       <c r="AF2">
-        <v>-0.0001111312028701366</v>
+        <v>0.002677072129285879</v>
       </c>
       <c r="AG2">
-        <v>-0.04789989907757253</v>
+        <v>-0.01643786940337507</v>
       </c>
       <c r="AH2">
-        <v>-0.05349046622442066</v>
+        <v>-0.05793294922320504</v>
       </c>
       <c r="AI2">
-        <v>-0.008210566869452767</v>
+        <v>-0.0110633823659477</v>
       </c>
       <c r="AJ2">
-        <v>-0.04280646143437871</v>
+        <v>-0.01179593571325502</v>
       </c>
       <c r="AK2">
-        <v>-8.726497053580061</v>
+        <v>-8.535395902551253</v>
       </c>
       <c r="AL2">
-        <v>-5.999997645208129</v>
+        <v>-5.999969390687079</v>
       </c>
       <c r="AM2">
-        <v>7650.08067942736</v>
+        <v>7639.821905088792</v>
       </c>
       <c r="AN2">
-        <v>7658.555145502786</v>
+        <v>7647.888651511177</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.2231641136685701</v>
+        <v>0.2247992760498782</v>
       </c>
       <c r="AQ2">
-        <v>128.2117180882719</v>
+        <v>129.1552424683462</v>
       </c>
       <c r="AR2">
-        <v>141.4062096152301</v>
+        <v>142.4555402759373</v>
       </c>
       <c r="AS2">
-        <v>1019.86044396146</v>
+        <v>1024.648967572562</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -822,144 +822,144 @@
         <v>5</v>
       </c>
       <c r="AX2">
-        <v>2597.3</v>
+        <v>2596.7</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="1">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B3">
-        <v>25884</v>
+        <v>25878</v>
       </c>
       <c r="C3">
-        <v>7.865852772928231</v>
+        <v>7.730239361032075</v>
       </c>
       <c r="D3">
-        <v>2.250777355278991</v>
+        <v>2.250972541198436</v>
       </c>
       <c r="E3">
-        <v>-0.7970315021698136</v>
+        <v>-20.95034599157276</v>
       </c>
       <c r="F3">
-        <v>389.7796620706717</v>
+        <v>390.1430609018935</v>
       </c>
       <c r="G3">
-        <v>429.0174885384745</v>
+        <v>428.6495167615575</v>
       </c>
       <c r="H3">
-        <v>423.3392193151267</v>
+        <v>423.3373239062283</v>
       </c>
       <c r="I3">
-        <v>426.4535691293939</v>
+        <v>426.2023181766543</v>
       </c>
       <c r="J3">
-        <v>79.28642197827519</v>
+        <v>79.28701164361138</v>
       </c>
       <c r="K3">
-        <v>78.29867754818163</v>
+        <v>78.29803483774639</v>
       </c>
       <c r="L3">
-        <v>62.95537683169377</v>
+        <v>62.96465371206218</v>
       </c>
       <c r="M3">
-        <v>75.81811473153451</v>
+        <v>75.81981795436933</v>
       </c>
       <c r="N3">
-        <v>62.98998664129697</v>
+        <v>62.98418811379521</v>
       </c>
       <c r="O3">
-        <v>76.27058954663971</v>
+        <v>76.26506654583889</v>
       </c>
       <c r="P3">
-        <v>348.5810676618183</v>
+        <v>348.5160654074731</v>
       </c>
       <c r="Q3">
-        <v>379.7003766599947</v>
+        <v>379.6288808062127</v>
       </c>
       <c r="R3">
-        <v>0.7282876700144363</v>
+        <v>0.7578294514372395</v>
       </c>
       <c r="S3">
-        <v>-0.7502300648658561</v>
+        <v>-1.256808611994412</v>
       </c>
       <c r="T3">
-        <v>-0.1818660967797233</v>
+        <v>-0.1788921261680014</v>
       </c>
       <c r="U3">
         <v>120320</v>
       </c>
       <c r="V3">
-        <v>42158.58773918012</v>
+        <v>42157.98780812935</v>
       </c>
       <c r="W3">
-        <v>-0.3879572908210708</v>
+        <v>-0.7884917939241661</v>
       </c>
       <c r="X3">
-        <v>9.789291346909456</v>
+        <v>9.944599381767249</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>51.80778706987519</v>
+        <v>51.80779009542272</v>
       </c>
       <c r="AA3">
-        <v>5.38631538569934</v>
+        <v>5.385523154486309</v>
       </c>
       <c r="AB3">
-        <v>0.8828250492571212</v>
+        <v>0.07448036590194516</v>
       </c>
       <c r="AC3">
-        <v>-0.7984573965655187</v>
+        <v>0.06772844875532941</v>
       </c>
       <c r="AD3">
-        <v>0.3195281425734253</v>
+        <v>0.389933276893662</v>
       </c>
       <c r="AE3">
-        <v>0.1102711954313692</v>
+        <v>0.113785867497409</v>
       </c>
       <c r="AF3">
-        <v>-0.0005351121139025922</v>
+        <v>0.002060091095569416</v>
       </c>
       <c r="AG3">
-        <v>-0.05589481134768109</v>
+        <v>-0.0170121852014647</v>
       </c>
       <c r="AH3">
-        <v>-0.05212226464930986</v>
+        <v>-0.05780146992625707</v>
       </c>
       <c r="AI3">
-        <v>-0.007012184731305544</v>
+        <v>-0.01144503893954852</v>
       </c>
       <c r="AJ3">
-        <v>-0.05079486063307983</v>
+        <v>-0.01229187487767862</v>
       </c>
       <c r="AK3">
-        <v>-8.739943431256844</v>
+        <v>-8.562845633666708</v>
       </c>
       <c r="AL3">
-        <v>-5.999998674529567</v>
+        <v>-5.999990275219712</v>
       </c>
       <c r="AM3">
-        <v>7651.806870488807</v>
+        <v>7641.607534982631</v>
       </c>
       <c r="AN3">
-        <v>7660.309979002907</v>
+        <v>7649.674378235799</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.2229163891314728</v>
+        <v>0.2245547572813043</v>
       </c>
       <c r="AQ3">
-        <v>128.0646300358561</v>
+        <v>129.0148398383216</v>
       </c>
       <c r="AR3">
-        <v>141.2503098542668</v>
+        <v>142.3000670015108</v>
       </c>
       <c r="AS3">
-        <v>1021.15072616588</v>
+        <v>1018.93959531037</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -974,144 +974,144 @@
         <v>5</v>
       </c>
       <c r="AX3">
-        <v>2597.4</v>
+        <v>2596.8</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="1">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B4">
-        <v>25885</v>
+        <v>25879</v>
       </c>
       <c r="C4">
-        <v>7.851821852618948</v>
+        <v>7.77060947953532</v>
       </c>
       <c r="D4">
-        <v>2.250788665153907</v>
+        <v>2.250914537523897</v>
       </c>
       <c r="E4">
-        <v>0.08804317595157264</v>
+        <v>-17.77191282269565</v>
       </c>
       <c r="F4">
-        <v>389.6630758282182</v>
+        <v>390.1642791346578</v>
       </c>
       <c r="G4">
-        <v>428.8446374012969</v>
+        <v>428.74677946498</v>
       </c>
       <c r="H4">
-        <v>423.3330719920178</v>
+        <v>423.3325390695222</v>
       </c>
       <c r="I4">
-        <v>426.4873814714525</v>
+        <v>426.2350007334457</v>
       </c>
       <c r="J4">
-        <v>79.28551281643013</v>
+        <v>79.28706874568451</v>
       </c>
       <c r="K4">
-        <v>78.30118654440351</v>
+        <v>78.29685607372876</v>
       </c>
       <c r="L4">
-        <v>62.95391877900727</v>
+        <v>62.96294504806949</v>
       </c>
       <c r="M4">
-        <v>75.81799233763702</v>
+        <v>75.81980100795549</v>
       </c>
       <c r="N4">
-        <v>62.98848951286813</v>
+        <v>62.98327852108146</v>
       </c>
       <c r="O4">
-        <v>76.26986509154521</v>
+        <v>76.26522597727417</v>
       </c>
       <c r="P4">
-        <v>348.5918916361469</v>
+        <v>348.5269033041158</v>
       </c>
       <c r="Q4">
-        <v>379.7122890110336</v>
+        <v>379.6407904389756</v>
       </c>
       <c r="R4">
-        <v>0.7223234941986799</v>
+        <v>0.7555244984281186</v>
       </c>
       <c r="S4">
-        <v>-0.7317661622338396</v>
+        <v>-1.17673493704041</v>
       </c>
       <c r="T4">
-        <v>-0.1819065848207636</v>
+        <v>-0.179017052880578</v>
       </c>
       <c r="U4">
         <v>120320</v>
       </c>
       <c r="V4">
-        <v>42158.68772754228</v>
+        <v>42158.08779736928</v>
       </c>
       <c r="W4">
-        <v>-0.287797431200051</v>
+        <v>-0.7581685359613046</v>
       </c>
       <c r="X4">
-        <v>9.699601371470287</v>
+        <v>9.950851871846101</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>51.80778658202343</v>
+        <v>51.80778955035429</v>
       </c>
       <c r="AA4">
-        <v>5.386447290455547</v>
+        <v>5.385655400280797</v>
       </c>
       <c r="AB4">
-        <v>0.9379707048899316</v>
+        <v>0.249779481807574</v>
       </c>
       <c r="AC4">
-        <v>-0.9924360486351328</v>
+        <v>0.02048482456835226</v>
       </c>
       <c r="AD4">
-        <v>0.2714694285283076</v>
+        <v>0.4050289499677619</v>
       </c>
       <c r="AE4">
-        <v>0.1090065602679798</v>
+        <v>0.1138153298778052</v>
       </c>
       <c r="AF4">
-        <v>-0.0008522134564269521</v>
+        <v>0.001598797765112852</v>
       </c>
       <c r="AG4">
-        <v>-0.06372087399505474</v>
+        <v>-0.01983257682887555</v>
       </c>
       <c r="AH4">
-        <v>-0.0505832887701717</v>
+        <v>-0.05740723566604328</v>
       </c>
       <c r="AI4">
-        <v>-0.005647980672757522</v>
+        <v>-0.01135132529243922</v>
       </c>
       <c r="AJ4">
-        <v>-0.05863159654062031</v>
+        <v>-0.01502615471329111</v>
       </c>
       <c r="AK4">
-        <v>-8.74664525859224</v>
+        <v>-8.597817967332228</v>
       </c>
       <c r="AL4">
-        <v>-6.000000568087554</v>
+        <v>-6.000007058207435</v>
       </c>
       <c r="AM4">
-        <v>7653.548794575287</v>
+        <v>7643.360404985012</v>
       </c>
       <c r="AN4">
-        <v>7662.011604275009</v>
+        <v>7651.44247690675</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.2226887546418936</v>
+        <v>0.2242919750863549</v>
       </c>
       <c r="AQ4">
-        <v>127.9288315247321</v>
+        <v>128.8650846504523</v>
       </c>
       <c r="AR4">
-        <v>141.1088725832039</v>
+        <v>142.1315232677711</v>
       </c>
       <c r="AS4">
-        <v>1020.68039429511</v>
+        <v>1015.353847234838</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1126,144 +1126,144 @@
         <v>5</v>
       </c>
       <c r="AX4">
-        <v>2597.5</v>
+        <v>2596.9</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="1">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B5">
-        <v>25886</v>
+        <v>25880</v>
       </c>
       <c r="C5">
-        <v>7.825842547146153</v>
+        <v>7.806970571130416</v>
       </c>
       <c r="D5">
-        <v>2.250811089371396</v>
+        <v>2.250866042748575</v>
       </c>
       <c r="E5">
-        <v>0.4399162291855651</v>
+        <v>-13.66444689913752</v>
       </c>
       <c r="F5">
-        <v>389.534262026132</v>
+        <v>390.1534117673563</v>
       </c>
       <c r="G5">
-        <v>428.587223984363</v>
+        <v>428.8841210629617</v>
       </c>
       <c r="H5">
-        <v>423.3277547540526</v>
+        <v>423.3352332242987</v>
       </c>
       <c r="I5">
-        <v>426.5107304958466</v>
+        <v>426.2750463254999</v>
       </c>
       <c r="J5">
-        <v>79.28494429171518</v>
+        <v>79.28747813084208</v>
       </c>
       <c r="K5">
-        <v>78.30293792294165</v>
+        <v>78.29509830500766</v>
       </c>
       <c r="L5">
-        <v>62.95236023175726</v>
+        <v>62.96138489496352</v>
       </c>
       <c r="M5">
-        <v>75.81795418780752</v>
+        <v>75.81974867728681</v>
       </c>
       <c r="N5">
-        <v>62.98617874217932</v>
+        <v>62.98429897787479</v>
       </c>
       <c r="O5">
-        <v>76.26849637913089</v>
+        <v>76.2664078242839</v>
       </c>
       <c r="P5">
-        <v>348.6027120323143</v>
+        <v>348.5377408988871</v>
       </c>
       <c r="Q5">
-        <v>379.7241942116999</v>
+        <v>379.6527038867829</v>
       </c>
       <c r="R5">
-        <v>0.7158717298396955</v>
+        <v>0.7512884623736654</v>
       </c>
       <c r="S5">
-        <v>-0.7237392755239398</v>
+        <v>-1.069721395488542</v>
       </c>
       <c r="T5">
-        <v>-0.1818991454062307</v>
+        <v>-0.1796694651356202</v>
       </c>
       <c r="U5">
         <v>120320</v>
       </c>
       <c r="V5">
-        <v>42158.78771590445</v>
+        <v>42158.18778573144</v>
       </c>
       <c r="W5">
-        <v>-0.1847911370107813</v>
+        <v>-0.7105194956472787</v>
       </c>
       <c r="X5">
-        <v>9.591860226435143</v>
+        <v>9.949895500507596</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>51.80778609166984</v>
+        <v>51.80778903284355</v>
       </c>
       <c r="AA5">
-        <v>5.386579132922291</v>
+        <v>5.3857875091095</v>
       </c>
       <c r="AB5">
-        <v>0.9753718888080677</v>
+        <v>0.41734828857664</v>
       </c>
       <c r="AC5">
-        <v>-1.16254960353338</v>
+        <v>-0.06866844747922779</v>
       </c>
       <c r="AD5">
-        <v>0.2172957934169074</v>
+        <v>0.4097910392390669</v>
       </c>
       <c r="AE5">
-        <v>0.1076447133348408</v>
+        <v>0.1136101033482194</v>
       </c>
       <c r="AF5">
-        <v>-0.001030891796278419</v>
+        <v>0.001210757582903544</v>
       </c>
       <c r="AG5">
-        <v>-0.07162359562670462</v>
+        <v>-0.02493550653773167</v>
       </c>
       <c r="AH5">
-        <v>-0.048850937610906</v>
+        <v>-0.05672926041085949</v>
       </c>
       <c r="AI5">
-        <v>-0.004124437572348699</v>
+        <v>-0.01087985675945707</v>
       </c>
       <c r="AJ5">
-        <v>-0.06655490026860487</v>
+        <v>-0.0200341988393546</v>
       </c>
       <c r="AK5">
-        <v>-8.749240563466733</v>
+        <v>-8.636397568883581</v>
       </c>
       <c r="AL5">
-        <v>-6.000002124596473</v>
+        <v>-6.000009324234124</v>
       </c>
       <c r="AM5">
-        <v>7655.257135554765</v>
+        <v>7645.064331856457</v>
       </c>
       <c r="AN5">
-        <v>7663.653046201288</v>
+        <v>7653.20415949335</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.2224739138641467</v>
+        <v>0.2240114249417094</v>
       </c>
       <c r="AQ5">
-        <v>127.8004773756728</v>
+        <v>128.7047903004716</v>
       </c>
       <c r="AR5">
-        <v>140.9763687819617</v>
+        <v>141.9504376359927</v>
       </c>
       <c r="AS5">
-        <v>1018.044722056685</v>
+        <v>1014.233494244808</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -1278,144 +1278,144 @@
         <v>5</v>
       </c>
       <c r="AX5">
-        <v>2597.6</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="1">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B6">
-        <v>25887</v>
+        <v>25881</v>
       </c>
       <c r="C6">
-        <v>7.788147971803323</v>
+        <v>7.836881299654721</v>
       </c>
       <c r="D6">
-        <v>2.250829455413265</v>
+        <v>2.25083113164591</v>
       </c>
       <c r="E6">
-        <v>0.5408905483076123</v>
+        <v>-9.293049389517249</v>
       </c>
       <c r="F6">
-        <v>389.396583419391</v>
+        <v>390.0943156621182</v>
       </c>
       <c r="G6">
-        <v>428.2715068529875</v>
+        <v>429.012334939747</v>
       </c>
       <c r="H6">
-        <v>423.3237231229979</v>
+        <v>423.3409162778604</v>
       </c>
       <c r="I6">
-        <v>426.5224109126216</v>
+        <v>426.319458795315</v>
       </c>
       <c r="J6">
-        <v>79.28483545574652</v>
+        <v>79.28788998880289</v>
       </c>
       <c r="K6">
-        <v>78.30376867594407</v>
+        <v>78.29391135928988</v>
       </c>
       <c r="L6">
-        <v>62.95059829906337</v>
+        <v>62.95986980413822</v>
       </c>
       <c r="M6">
-        <v>75.81772758456003</v>
+        <v>75.81952628196777</v>
       </c>
       <c r="N6">
-        <v>62.98322209970753</v>
+        <v>62.98657328365728</v>
       </c>
       <c r="O6">
-        <v>76.26653789509814</v>
+        <v>76.26810181584224</v>
       </c>
       <c r="P6">
-        <v>348.613528604076</v>
+        <v>348.5485768520999</v>
       </c>
       <c r="Q6">
-        <v>379.7360906424458</v>
+        <v>379.6646208960868</v>
       </c>
       <c r="R6">
-        <v>0.7084887479890455</v>
+        <v>0.7459098041790919</v>
       </c>
       <c r="S6">
-        <v>-0.7188777692505313</v>
+        <v>-0.9560113218776509</v>
       </c>
       <c r="T6">
-        <v>-0.1818902684164529</v>
+        <v>-0.1805230924306964</v>
       </c>
       <c r="U6">
         <v>120320</v>
       </c>
       <c r="V6">
-        <v>42158.88770426661</v>
+        <v>42158.28777409361</v>
       </c>
       <c r="W6">
-        <v>-0.08030955619858855</v>
+        <v>-0.6471936319646726</v>
       </c>
       <c r="X6">
-        <v>9.468547521043634</v>
+        <v>9.937062101453286</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>51.80778559761732</v>
+        <v>51.80778853339953</v>
       </c>
       <c r="AA6">
-        <v>5.386710877480391</v>
+        <v>5.385919527405988</v>
       </c>
       <c r="AB6">
-        <v>1.00217743632395</v>
+        <v>0.5688173729746202</v>
       </c>
       <c r="AC6">
-        <v>-1.306190992918024</v>
+        <v>-0.2061661911502882</v>
       </c>
       <c r="AD6">
-        <v>0.1603012556812562</v>
+        <v>0.4039649642745269</v>
       </c>
       <c r="AE6">
-        <v>0.1061803395222423</v>
+        <v>0.1131338016752036</v>
       </c>
       <c r="AF6">
-        <v>-0.001089343269452059</v>
+        <v>0.0008070155847833961</v>
       </c>
       <c r="AG6">
-        <v>-0.07994089675580612</v>
+        <v>-0.03184540219082885</v>
       </c>
       <c r="AH6">
-        <v>-0.04692733848444564</v>
+        <v>-0.05581096079434335</v>
       </c>
       <c r="AI6">
-        <v>-0.002484022611853852</v>
+        <v>-0.01015490741334393</v>
       </c>
       <c r="AJ6">
-        <v>-0.07490434128487861</v>
+        <v>-0.02685378392136947</v>
       </c>
       <c r="AK6">
-        <v>-8.749921412665136</v>
+        <v>-8.673441533475637</v>
       </c>
       <c r="AL6">
-        <v>-6.000001925481756</v>
+        <v>-6.000003917993229</v>
       </c>
       <c r="AM6">
-        <v>7656.884587618476</v>
+        <v>7646.731207020444</v>
       </c>
       <c r="AN6">
-        <v>7665.234119977893</v>
+        <v>7654.978106744582</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.2222646216640644</v>
+        <v>0.223720995219401</v>
       </c>
       <c r="AQ6">
-        <v>127.6752038952016</v>
+        <v>128.5375271664356</v>
       </c>
       <c r="AR6">
-        <v>140.8469847138067</v>
+        <v>141.7627991178319</v>
       </c>
       <c r="AS6">
-        <v>1013.07361705489</v>
+        <v>1015.268678019284</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -1430,144 +1430,144 @@
         <v>5</v>
       </c>
       <c r="AX6">
-        <v>2597.7</v>
+        <v>2597.1</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="1">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B7">
-        <v>25888</v>
+        <v>25882</v>
       </c>
       <c r="C7">
-        <v>7.739093008732888</v>
+        <v>7.857791154616978</v>
       </c>
       <c r="D7">
-        <v>2.250830749042291</v>
+        <v>2.250803703268967</v>
       </c>
       <c r="E7">
-        <v>0.5556609813492038</v>
+        <v>-5.420020077711428</v>
       </c>
       <c r="F7">
-        <v>389.2640906577207</v>
+        <v>389.9990973646354</v>
       </c>
       <c r="G7">
-        <v>427.9439419917587</v>
+        <v>429.0918467434104</v>
       </c>
       <c r="H7">
-        <v>423.3189122692812</v>
+        <v>423.3446505798799</v>
       </c>
       <c r="I7">
-        <v>426.524522655632</v>
+        <v>426.3660408319737</v>
       </c>
       <c r="J7">
-        <v>79.28517006031574</v>
+        <v>79.2879017847448</v>
       </c>
       <c r="K7">
-        <v>78.30380378724939</v>
+        <v>78.29420086525467</v>
       </c>
       <c r="L7">
-        <v>62.94860488934314</v>
+        <v>62.95834795139609</v>
       </c>
       <c r="M7">
-        <v>75.81713028953153</v>
+        <v>75.81905911657699</v>
       </c>
       <c r="N7">
-        <v>62.97960880282631</v>
+        <v>62.98891915762094</v>
       </c>
       <c r="O7">
-        <v>76.2640703006564</v>
+        <v>76.26965191391388</v>
       </c>
       <c r="P7">
-        <v>348.6243414954831</v>
+        <v>348.5594101603601</v>
       </c>
       <c r="Q7">
-        <v>379.7479779741678</v>
+        <v>379.6765401140519</v>
       </c>
       <c r="R7">
-        <v>0.7001304178117522</v>
+        <v>0.7400671265940008</v>
       </c>
       <c r="S7">
-        <v>-0.7138451853917904</v>
+        <v>-0.858106487076444</v>
       </c>
       <c r="T7">
-        <v>-0.1818890366424951</v>
+        <v>-0.1812449594239321</v>
       </c>
       <c r="U7">
         <v>120320</v>
       </c>
       <c r="V7">
-        <v>42158.98769262878</v>
+        <v>42158.38776245577</v>
       </c>
       <c r="W7">
-        <v>0.02488829389598241</v>
+        <v>-0.5704838839729429</v>
       </c>
       <c r="X7">
-        <v>9.33217816074767</v>
+        <v>9.907811970839504</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>51.80778509900121</v>
+        <v>51.80778804322808</v>
       </c>
       <c r="AA7">
-        <v>5.386842499231122</v>
+        <v>5.386051498721637</v>
       </c>
       <c r="AB7">
-        <v>1.022649065795306</v>
+        <v>0.6988191837481107</v>
       </c>
       <c r="AC7">
-        <v>-1.42475876447652</v>
+        <v>-0.3858475333894402</v>
       </c>
       <c r="AD7">
-        <v>0.1032771789512334</v>
+        <v>0.3869762277823907</v>
       </c>
       <c r="AE7">
-        <v>0.1046043624243746</v>
+        <v>0.1123888281973966</v>
       </c>
       <c r="AF7">
-        <v>-0.001079852116532421</v>
+        <v>0.0003567977561026628</v>
       </c>
       <c r="AG7">
-        <v>-0.08891069909463244</v>
+        <v>-0.03975065355012346</v>
       </c>
       <c r="AH7">
-        <v>-0.04483559305590866</v>
+        <v>-0.054718202893412</v>
       </c>
       <c r="AI7">
-        <v>-0.0007937275175235861</v>
+        <v>-0.009256213053503919</v>
       </c>
       <c r="AJ7">
-        <v>-0.08392407191976942</v>
+        <v>-0.03469188037456204</v>
       </c>
       <c r="AK7">
-        <v>-8.749985999424739</v>
+        <v>-8.704333900784638</v>
       </c>
       <c r="AL7">
-        <v>-5.999998457866597</v>
+        <v>-5.999999075717432</v>
       </c>
       <c r="AM7">
-        <v>7658.41828346577</v>
+        <v>7648.392603601935</v>
       </c>
       <c r="AN7">
-        <v>7666.754588849349</v>
+        <v>7656.768120867349</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.2220575230963704</v>
+        <v>0.2234342844377289</v>
       </c>
       <c r="AQ7">
-        <v>127.5508650433712</v>
+        <v>128.3706828405675</v>
       </c>
       <c r="AR7">
-        <v>140.7175039248071</v>
+        <v>141.5783937968736</v>
       </c>
       <c r="AS7">
-        <v>1005.765730390169</v>
+        <v>1017.542458764879</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -1582,144 +1582,144 @@
         <v>5</v>
       </c>
       <c r="AX7">
-        <v>2597.8</v>
+        <v>2597.2</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="1">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B8">
-        <v>25889</v>
+        <v>25883</v>
       </c>
       <c r="C8">
-        <v>7.679516317518301</v>
+        <v>7.86777402845225</v>
       </c>
       <c r="D8">
-        <v>2.250815640838126</v>
+        <v>2.250783602606984</v>
       </c>
       <c r="E8">
-        <v>0.553561140972144</v>
+        <v>-2.556387510417857</v>
       </c>
       <c r="F8">
-        <v>389.1555695833621</v>
+        <v>389.8903904276113</v>
       </c>
       <c r="G8">
-        <v>427.6637585573241</v>
+        <v>429.098165403266</v>
       </c>
       <c r="H8">
-        <v>423.3103060150102</v>
+        <v>423.3438883981235</v>
       </c>
       <c r="I8">
-        <v>426.5236426445884</v>
+        <v>426.4119662502592</v>
       </c>
       <c r="J8">
-        <v>79.28590072775889</v>
+        <v>79.28734893386576</v>
       </c>
       <c r="K8">
-        <v>78.30320162046547</v>
+        <v>78.29603337044198</v>
       </c>
       <c r="L8">
-        <v>62.94648935646268</v>
+        <v>62.95684031154397</v>
       </c>
       <c r="M8">
-        <v>75.81615729178954</v>
+        <v>75.81849932629376</v>
       </c>
       <c r="N8">
-        <v>62.97560036654145</v>
+        <v>62.99021490515878</v>
       </c>
       <c r="O8">
-        <v>76.26140067080662</v>
+        <v>76.27054384703342</v>
       </c>
       <c r="P8">
-        <v>348.635151372416</v>
+        <v>348.570240448983</v>
       </c>
       <c r="Q8">
-        <v>379.7598575230166</v>
+        <v>379.6884595075354</v>
       </c>
       <c r="R8">
-        <v>0.6914352404843823</v>
+        <v>0.7341554133672379</v>
       </c>
       <c r="S8">
-        <v>-0.7079664098333345</v>
+        <v>-0.7894483579063943</v>
       </c>
       <c r="T8">
-        <v>-0.1818905954223396</v>
+        <v>-0.1816823235795019</v>
       </c>
       <c r="U8">
         <v>120320</v>
       </c>
       <c r="V8">
-        <v>42159.08769502115</v>
+        <v>42158.48775081794</v>
       </c>
       <c r="W8">
-        <v>0.130136346741996</v>
+        <v>-0.4831021558757154</v>
       </c>
       <c r="X8">
-        <v>9.185148968997261</v>
+        <v>9.85894450785128</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>51.80778459575644</v>
+        <v>51.80778755642072</v>
       </c>
       <c r="AA8">
-        <v>5.386973996285118</v>
+        <v>5.386183449836302</v>
       </c>
       <c r="AB8">
-        <v>1.035651023852298</v>
+        <v>0.8038967891310604</v>
       </c>
       <c r="AC8">
-        <v>-1.520609856172181</v>
+        <v>-0.5903986437271215</v>
       </c>
       <c r="AD8">
-        <v>0.0479316826990076</v>
+        <v>0.3586199875185945</v>
       </c>
       <c r="AE8">
-        <v>0.1029358397474552</v>
+        <v>0.1114154032432983</v>
       </c>
       <c r="AF8">
-        <v>-0.00105182753162322</v>
+        <v>-0.0001111312028701366</v>
       </c>
       <c r="AG8">
-        <v>-0.09851287634886233</v>
+        <v>-0.04789989907757253</v>
       </c>
       <c r="AH8">
-        <v>-0.04260815299626959</v>
+        <v>-0.05349046622442066</v>
       </c>
       <c r="AI8">
-        <v>0.0008839593596745073</v>
+        <v>-0.008210566869452767</v>
       </c>
       <c r="AJ8">
-        <v>-0.09359395583408418</v>
+        <v>-0.04280646143437871</v>
       </c>
       <c r="AK8">
-        <v>-8.749966995532365</v>
+        <v>-8.726497053580061</v>
       </c>
       <c r="AL8">
-        <v>-5.999992564634404</v>
+        <v>-5.999997645208129</v>
       </c>
       <c r="AM8">
-        <v>7659.888406244891</v>
+        <v>7650.08067942736</v>
       </c>
       <c r="AN8">
-        <v>7668.217621608216</v>
+        <v>7658.555145502786</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.2218544016500906</v>
+        <v>0.2231641136685701</v>
       </c>
       <c r="AQ8">
-        <v>127.4286946493497</v>
+        <v>128.2117180882719</v>
       </c>
       <c r="AR8">
-        <v>140.5886266958173</v>
+        <v>141.4062096152301</v>
       </c>
       <c r="AS8">
-        <v>996.2576874977511</v>
+        <v>1019.86044396146</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -1734,144 +1734,144 @@
         <v>5</v>
       </c>
       <c r="AX8">
-        <v>2597.9</v>
+        <v>2597.3</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="1">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B9">
-        <v>25890</v>
+        <v>25884</v>
       </c>
       <c r="C9">
-        <v>7.6110951316489</v>
+        <v>7.865852772928231</v>
       </c>
       <c r="D9">
-        <v>2.250795583478301</v>
+        <v>2.250777355278991</v>
       </c>
       <c r="E9">
-        <v>0.5538257805464767</v>
+        <v>-0.7970315021698136</v>
       </c>
       <c r="F9">
-        <v>389.0894321224507</v>
+        <v>389.7796620706717</v>
       </c>
       <c r="G9">
-        <v>427.4870290607101</v>
+        <v>429.0174885384745</v>
       </c>
       <c r="H9">
-        <v>423.2973622269634</v>
+        <v>423.3392193151267</v>
       </c>
       <c r="I9">
-        <v>426.528271526201</v>
+        <v>426.4535691293939</v>
       </c>
       <c r="J9">
-        <v>79.28693566304509</v>
+        <v>79.28642197827519</v>
       </c>
       <c r="K9">
-        <v>78.30207259950024</v>
+        <v>78.29867754818163</v>
       </c>
       <c r="L9">
-        <v>62.94455363569184</v>
+        <v>62.95537683169377</v>
       </c>
       <c r="M9">
-        <v>75.81503330437197</v>
+        <v>75.81811473153451</v>
       </c>
       <c r="N9">
-        <v>62.97190137110011</v>
+        <v>62.98998664129697</v>
       </c>
       <c r="O9">
-        <v>76.25908794907942</v>
+        <v>76.27058954663971</v>
       </c>
       <c r="P9">
-        <v>348.6459594121972</v>
+        <v>348.5810676618183</v>
       </c>
       <c r="Q9">
-        <v>379.7717321627127</v>
+        <v>379.7003766599947</v>
       </c>
       <c r="R9">
-        <v>0.683400939684599</v>
+        <v>0.7282876700144363</v>
       </c>
       <c r="S9">
-        <v>-0.7016251757669104</v>
+        <v>-0.7502300648658561</v>
       </c>
       <c r="T9">
-        <v>-0.1818915326186001</v>
+        <v>-0.1818660967797233</v>
       </c>
       <c r="U9">
         <v>120320</v>
       </c>
       <c r="V9">
-        <v>42159.18769938286</v>
+        <v>42158.58773918012</v>
       </c>
       <c r="W9">
-        <v>0.2343453525535945</v>
+        <v>-0.3879572908210708</v>
       </c>
       <c r="X9">
-        <v>9.029727075972385</v>
+        <v>9.789291346909456</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>51.8077840887161</v>
+        <v>51.80778706987519</v>
       </c>
       <c r="AA9">
-        <v>5.387105390657559</v>
+        <v>5.38631538569934</v>
       </c>
       <c r="AB9">
-        <v>1.035812631322087</v>
+        <v>0.8828250492571212</v>
       </c>
       <c r="AC9">
-        <v>-1.595607909509006</v>
+        <v>-0.7984573965655187</v>
       </c>
       <c r="AD9">
-        <v>-0.004986992031666028</v>
+        <v>0.3195281425734253</v>
       </c>
       <c r="AE9">
-        <v>0.101231008904553</v>
+        <v>0.1102711954313692</v>
       </c>
       <c r="AF9">
-        <v>-0.00102866115864638</v>
+        <v>-0.0005351121139025922</v>
       </c>
       <c r="AG9">
-        <v>-0.1084505382995277</v>
+        <v>-0.05589481134768109</v>
       </c>
       <c r="AH9">
-        <v>-0.04027957488354493</v>
+        <v>-0.05212226464930986</v>
       </c>
       <c r="AI9">
-        <v>0.002507929366542575</v>
+        <v>-0.007012184731305544</v>
       </c>
       <c r="AJ9">
-        <v>-0.1036041019050225</v>
+        <v>-0.05079486063307983</v>
       </c>
       <c r="AK9">
-        <v>-8.749978657128233</v>
+        <v>-8.739943431256844</v>
       </c>
       <c r="AL9">
-        <v>-5.999990430521721</v>
+        <v>-5.999998674529567</v>
       </c>
       <c r="AM9">
-        <v>7661.344661502758</v>
+        <v>7651.806870488807</v>
       </c>
       <c r="AN9">
-        <v>7669.63882786762</v>
+        <v>7660.309979002907</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.2216605371774656</v>
+        <v>0.2229163891314728</v>
       </c>
       <c r="AQ9">
-        <v>127.312138425135</v>
+        <v>128.0646300358561</v>
       </c>
       <c r="AR9">
-        <v>140.4641260737563</v>
+        <v>141.2503098542668</v>
       </c>
       <c r="AS9">
-        <v>984.8228382430863</v>
+        <v>1021.15072616588</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -1886,144 +1886,144 @@
         <v>5</v>
       </c>
       <c r="AX9">
-        <v>2598</v>
+        <v>2597.4</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="1">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B10">
-        <v>25891</v>
+        <v>25885</v>
       </c>
       <c r="C10">
-        <v>7.536337737454364</v>
+        <v>7.851821852618948</v>
       </c>
       <c r="D10">
-        <v>2.250775112889147</v>
+        <v>2.250788665153907</v>
       </c>
       <c r="E10">
-        <v>0.5583045504578699</v>
+        <v>0.08804317595157264</v>
       </c>
       <c r="F10">
-        <v>389.0801714348897</v>
+        <v>389.6630758282182</v>
       </c>
       <c r="G10">
-        <v>427.4480027394218</v>
+        <v>428.8446374012969</v>
       </c>
       <c r="H10">
-        <v>423.2846530860193</v>
+        <v>423.3330719920178</v>
       </c>
       <c r="I10">
-        <v>426.5426822723164</v>
+        <v>426.4873814714525</v>
       </c>
       <c r="J10">
-        <v>79.28804805525007</v>
+        <v>79.28551281643013</v>
       </c>
       <c r="K10">
-        <v>78.30067407669182</v>
+        <v>78.30118654440351</v>
       </c>
       <c r="L10">
-        <v>62.94325910547713</v>
+        <v>62.95391877900727</v>
       </c>
       <c r="M10">
-        <v>75.81422380559216</v>
+        <v>75.81799233763702</v>
       </c>
       <c r="N10">
-        <v>62.96932603903353</v>
+        <v>62.98848951286813</v>
       </c>
       <c r="O10">
-        <v>76.25768179839646</v>
+        <v>76.26986509154521</v>
       </c>
       <c r="P10">
-        <v>348.656767194737</v>
+        <v>348.5918916361469</v>
       </c>
       <c r="Q10">
-        <v>379.7836057183444</v>
+        <v>379.7122890110336</v>
       </c>
       <c r="R10">
-        <v>0.6766554035374936</v>
+        <v>0.7223234941986799</v>
       </c>
       <c r="S10">
-        <v>-0.6952346367789756</v>
+        <v>-0.7317661622338396</v>
       </c>
       <c r="T10">
-        <v>-0.1818935815476895</v>
+        <v>-0.1819065848207636</v>
       </c>
       <c r="U10">
         <v>120320</v>
       </c>
       <c r="V10">
-        <v>42159.28770374457</v>
+        <v>42158.68772754228</v>
       </c>
       <c r="W10">
-        <v>0.3358529097982562</v>
+        <v>-0.287797431200051</v>
       </c>
       <c r="X10">
-        <v>8.868043271946199</v>
+        <v>9.699601371470287</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>51.8077835792193</v>
+        <v>51.80778658202343</v>
       </c>
       <c r="AA10">
-        <v>5.387236717119112</v>
+        <v>5.386447290455547</v>
       </c>
       <c r="AB10">
-        <v>1.017610023405818</v>
+        <v>0.9379707048899316</v>
       </c>
       <c r="AC10">
-        <v>-1.651119912425003</v>
+        <v>-0.9924360486351328</v>
       </c>
       <c r="AD10">
-        <v>-0.05513429951049143</v>
+        <v>0.2714694285283076</v>
       </c>
       <c r="AE10">
-        <v>0.09956438261293817</v>
+        <v>0.1090065602679798</v>
       </c>
       <c r="AF10">
-        <v>-0.001011214508177498</v>
+        <v>-0.0008522134564269521</v>
       </c>
       <c r="AG10">
-        <v>-0.1182881756929779</v>
+        <v>-0.06372087399505474</v>
       </c>
       <c r="AH10">
-        <v>-0.03788315454691835</v>
+        <v>-0.0505832887701717</v>
       </c>
       <c r="AI10">
-        <v>0.004054135751593288</v>
+        <v>-0.005647980672757522</v>
       </c>
       <c r="AJ10">
-        <v>-0.1134989252206299</v>
+        <v>-0.05863159654062031</v>
       </c>
       <c r="AK10">
-        <v>-8.750000414692366</v>
+        <v>-8.74664525859224</v>
       </c>
       <c r="AL10">
-        <v>-6.000001055329745</v>
+        <v>-6.000000568087554</v>
       </c>
       <c r="AM10">
-        <v>7662.820889558259</v>
+        <v>7653.548794575287</v>
       </c>
       <c r="AN10">
-        <v>7671.046469169154</v>
+        <v>7662.011604275009</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.2214810402345991</v>
+        <v>0.2226887546418936</v>
       </c>
       <c r="AQ10">
-        <v>127.2043022159289</v>
+        <v>127.9288315247321</v>
       </c>
       <c r="AR10">
-        <v>140.3482453810698</v>
+        <v>141.1088725832039</v>
       </c>
       <c r="AS10">
-        <v>971.8832030463071</v>
+        <v>1020.68039429511</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2038,144 +2038,144 @@
         <v>5</v>
       </c>
       <c r="AX10">
-        <v>2598.1</v>
+        <v>2597.5</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="1">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B11">
-        <v>25892</v>
+        <v>25886</v>
       </c>
       <c r="C11">
-        <v>7.458120550758883</v>
+        <v>7.825842547146153</v>
       </c>
       <c r="D11">
-        <v>2.250745318402334</v>
+        <v>2.250811089371396</v>
       </c>
       <c r="E11">
-        <v>0.5656332236629791</v>
+        <v>0.4399162291855651</v>
       </c>
       <c r="F11">
-        <v>389.1326363191097</v>
+        <v>389.534262026132</v>
       </c>
       <c r="G11">
-        <v>427.5452704845588</v>
+        <v>428.587223984363</v>
       </c>
       <c r="H11">
-        <v>423.2807501046631</v>
+        <v>423.3277547540526</v>
       </c>
       <c r="I11">
-        <v>426.5623083307348</v>
+        <v>426.5107304958466</v>
       </c>
       <c r="J11">
-        <v>79.2888688130537</v>
+        <v>79.28494429171518</v>
       </c>
       <c r="K11">
-        <v>78.29955057860623</v>
+        <v>78.30293792294165</v>
       </c>
       <c r="L11">
-        <v>62.94302317585806</v>
+        <v>62.95236023175726</v>
       </c>
       <c r="M11">
-        <v>75.8142479357651</v>
+        <v>75.81795418780752</v>
       </c>
       <c r="N11">
-        <v>62.96829515360643</v>
+        <v>62.98617874217932</v>
       </c>
       <c r="O11">
-        <v>76.25742665016159</v>
+        <v>76.26849637913089</v>
       </c>
       <c r="P11">
-        <v>348.6675764346348</v>
+        <v>348.6027120323143</v>
       </c>
       <c r="Q11">
-        <v>379.7954819758579</v>
+        <v>379.7241942116999</v>
       </c>
       <c r="R11">
-        <v>0.6710223219431205</v>
+        <v>0.7158717298396955</v>
       </c>
       <c r="S11">
-        <v>-0.6888839140518743</v>
+        <v>-0.7237392755239398</v>
       </c>
       <c r="T11">
-        <v>-0.1818992735120326</v>
+        <v>-0.1818991454062307</v>
       </c>
       <c r="U11">
         <v>120320</v>
       </c>
       <c r="V11">
-        <v>42159.38770810629</v>
+        <v>42158.78771590445</v>
       </c>
       <c r="W11">
-        <v>0.4327186628438585</v>
+        <v>-0.1847911370107813</v>
       </c>
       <c r="X11">
-        <v>8.702060649061684</v>
+        <v>9.591860226435143</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>51.80778306848573</v>
+        <v>51.80778609166984</v>
       </c>
       <c r="AA11">
-        <v>5.387368008310273</v>
+        <v>5.386579132922291</v>
       </c>
       <c r="AB11">
-        <v>0.9791517969040169</v>
+        <v>0.9753718888080677</v>
       </c>
       <c r="AC11">
-        <v>-1.688500464539249</v>
+        <v>-1.16254960353338</v>
       </c>
       <c r="AD11">
-        <v>-0.1020472594561935</v>
+        <v>0.2172957934169074</v>
       </c>
       <c r="AE11">
-        <v>0.09800450231923985</v>
+        <v>0.1076447133348408</v>
       </c>
       <c r="AF11">
-        <v>-0.0009894956630794541</v>
+        <v>-0.001030891796278419</v>
       </c>
       <c r="AG11">
-        <v>-0.1276401457948153</v>
+        <v>-0.07162359562670462</v>
       </c>
       <c r="AH11">
-        <v>-0.03544421539476743</v>
+        <v>-0.048850937610906</v>
       </c>
       <c r="AI11">
-        <v>0.005507876243055074</v>
+        <v>-0.004124437572348699</v>
       </c>
       <c r="AJ11">
-        <v>-0.1228799525615347</v>
+        <v>-0.06655490026860487</v>
       </c>
       <c r="AK11">
-        <v>-8.750009729322853</v>
+        <v>-8.749240563466733</v>
       </c>
       <c r="AL11">
-        <v>-6.000023179548215</v>
+        <v>-6.000002124596473</v>
       </c>
       <c r="AM11">
-        <v>7664.316089157088</v>
+        <v>7655.257135554765</v>
       </c>
       <c r="AN11">
-        <v>7672.465838009457</v>
+        <v>7663.653046201288</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.2213174277614354</v>
+        <v>0.2224739138641467</v>
       </c>
       <c r="AQ11">
-        <v>127.1060168675656</v>
+        <v>127.8004773756728</v>
       </c>
       <c r="AR11">
-        <v>140.2431454769877</v>
+        <v>140.9763687819617</v>
       </c>
       <c r="AS11">
-        <v>957.9644747983074</v>
+        <v>1018.044722056685</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2190,144 +2190,144 @@
         <v>5</v>
       </c>
       <c r="AX11">
-        <v>2598.2</v>
+        <v>2597.6</v>
       </c>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="1">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B12">
-        <v>25893</v>
+        <v>25887</v>
       </c>
       <c r="C12">
-        <v>7.379025253565278</v>
+        <v>7.788147971803323</v>
       </c>
       <c r="D12">
-        <v>2.250704134275737</v>
+        <v>2.250829455413265</v>
       </c>
       <c r="E12">
-        <v>0.5746164227362988</v>
+        <v>0.5408905483076123</v>
       </c>
       <c r="F12">
-        <v>389.2343539925934</v>
+        <v>389.396583419391</v>
       </c>
       <c r="G12">
-        <v>427.7405414862466</v>
+        <v>428.2715068529875</v>
       </c>
       <c r="H12">
-        <v>423.2929956563707</v>
+        <v>423.3237231229979</v>
       </c>
       <c r="I12">
-        <v>426.5762281305973</v>
+        <v>426.5224109126216</v>
       </c>
       <c r="J12">
-        <v>79.28906121343711</v>
+        <v>79.28483545574652</v>
       </c>
       <c r="K12">
-        <v>78.29926126645077</v>
+        <v>78.30376867594407</v>
       </c>
       <c r="L12">
-        <v>62.9439345835109</v>
+        <v>62.95059829906337</v>
       </c>
       <c r="M12">
-        <v>75.81530373333321</v>
+        <v>75.81772758456003</v>
       </c>
       <c r="N12">
-        <v>62.96862311278649</v>
+        <v>62.98322209970753</v>
       </c>
       <c r="O12">
-        <v>76.2582015698957</v>
+        <v>76.26653789509814</v>
       </c>
       <c r="P12">
-        <v>348.6783885000235</v>
+        <v>348.613528604076</v>
       </c>
       <c r="Q12">
-        <v>379.8073636575658</v>
+        <v>379.7360906424458</v>
       </c>
       <c r="R12">
-        <v>0.6657683130087573</v>
+        <v>0.7084887479890455</v>
       </c>
       <c r="S12">
-        <v>-0.6824429920640178</v>
+        <v>-0.7188777692505313</v>
       </c>
       <c r="T12">
-        <v>-0.1819046904896534</v>
+        <v>-0.1818902684164529</v>
       </c>
       <c r="U12">
         <v>120320</v>
       </c>
       <c r="V12">
-        <v>42159.487712468</v>
+        <v>42158.88770426661</v>
       </c>
       <c r="W12">
-        <v>0.5232003842141192</v>
+        <v>-0.08030955619858855</v>
       </c>
       <c r="X12">
-        <v>8.533554897438643</v>
+        <v>9.468547521043634</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>51.80778255695681</v>
+        <v>51.80778559761732</v>
       </c>
       <c r="AA12">
-        <v>5.387499284543787</v>
+        <v>5.386710877480391</v>
       </c>
       <c r="AB12">
-        <v>0.9231915103866906</v>
+        <v>1.00217743632395</v>
       </c>
       <c r="AC12">
-        <v>-1.709387135816457</v>
+        <v>-1.306190992918024</v>
       </c>
       <c r="AD12">
-        <v>-0.1448586359933262</v>
+        <v>0.1603012556812562</v>
       </c>
       <c r="AE12">
-        <v>0.09660402642834523</v>
+        <v>0.1061803395222423</v>
       </c>
       <c r="AF12">
-        <v>-0.0009463060115107468</v>
+        <v>-0.001089343269452059</v>
       </c>
       <c r="AG12">
-        <v>-0.1362839294717262</v>
+        <v>-0.07994089675580612</v>
       </c>
       <c r="AH12">
-        <v>-0.03297064480092002</v>
+        <v>-0.04692733848444564</v>
       </c>
       <c r="AI12">
-        <v>0.006865331601377521</v>
+        <v>-0.002484022611853852</v>
       </c>
       <c r="AJ12">
-        <v>-0.1315268550588259</v>
+        <v>-0.07490434128487861</v>
       </c>
       <c r="AK12">
-        <v>-8.750006932778518</v>
+        <v>-8.749921412665136</v>
       </c>
       <c r="AL12">
-        <v>-6.000032471733668</v>
+        <v>-6.000001925481756</v>
       </c>
       <c r="AM12">
-        <v>7665.802005439167</v>
+        <v>7656.884587618476</v>
       </c>
       <c r="AN12">
-        <v>7673.899962927643</v>
+        <v>7665.234119977893</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.22116704354998</v>
+        <v>0.2222646216640644</v>
       </c>
       <c r="AQ12">
-        <v>127.0158917397148</v>
+        <v>127.6752038952016</v>
       </c>
       <c r="AR12">
-        <v>140.1482352389495</v>
+        <v>140.8469847138067</v>
       </c>
       <c r="AS12">
-        <v>943.5367122864436</v>
+        <v>1013.07361705489</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -2342,7 +2342,5023 @@
         <v>5</v>
       </c>
       <c r="AX12">
+        <v>2597.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13" s="1">
+        <v>487</v>
+      </c>
+      <c r="B13">
+        <v>25888</v>
+      </c>
+      <c r="C13">
+        <v>7.739093008732888</v>
+      </c>
+      <c r="D13">
+        <v>2.250830749042291</v>
+      </c>
+      <c r="E13">
+        <v>0.5556609813492038</v>
+      </c>
+      <c r="F13">
+        <v>389.2640906577207</v>
+      </c>
+      <c r="G13">
+        <v>427.9439419917587</v>
+      </c>
+      <c r="H13">
+        <v>423.3189122692812</v>
+      </c>
+      <c r="I13">
+        <v>426.524522655632</v>
+      </c>
+      <c r="J13">
+        <v>79.28517006031574</v>
+      </c>
+      <c r="K13">
+        <v>78.30380378724939</v>
+      </c>
+      <c r="L13">
+        <v>62.94860488934314</v>
+      </c>
+      <c r="M13">
+        <v>75.81713028953153</v>
+      </c>
+      <c r="N13">
+        <v>62.97960880282631</v>
+      </c>
+      <c r="O13">
+        <v>76.2640703006564</v>
+      </c>
+      <c r="P13">
+        <v>348.6243414954831</v>
+      </c>
+      <c r="Q13">
+        <v>379.7479779741678</v>
+      </c>
+      <c r="R13">
+        <v>0.7001304178117522</v>
+      </c>
+      <c r="S13">
+        <v>-0.7138451853917904</v>
+      </c>
+      <c r="T13">
+        <v>-0.1818890366424951</v>
+      </c>
+      <c r="U13">
+        <v>120320</v>
+      </c>
+      <c r="V13">
+        <v>42158.98769262878</v>
+      </c>
+      <c r="W13">
+        <v>0.02488829389598241</v>
+      </c>
+      <c r="X13">
+        <v>9.33217816074767</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>51.80778509900121</v>
+      </c>
+      <c r="AA13">
+        <v>5.386842499231122</v>
+      </c>
+      <c r="AB13">
+        <v>1.022649065795306</v>
+      </c>
+      <c r="AC13">
+        <v>-1.42475876447652</v>
+      </c>
+      <c r="AD13">
+        <v>0.1032771789512334</v>
+      </c>
+      <c r="AE13">
+        <v>0.1046043624243746</v>
+      </c>
+      <c r="AF13">
+        <v>-0.001079852116532421</v>
+      </c>
+      <c r="AG13">
+        <v>-0.08891069909463244</v>
+      </c>
+      <c r="AH13">
+        <v>-0.04483559305590866</v>
+      </c>
+      <c r="AI13">
+        <v>-0.0007937275175235861</v>
+      </c>
+      <c r="AJ13">
+        <v>-0.08392407191976942</v>
+      </c>
+      <c r="AK13">
+        <v>-8.749985999424739</v>
+      </c>
+      <c r="AL13">
+        <v>-5.999998457866597</v>
+      </c>
+      <c r="AM13">
+        <v>7658.41828346577</v>
+      </c>
+      <c r="AN13">
+        <v>7666.754588849349</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0.2220575230963704</v>
+      </c>
+      <c r="AQ13">
+        <v>127.5508650433712</v>
+      </c>
+      <c r="AR13">
+        <v>140.7175039248071</v>
+      </c>
+      <c r="AS13">
+        <v>1005.765730390169</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>2</v>
+      </c>
+      <c r="AW13">
+        <v>5</v>
+      </c>
+      <c r="AX13">
+        <v>2597.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" s="1">
+        <v>488</v>
+      </c>
+      <c r="B14">
+        <v>25889</v>
+      </c>
+      <c r="C14">
+        <v>7.679516317518301</v>
+      </c>
+      <c r="D14">
+        <v>2.250815640838126</v>
+      </c>
+      <c r="E14">
+        <v>0.553561140972144</v>
+      </c>
+      <c r="F14">
+        <v>389.1555695833621</v>
+      </c>
+      <c r="G14">
+        <v>427.6637585573241</v>
+      </c>
+      <c r="H14">
+        <v>423.3103060150102</v>
+      </c>
+      <c r="I14">
+        <v>426.5236426445884</v>
+      </c>
+      <c r="J14">
+        <v>79.28590072775889</v>
+      </c>
+      <c r="K14">
+        <v>78.30320162046547</v>
+      </c>
+      <c r="L14">
+        <v>62.94648935646268</v>
+      </c>
+      <c r="M14">
+        <v>75.81615729178954</v>
+      </c>
+      <c r="N14">
+        <v>62.97560036654145</v>
+      </c>
+      <c r="O14">
+        <v>76.26140067080662</v>
+      </c>
+      <c r="P14">
+        <v>348.635151372416</v>
+      </c>
+      <c r="Q14">
+        <v>379.7598575230166</v>
+      </c>
+      <c r="R14">
+        <v>0.6914352404843823</v>
+      </c>
+      <c r="S14">
+        <v>-0.7079664098333345</v>
+      </c>
+      <c r="T14">
+        <v>-0.1818905954223396</v>
+      </c>
+      <c r="U14">
+        <v>120320</v>
+      </c>
+      <c r="V14">
+        <v>42159.08769502115</v>
+      </c>
+      <c r="W14">
+        <v>0.130136346741996</v>
+      </c>
+      <c r="X14">
+        <v>9.185148968997261</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>51.80778459575644</v>
+      </c>
+      <c r="AA14">
+        <v>5.386973996285118</v>
+      </c>
+      <c r="AB14">
+        <v>1.035651023852298</v>
+      </c>
+      <c r="AC14">
+        <v>-1.520609856172181</v>
+      </c>
+      <c r="AD14">
+        <v>0.0479316826990076</v>
+      </c>
+      <c r="AE14">
+        <v>0.1029358397474552</v>
+      </c>
+      <c r="AF14">
+        <v>-0.00105182753162322</v>
+      </c>
+      <c r="AG14">
+        <v>-0.09851287634886233</v>
+      </c>
+      <c r="AH14">
+        <v>-0.04260815299626959</v>
+      </c>
+      <c r="AI14">
+        <v>0.0008839593596745073</v>
+      </c>
+      <c r="AJ14">
+        <v>-0.09359395583408418</v>
+      </c>
+      <c r="AK14">
+        <v>-8.749966995532365</v>
+      </c>
+      <c r="AL14">
+        <v>-5.999992564634404</v>
+      </c>
+      <c r="AM14">
+        <v>7659.888406244891</v>
+      </c>
+      <c r="AN14">
+        <v>7668.217621608216</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0.2218544016500906</v>
+      </c>
+      <c r="AQ14">
+        <v>127.4286946493497</v>
+      </c>
+      <c r="AR14">
+        <v>140.5886266958173</v>
+      </c>
+      <c r="AS14">
+        <v>996.2576874977511</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>5</v>
+      </c>
+      <c r="AX14">
+        <v>2597.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15" s="1">
+        <v>489</v>
+      </c>
+      <c r="B15">
+        <v>25890</v>
+      </c>
+      <c r="C15">
+        <v>7.6110951316489</v>
+      </c>
+      <c r="D15">
+        <v>2.250795583478301</v>
+      </c>
+      <c r="E15">
+        <v>0.5538257805464767</v>
+      </c>
+      <c r="F15">
+        <v>389.0894321224507</v>
+      </c>
+      <c r="G15">
+        <v>427.4870290607101</v>
+      </c>
+      <c r="H15">
+        <v>423.2973622269634</v>
+      </c>
+      <c r="I15">
+        <v>426.528271526201</v>
+      </c>
+      <c r="J15">
+        <v>79.28693566304509</v>
+      </c>
+      <c r="K15">
+        <v>78.30207259950024</v>
+      </c>
+      <c r="L15">
+        <v>62.94455363569184</v>
+      </c>
+      <c r="M15">
+        <v>75.81503330437197</v>
+      </c>
+      <c r="N15">
+        <v>62.97190137110011</v>
+      </c>
+      <c r="O15">
+        <v>76.25908794907942</v>
+      </c>
+      <c r="P15">
+        <v>348.6459594121972</v>
+      </c>
+      <c r="Q15">
+        <v>379.7717321627127</v>
+      </c>
+      <c r="R15">
+        <v>0.683400939684599</v>
+      </c>
+      <c r="S15">
+        <v>-0.7016251757669104</v>
+      </c>
+      <c r="T15">
+        <v>-0.1818915326186001</v>
+      </c>
+      <c r="U15">
+        <v>120320</v>
+      </c>
+      <c r="V15">
+        <v>42159.18769938286</v>
+      </c>
+      <c r="W15">
+        <v>0.2343453525535945</v>
+      </c>
+      <c r="X15">
+        <v>9.029727075972385</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>51.8077840887161</v>
+      </c>
+      <c r="AA15">
+        <v>5.387105390657559</v>
+      </c>
+      <c r="AB15">
+        <v>1.035812631322087</v>
+      </c>
+      <c r="AC15">
+        <v>-1.595607909509006</v>
+      </c>
+      <c r="AD15">
+        <v>-0.004986992031666028</v>
+      </c>
+      <c r="AE15">
+        <v>0.101231008904553</v>
+      </c>
+      <c r="AF15">
+        <v>-0.00102866115864638</v>
+      </c>
+      <c r="AG15">
+        <v>-0.1084505382995277</v>
+      </c>
+      <c r="AH15">
+        <v>-0.04027957488354493</v>
+      </c>
+      <c r="AI15">
+        <v>0.002507929366542575</v>
+      </c>
+      <c r="AJ15">
+        <v>-0.1036041019050225</v>
+      </c>
+      <c r="AK15">
+        <v>-8.749978657128233</v>
+      </c>
+      <c r="AL15">
+        <v>-5.999990430521721</v>
+      </c>
+      <c r="AM15">
+        <v>7661.344661502758</v>
+      </c>
+      <c r="AN15">
+        <v>7669.63882786762</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0.2216605371774656</v>
+      </c>
+      <c r="AQ15">
+        <v>127.312138425135</v>
+      </c>
+      <c r="AR15">
+        <v>140.4641260737563</v>
+      </c>
+      <c r="AS15">
+        <v>984.8228382430863</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="A16" s="1">
+        <v>490</v>
+      </c>
+      <c r="B16">
+        <v>25891</v>
+      </c>
+      <c r="C16">
+        <v>7.536337737454364</v>
+      </c>
+      <c r="D16">
+        <v>2.250775112889147</v>
+      </c>
+      <c r="E16">
+        <v>0.5583045504578699</v>
+      </c>
+      <c r="F16">
+        <v>389.0801714348897</v>
+      </c>
+      <c r="G16">
+        <v>427.4480027394218</v>
+      </c>
+      <c r="H16">
+        <v>423.2846530860193</v>
+      </c>
+      <c r="I16">
+        <v>426.5426822723164</v>
+      </c>
+      <c r="J16">
+        <v>79.28804805525007</v>
+      </c>
+      <c r="K16">
+        <v>78.30067407669182</v>
+      </c>
+      <c r="L16">
+        <v>62.94325910547713</v>
+      </c>
+      <c r="M16">
+        <v>75.81422380559216</v>
+      </c>
+      <c r="N16">
+        <v>62.96932603903353</v>
+      </c>
+      <c r="O16">
+        <v>76.25768179839646</v>
+      </c>
+      <c r="P16">
+        <v>348.656767194737</v>
+      </c>
+      <c r="Q16">
+        <v>379.7836057183444</v>
+      </c>
+      <c r="R16">
+        <v>0.6766554035374936</v>
+      </c>
+      <c r="S16">
+        <v>-0.6952346367789756</v>
+      </c>
+      <c r="T16">
+        <v>-0.1818935815476895</v>
+      </c>
+      <c r="U16">
+        <v>120320</v>
+      </c>
+      <c r="V16">
+        <v>42159.28770374457</v>
+      </c>
+      <c r="W16">
+        <v>0.3358529097982562</v>
+      </c>
+      <c r="X16">
+        <v>8.868043271946199</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>51.8077835792193</v>
+      </c>
+      <c r="AA16">
+        <v>5.387236717119112</v>
+      </c>
+      <c r="AB16">
+        <v>1.017610023405818</v>
+      </c>
+      <c r="AC16">
+        <v>-1.651119912425003</v>
+      </c>
+      <c r="AD16">
+        <v>-0.05513429951049143</v>
+      </c>
+      <c r="AE16">
+        <v>0.09956438261293817</v>
+      </c>
+      <c r="AF16">
+        <v>-0.001011214508177498</v>
+      </c>
+      <c r="AG16">
+        <v>-0.1182881756929779</v>
+      </c>
+      <c r="AH16">
+        <v>-0.03788315454691835</v>
+      </c>
+      <c r="AI16">
+        <v>0.004054135751593288</v>
+      </c>
+      <c r="AJ16">
+        <v>-0.1134989252206299</v>
+      </c>
+      <c r="AK16">
+        <v>-8.750000414692366</v>
+      </c>
+      <c r="AL16">
+        <v>-6.000001055329745</v>
+      </c>
+      <c r="AM16">
+        <v>7662.820889558259</v>
+      </c>
+      <c r="AN16">
+        <v>7671.046469169154</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0.2214810402345991</v>
+      </c>
+      <c r="AQ16">
+        <v>127.2043022159289</v>
+      </c>
+      <c r="AR16">
+        <v>140.3482453810698</v>
+      </c>
+      <c r="AS16">
+        <v>971.8832030463071</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>2598.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17" s="1">
+        <v>491</v>
+      </c>
+      <c r="B17">
+        <v>25892</v>
+      </c>
+      <c r="C17">
+        <v>7.458120550758883</v>
+      </c>
+      <c r="D17">
+        <v>2.250745318402334</v>
+      </c>
+      <c r="E17">
+        <v>0.5656332236629791</v>
+      </c>
+      <c r="F17">
+        <v>389.1326363191097</v>
+      </c>
+      <c r="G17">
+        <v>427.5452704845588</v>
+      </c>
+      <c r="H17">
+        <v>423.2807501046631</v>
+      </c>
+      <c r="I17">
+        <v>426.5623083307348</v>
+      </c>
+      <c r="J17">
+        <v>79.2888688130537</v>
+      </c>
+      <c r="K17">
+        <v>78.29955057860623</v>
+      </c>
+      <c r="L17">
+        <v>62.94302317585806</v>
+      </c>
+      <c r="M17">
+        <v>75.8142479357651</v>
+      </c>
+      <c r="N17">
+        <v>62.96829515360643</v>
+      </c>
+      <c r="O17">
+        <v>76.25742665016159</v>
+      </c>
+      <c r="P17">
+        <v>348.6675764346348</v>
+      </c>
+      <c r="Q17">
+        <v>379.7954819758579</v>
+      </c>
+      <c r="R17">
+        <v>0.6710223219431205</v>
+      </c>
+      <c r="S17">
+        <v>-0.6888839140518743</v>
+      </c>
+      <c r="T17">
+        <v>-0.1818992735120326</v>
+      </c>
+      <c r="U17">
+        <v>120320</v>
+      </c>
+      <c r="V17">
+        <v>42159.38770810629</v>
+      </c>
+      <c r="W17">
+        <v>0.4327186628438585</v>
+      </c>
+      <c r="X17">
+        <v>8.702060649061684</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>51.80778306848573</v>
+      </c>
+      <c r="AA17">
+        <v>5.387368008310273</v>
+      </c>
+      <c r="AB17">
+        <v>0.9791517969040169</v>
+      </c>
+      <c r="AC17">
+        <v>-1.688500464539249</v>
+      </c>
+      <c r="AD17">
+        <v>-0.1020472594561935</v>
+      </c>
+      <c r="AE17">
+        <v>0.09800450231923985</v>
+      </c>
+      <c r="AF17">
+        <v>-0.0009894956630794541</v>
+      </c>
+      <c r="AG17">
+        <v>-0.1276401457948153</v>
+      </c>
+      <c r="AH17">
+        <v>-0.03544421539476743</v>
+      </c>
+      <c r="AI17">
+        <v>0.005507876243055074</v>
+      </c>
+      <c r="AJ17">
+        <v>-0.1228799525615347</v>
+      </c>
+      <c r="AK17">
+        <v>-8.750009729322853</v>
+      </c>
+      <c r="AL17">
+        <v>-6.000023179548215</v>
+      </c>
+      <c r="AM17">
+        <v>7664.316089157088</v>
+      </c>
+      <c r="AN17">
+        <v>7672.465838009457</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0.2213174277614354</v>
+      </c>
+      <c r="AQ17">
+        <v>127.1060168675656</v>
+      </c>
+      <c r="AR17">
+        <v>140.2431454769877</v>
+      </c>
+      <c r="AS17">
+        <v>957.9644747983074</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>5</v>
+      </c>
+      <c r="AX17">
+        <v>2598.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="A18" s="1">
+        <v>492</v>
+      </c>
+      <c r="B18">
+        <v>25893</v>
+      </c>
+      <c r="C18">
+        <v>7.379025253565278</v>
+      </c>
+      <c r="D18">
+        <v>2.250704134275737</v>
+      </c>
+      <c r="E18">
+        <v>0.5746164227362988</v>
+      </c>
+      <c r="F18">
+        <v>389.2343539925934</v>
+      </c>
+      <c r="G18">
+        <v>427.7405414862466</v>
+      </c>
+      <c r="H18">
+        <v>423.2929956563707</v>
+      </c>
+      <c r="I18">
+        <v>426.5762281305973</v>
+      </c>
+      <c r="J18">
+        <v>79.28906121343711</v>
+      </c>
+      <c r="K18">
+        <v>78.29926126645077</v>
+      </c>
+      <c r="L18">
+        <v>62.9439345835109</v>
+      </c>
+      <c r="M18">
+        <v>75.81530373333321</v>
+      </c>
+      <c r="N18">
+        <v>62.96862311278649</v>
+      </c>
+      <c r="O18">
+        <v>76.2582015698957</v>
+      </c>
+      <c r="P18">
+        <v>348.6783885000235</v>
+      </c>
+      <c r="Q18">
+        <v>379.8073636575658</v>
+      </c>
+      <c r="R18">
+        <v>0.6657683130087573</v>
+      </c>
+      <c r="S18">
+        <v>-0.6824429920640178</v>
+      </c>
+      <c r="T18">
+        <v>-0.1819046904896534</v>
+      </c>
+      <c r="U18">
+        <v>120320</v>
+      </c>
+      <c r="V18">
+        <v>42159.487712468</v>
+      </c>
+      <c r="W18">
+        <v>0.5232003842141192</v>
+      </c>
+      <c r="X18">
+        <v>8.533554897438643</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>51.80778255695681</v>
+      </c>
+      <c r="AA18">
+        <v>5.387499284543787</v>
+      </c>
+      <c r="AB18">
+        <v>0.9231915103866906</v>
+      </c>
+      <c r="AC18">
+        <v>-1.709387135816457</v>
+      </c>
+      <c r="AD18">
+        <v>-0.1448586359933262</v>
+      </c>
+      <c r="AE18">
+        <v>0.09660402642834523</v>
+      </c>
+      <c r="AF18">
+        <v>-0.0009463060115107468</v>
+      </c>
+      <c r="AG18">
+        <v>-0.1362839294717262</v>
+      </c>
+      <c r="AH18">
+        <v>-0.03297064480092002</v>
+      </c>
+      <c r="AI18">
+        <v>0.006865331601377521</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.1315268550588259</v>
+      </c>
+      <c r="AK18">
+        <v>-8.750006932778518</v>
+      </c>
+      <c r="AL18">
+        <v>-6.000032471733668</v>
+      </c>
+      <c r="AM18">
+        <v>7665.802005439167</v>
+      </c>
+      <c r="AN18">
+        <v>7673.899962927643</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0.22116704354998</v>
+      </c>
+      <c r="AQ18">
+        <v>127.0158917397148</v>
+      </c>
+      <c r="AR18">
+        <v>140.1482352389495</v>
+      </c>
+      <c r="AS18">
+        <v>943.5367122864436</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
         <v>2598.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="A19" s="1">
+        <v>493</v>
+      </c>
+      <c r="B19">
+        <v>25894</v>
+      </c>
+      <c r="C19">
+        <v>7.300896928437474</v>
+      </c>
+      <c r="D19">
+        <v>2.250676615518049</v>
+      </c>
+      <c r="E19">
+        <v>0.5843295298270198</v>
+      </c>
+      <c r="F19">
+        <v>389.3531992233403</v>
+      </c>
+      <c r="G19">
+        <v>427.9731349321587</v>
+      </c>
+      <c r="H19">
+        <v>423.3218558907387</v>
+      </c>
+      <c r="I19">
+        <v>426.5752536196719</v>
+      </c>
+      <c r="J19">
+        <v>79.28858892749408</v>
+      </c>
+      <c r="K19">
+        <v>78.29986972796719</v>
+      </c>
+      <c r="L19">
+        <v>62.94561678054339</v>
+      </c>
+      <c r="M19">
+        <v>75.81704440894001</v>
+      </c>
+      <c r="N19">
+        <v>62.96973882739402</v>
+      </c>
+      <c r="O19">
+        <v>76.2596626017438</v>
+      </c>
+      <c r="P19">
+        <v>348.6892038666685</v>
+      </c>
+      <c r="Q19">
+        <v>379.8192518002028</v>
+      </c>
+      <c r="R19">
+        <v>0.660215516979956</v>
+      </c>
+      <c r="S19">
+        <v>-0.6758725589638768</v>
+      </c>
+      <c r="T19">
+        <v>-0.181897944891627</v>
+      </c>
+      <c r="U19">
+        <v>120320</v>
+      </c>
+      <c r="V19">
+        <v>42159.58771682972</v>
+      </c>
+      <c r="W19">
+        <v>0.6061063816151041</v>
+      </c>
+      <c r="X19">
+        <v>8.364114814051206</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>51.80778204368541</v>
+      </c>
+      <c r="AA19">
+        <v>5.387630550396201</v>
+      </c>
+      <c r="AB19">
+        <v>0.8557281298105383</v>
+      </c>
+      <c r="AC19">
+        <v>-1.71578410655194</v>
+      </c>
+      <c r="AD19">
+        <v>-0.1822374147620221</v>
+      </c>
+      <c r="AE19">
+        <v>0.09540074703770506</v>
+      </c>
+      <c r="AF19">
+        <v>-0.000857618045048951</v>
+      </c>
+      <c r="AG19">
+        <v>-0.144146614395279</v>
+      </c>
+      <c r="AH19">
+        <v>-0.03045289425008653</v>
+      </c>
+      <c r="AI19">
+        <v>0.008137068258145622</v>
+      </c>
+      <c r="AJ19">
+        <v>-0.1393779983166546</v>
+      </c>
+      <c r="AK19">
+        <v>-8.75000120600432</v>
+      </c>
+      <c r="AL19">
+        <v>-6.000012572824355</v>
+      </c>
+      <c r="AM19">
+        <v>7667.246174495946</v>
+      </c>
+      <c r="AN19">
+        <v>7675.326086621533</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0.2210260578930515</v>
+      </c>
+      <c r="AQ19">
+        <v>126.9320889447786</v>
+      </c>
+      <c r="AR19">
+        <v>140.0616453664018</v>
+      </c>
+      <c r="AS19">
+        <v>928.7966604037997</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>2</v>
+      </c>
+      <c r="AW19">
+        <v>5</v>
+      </c>
+      <c r="AX19">
+        <v>2598.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50">
+      <c r="A20" s="1">
+        <v>494</v>
+      </c>
+      <c r="B20">
+        <v>25895</v>
+      </c>
+      <c r="C20">
+        <v>7.224919702064621</v>
+      </c>
+      <c r="D20">
+        <v>2.250703710066511</v>
+      </c>
+      <c r="E20">
+        <v>0.5940247197206466</v>
+      </c>
+      <c r="F20">
+        <v>389.4478826751308</v>
+      </c>
+      <c r="G20">
+        <v>428.1837473382995</v>
+      </c>
+      <c r="H20">
+        <v>423.3594506998551</v>
+      </c>
+      <c r="I20">
+        <v>426.558438977634</v>
+      </c>
+      <c r="J20">
+        <v>79.28782244172801</v>
+      </c>
+      <c r="K20">
+        <v>78.30076593359642</v>
+      </c>
+      <c r="L20">
+        <v>62.94737497108171</v>
+      </c>
+      <c r="M20">
+        <v>75.81876965627744</v>
+      </c>
+      <c r="N20">
+        <v>62.97109342554045</v>
+      </c>
+      <c r="O20">
+        <v>76.26142669091396</v>
+      </c>
+      <c r="P20">
+        <v>348.7000218634095</v>
+      </c>
+      <c r="Q20">
+        <v>379.8311457931845</v>
+      </c>
+      <c r="R20">
+        <v>0.6541482459429255</v>
+      </c>
+      <c r="S20">
+        <v>-0.6694602983517514</v>
+      </c>
+      <c r="T20">
+        <v>-0.1818777295043112</v>
+      </c>
+      <c r="U20">
+        <v>120320</v>
+      </c>
+      <c r="V20">
+        <v>42159.68772119143</v>
+      </c>
+      <c r="W20">
+        <v>0.6809358233664593</v>
+      </c>
+      <c r="X20">
+        <v>8.195119714311881</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>51.80778152593694</v>
+      </c>
+      <c r="AA20">
+        <v>5.387761795873151</v>
+      </c>
+      <c r="AB20">
+        <v>0.7839134661969341</v>
+      </c>
+      <c r="AC20">
+        <v>-1.710099967248997</v>
+      </c>
+      <c r="AD20">
+        <v>-0.2125458959260335</v>
+      </c>
+      <c r="AE20">
+        <v>0.09441759425958017</v>
+      </c>
+      <c r="AF20">
+        <v>-0.0006993907529214819</v>
+      </c>
+      <c r="AG20">
+        <v>-0.1511958592767524</v>
+      </c>
+      <c r="AH20">
+        <v>-0.02788082850465462</v>
+      </c>
+      <c r="AI20">
+        <v>0.009344007599185444</v>
+      </c>
+      <c r="AJ20">
+        <v>-0.1464111594145087</v>
+      </c>
+      <c r="AK20">
+        <v>-8.749998222626822</v>
+      </c>
+      <c r="AL20">
+        <v>-6.000099933404561</v>
+      </c>
+      <c r="AM20">
+        <v>7668.631875577314</v>
+      </c>
+      <c r="AN20">
+        <v>7676.712139817465</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0.2208936891880016</v>
+      </c>
+      <c r="AQ20">
+        <v>126.8542352588419</v>
+      </c>
+      <c r="AR20">
+        <v>139.9824492217817</v>
+      </c>
+      <c r="AS20">
+        <v>913.5518694630574</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>5</v>
+      </c>
+      <c r="AX20">
+        <v>2598.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="A21" s="1">
+        <v>495</v>
+      </c>
+      <c r="B21">
+        <v>25896</v>
+      </c>
+      <c r="C21">
+        <v>7.152161418421161</v>
+      </c>
+      <c r="D21">
+        <v>2.250805872417207</v>
+      </c>
+      <c r="E21">
+        <v>0.6031314810376083</v>
+      </c>
+      <c r="F21">
+        <v>389.4873298190541</v>
+      </c>
+      <c r="G21">
+        <v>428.3364557046098</v>
+      </c>
+      <c r="H21">
+        <v>423.3934889994791</v>
+      </c>
+      <c r="I21">
+        <v>426.5329091427465</v>
+      </c>
+      <c r="J21">
+        <v>79.28730686109722</v>
+      </c>
+      <c r="K21">
+        <v>78.30113452475888</v>
+      </c>
+      <c r="L21">
+        <v>62.94851783419244</v>
+      </c>
+      <c r="M21">
+        <v>75.81985098851375</v>
+      </c>
+      <c r="N21">
+        <v>62.97243348353657</v>
+      </c>
+      <c r="O21">
+        <v>76.26323166293416</v>
+      </c>
+      <c r="P21">
+        <v>348.7108409559045</v>
+      </c>
+      <c r="Q21">
+        <v>379.8430440280652</v>
+      </c>
+      <c r="R21">
+        <v>0.647807485474829</v>
+      </c>
+      <c r="S21">
+        <v>-0.6637755695246612</v>
+      </c>
+      <c r="T21">
+        <v>-0.1819029018779679</v>
+      </c>
+      <c r="U21">
+        <v>120320</v>
+      </c>
+      <c r="V21">
+        <v>42159.78772555314</v>
+      </c>
+      <c r="W21">
+        <v>0.7478516245610924</v>
+      </c>
+      <c r="X21">
+        <v>8.027668081160234</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>51.80778099936519</v>
+      </c>
+      <c r="AA21">
+        <v>5.387893000545904</v>
+      </c>
+      <c r="AB21">
+        <v>0.7139420051407434</v>
+      </c>
+      <c r="AC21">
+        <v>-1.695100626692681</v>
+      </c>
+      <c r="AD21">
+        <v>-0.234203543923383</v>
+      </c>
+      <c r="AE21">
+        <v>0.09366047377697136</v>
+      </c>
+      <c r="AF21">
+        <v>-0.0004623547855853951</v>
+      </c>
+      <c r="AG21">
+        <v>-0.1573292610244905</v>
+      </c>
+      <c r="AH21">
+        <v>-0.02526464685083015</v>
+      </c>
+      <c r="AI21">
+        <v>0.01050422973429045</v>
+      </c>
+      <c r="AJ21">
+        <v>-0.1525289229342458</v>
+      </c>
+      <c r="AK21">
+        <v>-8.749998256406606</v>
+      </c>
+      <c r="AL21">
+        <v>-6.000878553203187</v>
+      </c>
+      <c r="AM21">
+        <v>7669.961956701096</v>
+      </c>
+      <c r="AN21">
+        <v>7678.038408565126</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0.2207737995216727</v>
+      </c>
+      <c r="AQ21">
+        <v>126.7838990572352</v>
+      </c>
+      <c r="AR21">
+        <v>139.9118587894122</v>
+      </c>
+      <c r="AS21">
+        <v>897.3102956339367</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>2598.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="A22" s="1">
+        <v>496</v>
+      </c>
+      <c r="B22">
+        <v>25897</v>
+      </c>
+      <c r="C22">
+        <v>7.084162849387755</v>
+      </c>
+      <c r="D22">
+        <v>2.250957583530812</v>
+      </c>
+      <c r="E22">
+        <v>0.6111356678799216</v>
+      </c>
+      <c r="F22">
+        <v>389.4636696056331</v>
+      </c>
+      <c r="G22">
+        <v>428.4302782349952</v>
+      </c>
+      <c r="H22">
+        <v>423.4138198736929</v>
+      </c>
+      <c r="I22">
+        <v>426.5079115358203</v>
+      </c>
+      <c r="J22">
+        <v>79.28735892225617</v>
+      </c>
+      <c r="K22">
+        <v>78.3006783104679</v>
+      </c>
+      <c r="L22">
+        <v>62.94862418611255</v>
+      </c>
+      <c r="M22">
+        <v>75.820029836424</v>
+      </c>
+      <c r="N22">
+        <v>62.97381903230772</v>
+      </c>
+      <c r="O22">
+        <v>76.26501480242585</v>
+      </c>
+      <c r="P22">
+        <v>348.7216593911713</v>
+      </c>
+      <c r="Q22">
+        <v>379.8549448691272</v>
+      </c>
+      <c r="R22">
+        <v>0.6416999612675984</v>
+      </c>
+      <c r="S22">
+        <v>-0.6593757053783785</v>
+      </c>
+      <c r="T22">
+        <v>-0.1821567338353607</v>
+      </c>
+      <c r="U22">
+        <v>120320</v>
+      </c>
+      <c r="V22">
+        <v>42159.88772991486</v>
+      </c>
+      <c r="W22">
+        <v>0.8074912973924507</v>
+      </c>
+      <c r="X22">
+        <v>7.862490579708983</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>51.80778045917211</v>
+      </c>
+      <c r="AA22">
+        <v>5.388024141026067</v>
+      </c>
+      <c r="AB22">
+        <v>0.64893772422812</v>
+      </c>
+      <c r="AC22">
+        <v>-1.673731086009771</v>
+      </c>
+      <c r="AD22">
+        <v>-0.2461589438479782</v>
+      </c>
+      <c r="AE22">
+        <v>0.09311868812737775</v>
+      </c>
+      <c r="AF22">
+        <v>-0.0001626552376751823</v>
+      </c>
+      <c r="AG22">
+        <v>-0.1623660429852895</v>
+      </c>
+      <c r="AH22">
+        <v>-0.02263928330781611</v>
+      </c>
+      <c r="AI22">
+        <v>0.01161989582200425</v>
+      </c>
+      <c r="AJ22">
+        <v>-0.1575528705408328</v>
+      </c>
+      <c r="AK22">
+        <v>-8.749999376971299</v>
+      </c>
+      <c r="AL22">
+        <v>-6.003722012851194</v>
+      </c>
+      <c r="AM22">
+        <v>7671.247053107464</v>
+      </c>
+      <c r="AN22">
+        <v>7679.306360129475</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0.2206724035539956</v>
+      </c>
+      <c r="AQ22">
+        <v>126.7235501522728</v>
+      </c>
+      <c r="AR22">
+        <v>139.852699665185</v>
+      </c>
+      <c r="AS22">
+        <v>879.5159948379576</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>2</v>
+      </c>
+      <c r="AW22">
+        <v>5</v>
+      </c>
+      <c r="AX22">
+        <v>2598.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="A23" s="1">
+        <v>497</v>
+      </c>
+      <c r="B23">
+        <v>25898</v>
+      </c>
+      <c r="C23">
+        <v>7.022998014958596</v>
+      </c>
+      <c r="D23">
+        <v>2.251098285608436</v>
+      </c>
+      <c r="E23">
+        <v>0.6174840908053698</v>
+      </c>
+      <c r="F23">
+        <v>389.3897724469595</v>
+      </c>
+      <c r="G23">
+        <v>428.4946282904258</v>
+      </c>
+      <c r="H23">
+        <v>423.417602616212</v>
+      </c>
+      <c r="I23">
+        <v>426.4880891001137</v>
+      </c>
+      <c r="J23">
+        <v>79.2878486121561</v>
+      </c>
+      <c r="K23">
+        <v>78.29988347502223</v>
+      </c>
+      <c r="L23">
+        <v>62.94764922450336</v>
+      </c>
+      <c r="M23">
+        <v>75.81943835605834</v>
+      </c>
+      <c r="N23">
+        <v>62.97544633255198</v>
+      </c>
+      <c r="O23">
+        <v>76.26680529746621</v>
+      </c>
+      <c r="P23">
+        <v>348.7324757737392</v>
+      </c>
+      <c r="Q23">
+        <v>379.8668474976909</v>
+      </c>
+      <c r="R23">
+        <v>0.6364180677105286</v>
+      </c>
+      <c r="S23">
+        <v>-0.6564982700274372</v>
+      </c>
+      <c r="T23">
+        <v>-0.182962332113168</v>
+      </c>
+      <c r="U23">
+        <v>120320</v>
+      </c>
+      <c r="V23">
+        <v>42159.98773427658</v>
+      </c>
+      <c r="W23">
+        <v>0.8606098655663265</v>
+      </c>
+      <c r="X23">
+        <v>7.699920566047567</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>51.80777990210807</v>
+      </c>
+      <c r="AA23">
+        <v>5.388155201009956</v>
+      </c>
+      <c r="AB23">
+        <v>0.5879294857221894</v>
+      </c>
+      <c r="AC23">
+        <v>-1.648909154544253</v>
+      </c>
+      <c r="AD23">
+        <v>-0.2481959179101541</v>
+      </c>
+      <c r="AE23">
+        <v>0.09276623932660441</v>
+      </c>
+      <c r="AF23">
+        <v>0.0001711243079743315</v>
+      </c>
+      <c r="AG23">
+        <v>-0.1661581647236849</v>
+      </c>
+      <c r="AH23">
+        <v>-0.02004978695842884</v>
+      </c>
+      <c r="AI23">
+        <v>0.01268237132487458</v>
+      </c>
+      <c r="AJ23">
+        <v>-0.1613384426755661</v>
+      </c>
+      <c r="AK23">
+        <v>-8.750000157995032</v>
+      </c>
+      <c r="AL23">
+        <v>-6.010886235682587</v>
+      </c>
+      <c r="AM23">
+        <v>7672.491749112355</v>
+      </c>
+      <c r="AN23">
+        <v>7680.530103815002</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0.2205941297070393</v>
+      </c>
+      <c r="AQ23">
+        <v>126.6754451321919</v>
+      </c>
+      <c r="AR23">
+        <v>139.8080736209063</v>
+      </c>
+      <c r="AS23">
+        <v>859.7903791981735</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>2</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>2598.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50">
+      <c r="A24" s="1">
+        <v>498</v>
+      </c>
+      <c r="B24">
+        <v>25899</v>
+      </c>
+      <c r="C24">
+        <v>6.970570016950214</v>
+      </c>
+      <c r="D24">
+        <v>2.251170298965244</v>
+      </c>
+      <c r="E24">
+        <v>0.6217523615022897</v>
+      </c>
+      <c r="F24">
+        <v>389.2889726232194</v>
+      </c>
+      <c r="G24">
+        <v>428.5669636667001</v>
+      </c>
+      <c r="H24">
+        <v>423.4103563174556</v>
+      </c>
+      <c r="I24">
+        <v>426.471061615531</v>
+      </c>
+      <c r="J24">
+        <v>79.28832072167197</v>
+      </c>
+      <c r="K24">
+        <v>78.29957477245406</v>
+      </c>
+      <c r="L24">
+        <v>62.94591913559108</v>
+      </c>
+      <c r="M24">
+        <v>75.81844156034903</v>
+      </c>
+      <c r="N24">
+        <v>62.97739316912234</v>
+      </c>
+      <c r="O24">
+        <v>76.26845595951555</v>
+      </c>
+      <c r="P24">
+        <v>348.7432893563121</v>
+      </c>
+      <c r="Q24">
+        <v>379.8787521355705</v>
+      </c>
+      <c r="R24">
+        <v>0.6324334999823017</v>
+      </c>
+      <c r="S24">
+        <v>-0.6549665075121022</v>
+      </c>
+      <c r="T24">
+        <v>-0.184664342798676</v>
+      </c>
+      <c r="U24">
+        <v>120320</v>
+      </c>
+      <c r="V24">
+        <v>42160.08772319764</v>
+      </c>
+      <c r="W24">
+        <v>0.9077060055189534</v>
+      </c>
+      <c r="X24">
+        <v>7.539960161024179</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>51.80777932811448</v>
+      </c>
+      <c r="AA24">
+        <v>5.388286179307367</v>
+      </c>
+      <c r="AB24">
+        <v>0.5275189491193524</v>
+      </c>
+      <c r="AC24">
+        <v>-1.62331592014535</v>
+      </c>
+      <c r="AD24">
+        <v>-0.2407451768268014</v>
+      </c>
+      <c r="AE24">
+        <v>0.09256055415439636</v>
+      </c>
+      <c r="AF24">
+        <v>0.0005310966571963689</v>
+      </c>
+      <c r="AG24">
+        <v>-0.1687221648007459</v>
+      </c>
+      <c r="AH24">
+        <v>-0.01753434630952698</v>
+      </c>
+      <c r="AI24">
+        <v>0.01369655535082456</v>
+      </c>
+      <c r="AJ24">
+        <v>-0.1639075669873025</v>
+      </c>
+      <c r="AK24">
+        <v>-8.750000314751361</v>
+      </c>
+      <c r="AL24">
+        <v>-6.025002815108721</v>
+      </c>
+      <c r="AM24">
+        <v>7673.69090251844</v>
+      </c>
+      <c r="AN24">
+        <v>7681.720908422102</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0.2205417408850857</v>
+      </c>
+      <c r="AQ24">
+        <v>126.641675509035</v>
+      </c>
+      <c r="AR24">
+        <v>139.7805690861358</v>
+      </c>
+      <c r="AS24">
+        <v>838.0683184029408</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>2</v>
+      </c>
+      <c r="AW24">
+        <v>5</v>
+      </c>
+      <c r="AX24">
+        <v>2598.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50">
+      <c r="A25" s="1">
+        <v>499</v>
+      </c>
+      <c r="B25">
+        <v>25900</v>
+      </c>
+      <c r="C25">
+        <v>6.927585599287561</v>
+      </c>
+      <c r="D25">
+        <v>2.251153162103797</v>
+      </c>
+      <c r="E25">
+        <v>0.6239798562376436</v>
+      </c>
+      <c r="F25">
+        <v>389.1882382749524</v>
+      </c>
+      <c r="G25">
+        <v>428.6624874487323</v>
+      </c>
+      <c r="H25">
+        <v>423.4022270446602</v>
+      </c>
+      <c r="I25">
+        <v>426.4509046850781</v>
+      </c>
+      <c r="J25">
+        <v>79.28832498415009</v>
+      </c>
+      <c r="K25">
+        <v>78.30021742981394</v>
+      </c>
+      <c r="L25">
+        <v>62.94403902467558</v>
+      </c>
+      <c r="M25">
+        <v>75.81744703781627</v>
+      </c>
+      <c r="N25">
+        <v>62.97942408586316</v>
+      </c>
+      <c r="O25">
+        <v>76.26949104606109</v>
+      </c>
+      <c r="P25">
+        <v>348.7541001407087</v>
+      </c>
+      <c r="Q25">
+        <v>379.8906594268885</v>
+      </c>
+      <c r="R25">
+        <v>0.6298906118738581</v>
+      </c>
+      <c r="S25">
+        <v>-0.65432546772211</v>
+      </c>
+      <c r="T25">
+        <v>-0.1873664846944516</v>
+      </c>
+      <c r="U25">
+        <v>120320</v>
+      </c>
+      <c r="V25">
+        <v>42160.18770996014</v>
+      </c>
+      <c r="W25">
+        <v>0.9489581932077832</v>
+      </c>
+      <c r="X25">
+        <v>7.382407169005759</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>51.80777874034898</v>
+      </c>
+      <c r="AA25">
+        <v>5.388417090347376</v>
+      </c>
+      <c r="AB25">
+        <v>0.466355884716022</v>
+      </c>
+      <c r="AC25">
+        <v>-1.599083857193506</v>
+      </c>
+      <c r="AD25">
+        <v>-0.2242289056553206</v>
+      </c>
+      <c r="AE25">
+        <v>0.09244080507840043</v>
+      </c>
+      <c r="AF25">
+        <v>0.0009463906102342288</v>
+      </c>
+      <c r="AG25">
+        <v>-0.1702836688358577</v>
+      </c>
+      <c r="AH25">
+        <v>-0.01511962150625548</v>
+      </c>
+      <c r="AI25">
+        <v>0.01469460025392987</v>
+      </c>
+      <c r="AJ25">
+        <v>-0.1654894774459542</v>
+      </c>
+      <c r="AK25">
+        <v>-8.750000164266524</v>
+      </c>
+      <c r="AL25">
+        <v>-6.047925715994146</v>
+      </c>
+      <c r="AM25">
+        <v>7674.835321278131</v>
+      </c>
+      <c r="AN25">
+        <v>7682.876737895563</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0.2205183702060947</v>
+      </c>
+      <c r="AQ25">
+        <v>126.6248579209627</v>
+      </c>
+      <c r="AR25">
+        <v>139.7721014208363</v>
+      </c>
+      <c r="AS25">
+        <v>814.561988977799</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>2</v>
+      </c>
+      <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50">
+      <c r="A26" s="1">
+        <v>500</v>
+      </c>
+      <c r="B26">
+        <v>25901</v>
+      </c>
+      <c r="C26">
+        <v>6.89298408542853</v>
+      </c>
+      <c r="D26">
+        <v>2.251070079548678</v>
+      </c>
+      <c r="E26">
+        <v>0.6248013045810941</v>
+      </c>
+      <c r="F26">
+        <v>389.1146126858832</v>
+      </c>
+      <c r="G26">
+        <v>428.757642990986</v>
+      </c>
+      <c r="H26">
+        <v>423.4014560912786</v>
+      </c>
+      <c r="I26">
+        <v>426.4244840597354</v>
+      </c>
+      <c r="J26">
+        <v>79.28771141448163</v>
+      </c>
+      <c r="K26">
+        <v>78.30160060681209</v>
+      </c>
+      <c r="L26">
+        <v>62.94267234148736</v>
+      </c>
+      <c r="M26">
+        <v>75.8167486950812</v>
+      </c>
+      <c r="N26">
+        <v>62.98098447702908</v>
+      </c>
+      <c r="O26">
+        <v>76.26933661828471</v>
+      </c>
+      <c r="P26">
+        <v>348.7649088799499</v>
+      </c>
+      <c r="Q26">
+        <v>379.9025693614161</v>
+      </c>
+      <c r="R26">
+        <v>0.628567449494744</v>
+      </c>
+      <c r="S26">
+        <v>-0.6540374867746459</v>
+      </c>
+      <c r="T26">
+        <v>-0.1906921960236573</v>
+      </c>
+      <c r="U26">
+        <v>120320</v>
+      </c>
+      <c r="V26">
+        <v>42160.28769672263</v>
+      </c>
+      <c r="W26">
+        <v>0.9847200137999549</v>
+      </c>
+      <c r="X26">
+        <v>7.226981436818511</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>51.80777814361373</v>
+      </c>
+      <c r="AA26">
+        <v>5.388547956823579</v>
+      </c>
+      <c r="AB26">
+        <v>0.4102506773114434</v>
+      </c>
+      <c r="AC26">
+        <v>-1.577428697209203</v>
+      </c>
+      <c r="AD26">
+        <v>-0.1984870981326522</v>
+      </c>
+      <c r="AE26">
+        <v>0.09233264775923358</v>
+      </c>
+      <c r="AF26">
+        <v>0.001453320786937112</v>
+      </c>
+      <c r="AG26">
+        <v>-0.1712193835575323</v>
+      </c>
+      <c r="AH26">
+        <v>-0.01282530313240763</v>
+      </c>
+      <c r="AI26">
+        <v>0.01571347085160131</v>
+      </c>
+      <c r="AJ26">
+        <v>-0.1664568702452325</v>
+      </c>
+      <c r="AK26">
+        <v>-8.750000027159301</v>
+      </c>
+      <c r="AL26">
+        <v>-6.079460479336466</v>
+      </c>
+      <c r="AM26">
+        <v>7675.919487812014</v>
+      </c>
+      <c r="AN26">
+        <v>7683.981944656751</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0.2205276472068665</v>
+      </c>
+      <c r="AQ26">
+        <v>126.627533618459</v>
+      </c>
+      <c r="AR26">
+        <v>139.7830883823128</v>
+      </c>
+      <c r="AS26">
+        <v>789.5588620229628</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
+        <v>2599.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="A27" s="1">
+        <v>501</v>
+      </c>
+      <c r="B27">
+        <v>25902</v>
+      </c>
+      <c r="C27">
+        <v>6.864251556130549</v>
+      </c>
+      <c r="D27">
+        <v>2.250966531221706</v>
+      </c>
+      <c r="E27">
+        <v>0.6251611590178868</v>
+      </c>
+      <c r="F27">
+        <v>389.0890545394813</v>
+      </c>
+      <c r="G27">
+        <v>428.8014408605031</v>
+      </c>
+      <c r="H27">
+        <v>423.4092570830118</v>
+      </c>
+      <c r="I27">
+        <v>426.3954693868897</v>
+      </c>
+      <c r="J27">
+        <v>79.28670841543389</v>
+      </c>
+      <c r="K27">
+        <v>78.30306156435141</v>
+      </c>
+      <c r="L27">
+        <v>62.94223482214628</v>
+      </c>
+      <c r="M27">
+        <v>75.81641402000551</v>
+      </c>
+      <c r="N27">
+        <v>62.98141027303317</v>
+      </c>
+      <c r="O27">
+        <v>76.26778930369116</v>
+      </c>
+      <c r="P27">
+        <v>348.7757169092427</v>
+      </c>
+      <c r="Q27">
+        <v>379.9144805125511</v>
+      </c>
+      <c r="R27">
+        <v>0.628043405441568</v>
+      </c>
+      <c r="S27">
+        <v>-0.6535944932622044</v>
+      </c>
+      <c r="T27">
+        <v>-0.1938612800752697</v>
+      </c>
+      <c r="U27">
+        <v>120320</v>
+      </c>
+      <c r="V27">
+        <v>42160.38768348513</v>
+      </c>
+      <c r="W27">
+        <v>1.016440458896408</v>
+      </c>
+      <c r="X27">
+        <v>7.073420047728545</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>51.80777754228606</v>
+      </c>
+      <c r="AA27">
+        <v>5.388678800104094</v>
+      </c>
+      <c r="AB27">
+        <v>0.3740712912738158</v>
+      </c>
+      <c r="AC27">
+        <v>-1.558464662511697</v>
+      </c>
+      <c r="AD27">
+        <v>-0.1629500598541941</v>
+      </c>
+      <c r="AE27">
+        <v>0.09216515668963071</v>
+      </c>
+      <c r="AF27">
+        <v>0.00203109018774887</v>
+      </c>
+      <c r="AG27">
+        <v>-0.1719551023854346</v>
+      </c>
+      <c r="AH27">
+        <v>-0.01066299539665285</v>
+      </c>
+      <c r="AI27">
+        <v>0.01674568288876381</v>
+      </c>
+      <c r="AJ27">
+        <v>-0.1672221738846368</v>
+      </c>
+      <c r="AK27">
+        <v>-8.749999998309571</v>
+      </c>
+      <c r="AL27">
+        <v>-6.116822802842146</v>
+      </c>
+      <c r="AM27">
+        <v>7676.94513688085</v>
+      </c>
+      <c r="AN27">
+        <v>7685.015976316233</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0.2205685539394796</v>
+      </c>
+      <c r="AQ27">
+        <v>126.6491026895635</v>
+      </c>
+      <c r="AR27">
+        <v>139.8100489077532</v>
+      </c>
+      <c r="AS27">
+        <v>763.1959256403784</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>2599.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50">
+      <c r="A28" s="1">
+        <v>502</v>
+      </c>
+      <c r="B28">
+        <v>25903</v>
+      </c>
+      <c r="C28">
+        <v>6.83847689241434</v>
+      </c>
+      <c r="D28">
+        <v>2.250880956944989</v>
+      </c>
+      <c r="E28">
+        <v>0.6257960046399618</v>
+      </c>
+      <c r="F28">
+        <v>389.1190244982608</v>
+      </c>
+      <c r="G28">
+        <v>428.7470770178393</v>
+      </c>
+      <c r="H28">
+        <v>423.4198401013168</v>
+      </c>
+      <c r="I28">
+        <v>426.3725108796652</v>
+      </c>
+      <c r="J28">
+        <v>79.28576545163028</v>
+      </c>
+      <c r="K28">
+        <v>78.30392581278807</v>
+      </c>
+      <c r="L28">
+        <v>62.94267642422705</v>
+      </c>
+      <c r="M28">
+        <v>75.81625597064162</v>
+      </c>
+      <c r="N28">
+        <v>62.98026936987241</v>
+      </c>
+      <c r="O28">
+        <v>76.2652668147072</v>
+      </c>
+      <c r="P28">
+        <v>348.7865257710343</v>
+      </c>
+      <c r="Q28">
+        <v>379.9263901535793</v>
+      </c>
+      <c r="R28">
+        <v>0.62791991021625</v>
+      </c>
+      <c r="S28">
+        <v>-0.6525632416307738</v>
+      </c>
+      <c r="T28">
+        <v>-0.1962067955869907</v>
+      </c>
+      <c r="U28">
+        <v>120320</v>
+      </c>
+      <c r="V28">
+        <v>42160.48767024762</v>
+      </c>
+      <c r="W28">
+        <v>1.0473906231595</v>
+      </c>
+      <c r="X28">
+        <v>6.921540525685544</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>51.8077769388087</v>
+      </c>
+      <c r="AA28">
+        <v>5.38880963414803</v>
+      </c>
+      <c r="AB28">
+        <v>0.3764651440407747</v>
+      </c>
+      <c r="AC28">
+        <v>-1.541384855682095</v>
+      </c>
+      <c r="AD28">
+        <v>-0.117788829888518</v>
+      </c>
+      <c r="AE28">
+        <v>0.09189672781852161</v>
+      </c>
+      <c r="AF28">
+        <v>0.002546975611859914</v>
+      </c>
+      <c r="AG28">
+        <v>-0.1728731163874563</v>
+      </c>
+      <c r="AH28">
+        <v>-0.008622562122955138</v>
+      </c>
+      <c r="AI28">
+        <v>0.01769781137481874</v>
+      </c>
+      <c r="AJ28">
+        <v>-0.1681522559305653</v>
+      </c>
+      <c r="AK28">
+        <v>-8.749999995968244</v>
+      </c>
+      <c r="AL28">
+        <v>-6.155288248133185</v>
+      </c>
+      <c r="AM28">
+        <v>7677.917287163109</v>
+      </c>
+      <c r="AN28">
+        <v>7685.965187053237</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0.2206286849559186</v>
+      </c>
+      <c r="AQ28">
+        <v>126.682158938296</v>
+      </c>
+      <c r="AR28">
+        <v>139.8432373493952</v>
+      </c>
+      <c r="AS28">
+        <v>735.4012770984375</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>2599.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50">
+      <c r="A29" s="1">
+        <v>503</v>
+      </c>
+      <c r="B29">
+        <v>25904</v>
+      </c>
+      <c r="C29">
+        <v>6.813598657795316</v>
+      </c>
+      <c r="D29">
+        <v>2.250827950833789</v>
+      </c>
+      <c r="E29">
+        <v>0.6268867148719318</v>
+      </c>
+      <c r="F29">
+        <v>389.1972350444651</v>
+      </c>
+      <c r="G29">
+        <v>428.5842958183856</v>
+      </c>
+      <c r="H29">
+        <v>423.4252459273284</v>
+      </c>
+      <c r="I29">
+        <v>426.3631262542704</v>
+      </c>
+      <c r="J29">
+        <v>79.2852880112609</v>
+      </c>
+      <c r="K29">
+        <v>78.30383054481428</v>
+      </c>
+      <c r="L29">
+        <v>62.94354529685218</v>
+      </c>
+      <c r="M29">
+        <v>75.81597664707395</v>
+      </c>
+      <c r="N29">
+        <v>62.97772670986584</v>
+      </c>
+      <c r="O29">
+        <v>76.26260721571148</v>
+      </c>
+      <c r="P29">
+        <v>348.7973368053412</v>
+      </c>
+      <c r="Q29">
+        <v>379.9382952729076</v>
+      </c>
+      <c r="R29">
+        <v>0.6279351097933856</v>
+      </c>
+      <c r="S29">
+        <v>-0.650665624439098</v>
+      </c>
+      <c r="T29">
+        <v>-0.1978298634095623</v>
+      </c>
+      <c r="U29">
+        <v>120320</v>
+      </c>
+      <c r="V29">
+        <v>42160.58765701012</v>
+      </c>
+      <c r="W29">
+        <v>1.082348248833325</v>
+      </c>
+      <c r="X29">
+        <v>6.771268836157065</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>51.80777633286559</v>
+      </c>
+      <c r="AA29">
+        <v>5.388940464366993</v>
+      </c>
+      <c r="AB29">
+        <v>0.4271396351713972</v>
+      </c>
+      <c r="AC29">
+        <v>-1.524989502126349</v>
+      </c>
+      <c r="AD29">
+        <v>-0.06546548333463363</v>
+      </c>
+      <c r="AE29">
+        <v>0.09153524886436633</v>
+      </c>
+      <c r="AF29">
+        <v>0.002772657328801774</v>
+      </c>
+      <c r="AG29">
+        <v>-0.1742356010071004</v>
+      </c>
+      <c r="AH29">
+        <v>-0.006659217695133997</v>
+      </c>
+      <c r="AI29">
+        <v>0.01840482583384134</v>
+      </c>
+      <c r="AJ29">
+        <v>-0.1695034904582997</v>
+      </c>
+      <c r="AK29">
+        <v>-8.749999905742367</v>
+      </c>
+      <c r="AL29">
+        <v>-6.189753682453525</v>
+      </c>
+      <c r="AM29">
+        <v>7678.836773572284</v>
+      </c>
+      <c r="AN29">
+        <v>7686.831224565609</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0.2206841987966281</v>
+      </c>
+      <c r="AQ29">
+        <v>126.7125478440293</v>
+      </c>
+      <c r="AR29">
+        <v>139.8681039160065</v>
+      </c>
+      <c r="AS29">
+        <v>706.0622331925747</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>2599.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50">
+      <c r="A30" s="1">
+        <v>504</v>
+      </c>
+      <c r="B30">
+        <v>25905</v>
+      </c>
+      <c r="C30">
+        <v>6.78916051679572</v>
+      </c>
+      <c r="D30">
+        <v>2.250803514901247</v>
+      </c>
+      <c r="E30">
+        <v>0.6281272696898308</v>
+      </c>
+      <c r="F30">
+        <v>389.3094741842801</v>
+      </c>
+      <c r="G30">
+        <v>428.3529124932708</v>
+      </c>
+      <c r="H30">
+        <v>423.4211372070121</v>
+      </c>
+      <c r="I30">
+        <v>426.3681929278245</v>
+      </c>
+      <c r="J30">
+        <v>79.2854142239151</v>
+      </c>
+      <c r="K30">
+        <v>78.30283186243744</v>
+      </c>
+      <c r="L30">
+        <v>62.94438275785476</v>
+      </c>
+      <c r="M30">
+        <v>75.81543014551292</v>
+      </c>
+      <c r="N30">
+        <v>62.97471298081802</v>
+      </c>
+      <c r="O30">
+        <v>76.26062323481422</v>
+      </c>
+      <c r="P30">
+        <v>348.8081509574018</v>
+      </c>
+      <c r="Q30">
+        <v>379.9501939649213</v>
+      </c>
+      <c r="R30">
+        <v>0.6279365866780193</v>
+      </c>
+      <c r="S30">
+        <v>-0.6479196486684092</v>
+      </c>
+      <c r="T30">
+        <v>-0.1998921046782152</v>
+      </c>
+      <c r="U30">
+        <v>120320</v>
+      </c>
+      <c r="V30">
+        <v>42160.68764377262</v>
+      </c>
+      <c r="W30">
+        <v>1.125848902222224</v>
+      </c>
+      <c r="X30">
+        <v>6.622628321171835</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>51.80777572124794</v>
+      </c>
+      <c r="AA30">
+        <v>5.389071289505143</v>
+      </c>
+      <c r="AB30">
+        <v>0.5142554060587334</v>
+      </c>
+      <c r="AC30">
+        <v>-1.50834050190629</v>
+      </c>
+      <c r="AD30">
+        <v>-0.01130599207307646</v>
+      </c>
+      <c r="AE30">
+        <v>0.09113627559646943</v>
+      </c>
+      <c r="AF30">
+        <v>0.002507511339041976</v>
+      </c>
+      <c r="AG30">
+        <v>-0.1761040071759008</v>
+      </c>
+      <c r="AH30">
+        <v>-0.004703671928510903</v>
+      </c>
+      <c r="AI30">
+        <v>0.01872942749336565</v>
+      </c>
+      <c r="AJ30">
+        <v>-0.1713455300770847</v>
+      </c>
+      <c r="AK30">
+        <v>-8.749999733790091</v>
+      </c>
+      <c r="AL30">
+        <v>-6.216473172459886</v>
+      </c>
+      <c r="AM30">
+        <v>7679.697636619516</v>
+      </c>
+      <c r="AN30">
+        <v>7687.631302691461</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0.2207105804696287</v>
+      </c>
+      <c r="AQ30">
+        <v>126.725609116114</v>
+      </c>
+      <c r="AR30">
+        <v>139.872222975004</v>
+      </c>
+      <c r="AS30">
+        <v>675.2722553676489</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>2</v>
+      </c>
+      <c r="AW30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>2599.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="A31" s="1">
+        <v>505</v>
+      </c>
+      <c r="B31">
+        <v>25906</v>
+      </c>
+      <c r="C31">
+        <v>6.766205341895567</v>
+      </c>
+      <c r="D31">
+        <v>2.250805748361566</v>
+      </c>
+      <c r="E31">
+        <v>0.6291125446076091</v>
+      </c>
+      <c r="F31">
+        <v>389.4439440366726</v>
+      </c>
+      <c r="G31">
+        <v>428.1245370463664</v>
+      </c>
+      <c r="H31">
+        <v>423.4098204689269</v>
+      </c>
+      <c r="I31">
+        <v>426.3802013853062</v>
+      </c>
+      <c r="J31">
+        <v>79.28593233673591</v>
+      </c>
+      <c r="K31">
+        <v>78.30131719181</v>
+      </c>
+      <c r="L31">
+        <v>62.94515220359195</v>
+      </c>
+      <c r="M31">
+        <v>75.8147932842096</v>
+      </c>
+      <c r="N31">
+        <v>62.97253351573716</v>
+      </c>
+      <c r="O31">
+        <v>76.25972832614265</v>
+      </c>
+      <c r="P31">
+        <v>348.8189688447362</v>
+      </c>
+      <c r="Q31">
+        <v>379.9620863131726</v>
+      </c>
+      <c r="R31">
+        <v>0.6277838186470616</v>
+      </c>
+      <c r="S31">
+        <v>-0.6447155439653091</v>
+      </c>
+      <c r="T31">
+        <v>-0.2043280813668512</v>
+      </c>
+      <c r="U31">
+        <v>120320</v>
+      </c>
+      <c r="V31">
+        <v>42160.78763053511</v>
+      </c>
+      <c r="W31">
+        <v>1.179765104083626</v>
+      </c>
+      <c r="X31">
+        <v>6.475686601951777</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>51.80777509842116</v>
+      </c>
+      <c r="AA31">
+        <v>5.389202104422666</v>
+      </c>
+      <c r="AB31">
+        <v>0.6039415459443429</v>
+      </c>
+      <c r="AC31">
+        <v>-1.491201377806298</v>
+      </c>
+      <c r="AD31">
+        <v>0.03812624975900531</v>
+      </c>
+      <c r="AE31">
+        <v>0.09077989585901386</v>
+      </c>
+      <c r="AF31">
+        <v>0.001748305475341908</v>
+      </c>
+      <c r="AG31">
+        <v>-0.1782686225765497</v>
+      </c>
+      <c r="AH31">
+        <v>-0.002695033742412895</v>
+      </c>
+      <c r="AI31">
+        <v>0.01869780864004286</v>
+      </c>
+      <c r="AJ31">
+        <v>-0.1734842247140072</v>
+      </c>
+      <c r="AK31">
+        <v>-8.749999713148737</v>
+      </c>
+      <c r="AL31">
+        <v>-6.234162124128368</v>
+      </c>
+      <c r="AM31">
+        <v>7680.491418917623</v>
+      </c>
+      <c r="AN31">
+        <v>7688.389405438946</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0.2206977311023285</v>
+      </c>
+      <c r="AQ31">
+        <v>126.7152338785859</v>
+      </c>
+      <c r="AR31">
+        <v>139.8534557603758</v>
+      </c>
+      <c r="AS31">
+        <v>643.423187811057</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>5</v>
+      </c>
+      <c r="AX31">
+        <v>2599.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50">
+      <c r="A32" s="1">
+        <v>506</v>
+      </c>
+      <c r="B32">
+        <v>25907</v>
+      </c>
+      <c r="C32">
+        <v>6.746488091733595</v>
+      </c>
+      <c r="D32">
+        <v>2.25084745279473</v>
+      </c>
+      <c r="E32">
+        <v>0.6297204256363694</v>
+      </c>
+      <c r="F32">
+        <v>389.5918928892517</v>
+      </c>
+      <c r="G32">
+        <v>427.9589799685073</v>
+      </c>
+      <c r="H32">
+        <v>423.398296599721</v>
+      </c>
+      <c r="I32">
+        <v>426.3867448843918</v>
+      </c>
+      <c r="J32">
+        <v>79.28639269549227</v>
+      </c>
+      <c r="K32">
+        <v>78.29980518748951</v>
+      </c>
+      <c r="L32">
+        <v>62.9462668095764</v>
+      </c>
+      <c r="M32">
+        <v>75.81449436553072</v>
+      </c>
+      <c r="N32">
+        <v>62.97198041425179</v>
+      </c>
+      <c r="O32">
+        <v>76.25980721423942</v>
+      </c>
+      <c r="P32">
+        <v>348.8297908417609</v>
+      </c>
+      <c r="Q32">
+        <v>379.9739740626162</v>
+      </c>
+      <c r="R32">
+        <v>0.6272902964862024</v>
+      </c>
+      <c r="S32">
+        <v>-0.6416742116360765</v>
+      </c>
+      <c r="T32">
+        <v>-0.2131018348577566</v>
+      </c>
+      <c r="U32">
+        <v>120320</v>
+      </c>
+      <c r="V32">
+        <v>42160.88761729761</v>
+      </c>
+      <c r="W32">
+        <v>1.241888685494908</v>
+      </c>
+      <c r="X32">
+        <v>6.330469242949743</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>51.80777445824088</v>
+      </c>
+      <c r="AA32">
+        <v>5.389332903034824</v>
+      </c>
+      <c r="AB32">
+        <v>0.6565497141334458</v>
+      </c>
+      <c r="AC32">
+        <v>-1.474111324062052</v>
+      </c>
+      <c r="AD32">
+        <v>0.0783828531788691</v>
+      </c>
+      <c r="AE32">
+        <v>0.09054014770769502</v>
+      </c>
+      <c r="AF32">
+        <v>0.0007588542485547821</v>
+      </c>
+      <c r="AG32">
+        <v>-0.1802793318936279</v>
+      </c>
+      <c r="AH32">
+        <v>-0.0006090837843374267</v>
+      </c>
+      <c r="AI32">
+        <v>0.01854993103329575</v>
+      </c>
+      <c r="AJ32">
+        <v>-0.1754824792919573</v>
+      </c>
+      <c r="AK32">
+        <v>-8.750000215573772</v>
+      </c>
+      <c r="AL32">
+        <v>-6.243944006663576</v>
+      </c>
+      <c r="AM32">
+        <v>7681.213806601631</v>
+      </c>
+      <c r="AN32">
+        <v>7689.123601357849</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.2206568655658249</v>
+      </c>
+      <c r="AQ32">
+        <v>126.6882460360089</v>
+      </c>
+      <c r="AR32">
+        <v>139.8221689685727</v>
+      </c>
+      <c r="AS32">
+        <v>611.0531186674037</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>2</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>2599.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50">
+      <c r="A33" s="1">
+        <v>507</v>
+      </c>
+      <c r="B33">
+        <v>25908</v>
+      </c>
+      <c r="C33">
+        <v>6.731466082414756</v>
+      </c>
+      <c r="D33">
+        <v>2.250941410257724</v>
+      </c>
+      <c r="E33">
+        <v>0.6302028337262898</v>
+      </c>
+      <c r="F33">
+        <v>389.7405221636861</v>
+      </c>
+      <c r="G33">
+        <v>427.8676655908961</v>
+      </c>
+      <c r="H33">
+        <v>423.3918838412041</v>
+      </c>
+      <c r="I33">
+        <v>426.3789673113201</v>
+      </c>
+      <c r="J33">
+        <v>79.28637551640851</v>
+      </c>
+      <c r="K33">
+        <v>78.2987464827287</v>
+      </c>
+      <c r="L33">
+        <v>62.94816173689455</v>
+      </c>
+      <c r="M33">
+        <v>75.81492505611303</v>
+      </c>
+      <c r="N33">
+        <v>62.97282526410375</v>
+      </c>
+      <c r="O33">
+        <v>76.26036103545196</v>
+      </c>
+      <c r="P33">
+        <v>348.8406169673765</v>
+      </c>
+      <c r="Q33">
+        <v>379.9858592755493</v>
+      </c>
+      <c r="R33">
+        <v>0.6262891037817317</v>
+      </c>
+      <c r="S33">
+        <v>-0.6393291268342775</v>
+      </c>
+      <c r="T33">
+        <v>-0.2272861436784402</v>
+      </c>
+      <c r="U33">
+        <v>120320</v>
+      </c>
+      <c r="V33">
+        <v>42160.9876040601</v>
+      </c>
+      <c r="W33">
+        <v>1.306768160471875</v>
+      </c>
+      <c r="X33">
+        <v>6.186870326874934</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>51.80777379653971</v>
+      </c>
+      <c r="AA33">
+        <v>5.389463681190644</v>
+      </c>
+      <c r="AB33">
+        <v>0.6495584421601902</v>
+      </c>
+      <c r="AC33">
+        <v>-1.458196860745709</v>
+      </c>
+      <c r="AD33">
+        <v>0.1097667097450855</v>
+      </c>
+      <c r="AE33">
+        <v>0.0904555034958882</v>
+      </c>
+      <c r="AF33">
+        <v>-6.112269714380677e-05</v>
+      </c>
+      <c r="AG33">
+        <v>-0.1816589772867313</v>
+      </c>
+      <c r="AH33">
+        <v>0.001538338738404079</v>
+      </c>
+      <c r="AI33">
+        <v>0.01861897003674248</v>
+      </c>
+      <c r="AJ33">
+        <v>-0.1768679452782986</v>
+      </c>
+      <c r="AK33">
+        <v>-8.750001296251282</v>
+      </c>
+      <c r="AL33">
+        <v>-6.248288978878196</v>
+      </c>
+      <c r="AM33">
+        <v>7681.869016834461</v>
+      </c>
+      <c r="AN33">
+        <v>7689.838169378504</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0.2206128389244487</v>
+      </c>
+      <c r="AQ33">
+        <v>126.6597721530826</v>
+      </c>
+      <c r="AR33">
+        <v>139.794759461266</v>
+      </c>
+      <c r="AS33">
+        <v>578.5899236937751</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>2</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33">
+        <v>2599.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" s="1">
+        <v>508</v>
+      </c>
+      <c r="B34">
+        <v>25909</v>
+      </c>
+      <c r="C34">
+        <v>6.721500116035082</v>
+      </c>
+      <c r="D34">
+        <v>2.251072496790624</v>
+      </c>
+      <c r="E34">
+        <v>0.6309703728685537</v>
+      </c>
+      <c r="F34">
+        <v>389.8696609389175</v>
+      </c>
+      <c r="G34">
+        <v>427.8162640767897</v>
+      </c>
+      <c r="H34">
+        <v>423.3885985550868</v>
+      </c>
+      <c r="I34">
+        <v>426.3592654052004</v>
+      </c>
+      <c r="J34">
+        <v>79.28575654045024</v>
+      </c>
+      <c r="K34">
+        <v>78.29836898256183</v>
+      </c>
+      <c r="L34">
+        <v>62.95083401016932</v>
+      </c>
+      <c r="M34">
+        <v>75.81616248569478</v>
+      </c>
+      <c r="N34">
+        <v>62.97426578736803</v>
+      </c>
+      <c r="O34">
+        <v>76.26083989917348</v>
+      </c>
+      <c r="P34">
+        <v>348.8514466801804</v>
+      </c>
+      <c r="Q34">
+        <v>379.9977430606625</v>
+      </c>
+      <c r="R34">
+        <v>0.6248141901550743</v>
+      </c>
+      <c r="S34">
+        <v>-0.6378779488268381</v>
+      </c>
+      <c r="T34">
+        <v>-0.2463765421421233</v>
+      </c>
+      <c r="U34">
+        <v>120320</v>
+      </c>
+      <c r="V34">
+        <v>42161.08759993219</v>
+      </c>
+      <c r="W34">
+        <v>1.368396705820358</v>
+      </c>
+      <c r="X34">
+        <v>6.044616341395498</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>51.80777311321521</v>
+      </c>
+      <c r="AA34">
+        <v>5.389594438660878</v>
+      </c>
+      <c r="AB34">
+        <v>0.5895420216293403</v>
+      </c>
+      <c r="AC34">
+        <v>-1.444755341468499</v>
+      </c>
+      <c r="AD34">
+        <v>0.1368357397250111</v>
+      </c>
+      <c r="AE34">
+        <v>0.09050776698159643</v>
+      </c>
+      <c r="AF34">
+        <v>-0.0004330567018003363</v>
+      </c>
+      <c r="AG34">
+        <v>-0.1822010824924113</v>
+      </c>
+      <c r="AH34">
+        <v>0.003706916027335392</v>
+      </c>
+      <c r="AI34">
+        <v>0.01910717962748977</v>
+      </c>
+      <c r="AJ34">
+        <v>-0.1774313117177728</v>
+      </c>
+      <c r="AK34">
+        <v>-8.750002028723262</v>
+      </c>
+      <c r="AL34">
+        <v>-6.249714896525097</v>
+      </c>
+      <c r="AM34">
+        <v>7682.468788910533</v>
+      </c>
+      <c r="AN34">
+        <v>7690.524079754785</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0.2205885370281352</v>
+      </c>
+      <c r="AQ34">
+        <v>126.6436061741135</v>
+      </c>
+      <c r="AR34">
+        <v>139.7837710853574</v>
+      </c>
+      <c r="AS34">
+        <v>546.1950030647583</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>2</v>
+      </c>
+      <c r="AW34">
+        <v>5</v>
+      </c>
+      <c r="AX34">
+        <v>2599.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50">
+      <c r="A35" s="1">
+        <v>509</v>
+      </c>
+      <c r="B35">
+        <v>25910</v>
+      </c>
+      <c r="C35">
+        <v>6.715630148937537</v>
+      </c>
+      <c r="D35">
+        <v>2.251191107942829</v>
+      </c>
+      <c r="E35">
+        <v>0.63229574918104</v>
+      </c>
+      <c r="F35">
+        <v>389.9588845870904</v>
+      </c>
+      <c r="G35">
+        <v>427.7617571791388</v>
+      </c>
+      <c r="H35">
+        <v>423.3806473450394</v>
+      </c>
+      <c r="I35">
+        <v>426.3402790737688</v>
+      </c>
+      <c r="J35">
+        <v>79.28477080957921</v>
+      </c>
+      <c r="K35">
+        <v>78.29859144973146</v>
+      </c>
+      <c r="L35">
+        <v>62.95378962993483</v>
+      </c>
+      <c r="M35">
+        <v>75.81793881815206</v>
+      </c>
+      <c r="N35">
+        <v>62.97569376795618</v>
+      </c>
+      <c r="O35">
+        <v>76.26098271776767</v>
+      </c>
+      <c r="P35">
+        <v>348.8622788714189</v>
+      </c>
+      <c r="Q35">
+        <v>380.0096253316952</v>
+      </c>
+      <c r="R35">
+        <v>0.6232507604510252</v>
+      </c>
+      <c r="S35">
+        <v>-0.6371817240874699</v>
+      </c>
+      <c r="T35">
+        <v>-0.268244162384504</v>
+      </c>
+      <c r="U35">
+        <v>120320</v>
+      </c>
+      <c r="V35">
+        <v>42161.18759709347</v>
+      </c>
+      <c r="W35">
+        <v>1.422879434727178</v>
+      </c>
+      <c r="X35">
+        <v>5.903340021746436</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>51.80777241230033</v>
+      </c>
+      <c r="AA35">
+        <v>5.389725179112157</v>
+      </c>
+      <c r="AB35">
+        <v>0.50387077840932</v>
+      </c>
+      <c r="AC35">
+        <v>-1.434616160177011</v>
+      </c>
+      <c r="AD35">
+        <v>0.164925509870845</v>
+      </c>
+      <c r="AE35">
+        <v>0.09062657681560427</v>
+      </c>
+      <c r="AF35">
+        <v>-0.0003650574069320268</v>
+      </c>
+      <c r="AG35">
+        <v>-0.1820907437050641</v>
+      </c>
+      <c r="AH35">
+        <v>0.005851126526446575</v>
+      </c>
+      <c r="AI35">
+        <v>0.01995271045308174</v>
+      </c>
+      <c r="AJ35">
+        <v>-0.1773522574837298</v>
+      </c>
+      <c r="AK35">
+        <v>-8.750000488327901</v>
+      </c>
+      <c r="AL35">
+        <v>-6.249983205409283</v>
+      </c>
+      <c r="AM35">
+        <v>7683.024984213483</v>
+      </c>
+      <c r="AN35">
+        <v>7691.162694147176</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0.2205942415588667</v>
+      </c>
+      <c r="AQ35">
+        <v>126.6458681567239</v>
+      </c>
+      <c r="AR35">
+        <v>139.7928181091075</v>
+      </c>
+      <c r="AS35">
+        <v>513.7818439845657</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>2</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50">
+      <c r="A36" s="1">
+        <v>510</v>
+      </c>
+      <c r="B36">
+        <v>25911</v>
+      </c>
+      <c r="C36">
+        <v>6.712118153218205</v>
+      </c>
+      <c r="D36">
+        <v>2.251239223187775</v>
+      </c>
+      <c r="E36">
+        <v>0.6341363958749423</v>
+      </c>
+      <c r="F36">
+        <v>389.9987271289549</v>
+      </c>
+      <c r="G36">
+        <v>427.6877988853774</v>
+      </c>
+      <c r="H36">
+        <v>423.3620469616057</v>
+      </c>
+      <c r="I36">
+        <v>426.3352619270482</v>
+      </c>
+      <c r="J36">
+        <v>79.28379763926839</v>
+      </c>
+      <c r="K36">
+        <v>78.29909810561139</v>
+      </c>
+      <c r="L36">
+        <v>62.9563944211526</v>
+      </c>
+      <c r="M36">
+        <v>75.81984456271074</v>
+      </c>
+      <c r="N36">
+        <v>62.97698446507115</v>
+      </c>
+      <c r="O36">
+        <v>76.26092743828704</v>
+      </c>
+      <c r="P36">
+        <v>348.8731121693947</v>
+      </c>
+      <c r="Q36">
+        <v>380.0215055483309</v>
+      </c>
+      <c r="R36">
+        <v>0.6222367579980557</v>
+      </c>
+      <c r="S36">
+        <v>-0.6369468180658714</v>
+      </c>
+      <c r="T36">
+        <v>-0.2898486081246193</v>
+      </c>
+      <c r="U36">
+        <v>120320</v>
+      </c>
+      <c r="V36">
+        <v>42161.28759425476</v>
+      </c>
+      <c r="W36">
+        <v>1.469338863115787</v>
+      </c>
+      <c r="X36">
+        <v>5.762729217378901</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>51.8077716999995</v>
+      </c>
+      <c r="AA36">
+        <v>5.389855908172637</v>
+      </c>
+      <c r="AB36">
+        <v>0.4203217040461666</v>
+      </c>
+      <c r="AC36">
+        <v>-1.427625439048804</v>
+      </c>
+      <c r="AD36">
+        <v>0.1965682587251456</v>
+      </c>
+      <c r="AE36">
+        <v>0.09072761554256249</v>
+      </c>
+      <c r="AF36">
+        <v>-8.568835133256814e-05</v>
+      </c>
+      <c r="AG36">
+        <v>-0.1817099346592648</v>
+      </c>
+      <c r="AH36">
+        <v>0.00793560223815803</v>
+      </c>
+      <c r="AI36">
+        <v>0.02090907244040487</v>
+      </c>
+      <c r="AJ36">
+        <v>-0.1770098739304652</v>
+      </c>
+      <c r="AK36">
+        <v>-8.749995581782866</v>
+      </c>
+      <c r="AL36">
+        <v>-6.24997416522714</v>
+      </c>
+      <c r="AM36">
+        <v>7683.539647028998</v>
+      </c>
+      <c r="AN36">
+        <v>7691.729332389637</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0.2206281300478888</v>
+      </c>
+      <c r="AQ36">
+        <v>126.6656542734957</v>
+      </c>
+      <c r="AR36">
+        <v>139.8188221101076</v>
+      </c>
+      <c r="AS36">
+        <v>481.1324386090038</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>2</v>
+      </c>
+      <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <v>2600.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50">
+      <c r="A37" s="1">
+        <v>511</v>
+      </c>
+      <c r="B37">
+        <v>25912</v>
+      </c>
+      <c r="C37">
+        <v>6.709505297095212</v>
+      </c>
+      <c r="D37">
+        <v>2.251185480418868</v>
+      </c>
+      <c r="E37">
+        <v>0.6361229830282894</v>
+      </c>
+      <c r="F37">
+        <v>389.9947799709412</v>
+      </c>
+      <c r="G37">
+        <v>427.6120988287387</v>
+      </c>
+      <c r="H37">
+        <v>423.334645249013</v>
+      </c>
+      <c r="I37">
+        <v>426.3486390575277</v>
+      </c>
+      <c r="J37">
+        <v>79.28306087996522</v>
+      </c>
+      <c r="K37">
+        <v>78.29957518838648</v>
+      </c>
+      <c r="L37">
+        <v>62.95824668026497</v>
+      </c>
+      <c r="M37">
+        <v>75.82152603253159</v>
+      </c>
+      <c r="N37">
+        <v>62.97827200778185</v>
+      </c>
+      <c r="O37">
+        <v>76.26100758086422</v>
+      </c>
+      <c r="P37">
+        <v>348.8839453577273</v>
+      </c>
+      <c r="Q37">
+        <v>380.0333836621873</v>
+      </c>
+      <c r="R37">
+        <v>0.6222623202363941</v>
+      </c>
+      <c r="S37">
+        <v>-0.6369101397222372</v>
+      </c>
+      <c r="T37">
+        <v>-0.3084085021668407</v>
+      </c>
+      <c r="U37">
+        <v>120320</v>
+      </c>
+      <c r="V37">
+        <v>42161.38759141604</v>
+      </c>
+      <c r="W37">
+        <v>1.508925977528809</v>
+      </c>
+      <c r="X37">
+        <v>5.622626261243816</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>51.80777098191237</v>
+      </c>
+      <c r="AA37">
+        <v>5.389986631226838</v>
+      </c>
+      <c r="AB37">
+        <v>0.3524636706842535</v>
+      </c>
+      <c r="AC37">
+        <v>-1.422735322498184</v>
+      </c>
+      <c r="AD37">
+        <v>0.2305708018854735</v>
+      </c>
+      <c r="AE37">
+        <v>0.09076075505993726</v>
+      </c>
+      <c r="AF37">
+        <v>0.0001619809386615131</v>
+      </c>
+      <c r="AG37">
+        <v>-0.1813072869602293</v>
+      </c>
+      <c r="AH37">
+        <v>0.009944626487300002</v>
+      </c>
+      <c r="AI37">
+        <v>0.0217433036803458</v>
+      </c>
+      <c r="AJ37">
+        <v>-0.1766532654264472</v>
+      </c>
+      <c r="AK37">
+        <v>-8.74999048962343</v>
+      </c>
+      <c r="AL37">
+        <v>-6.249969338762425</v>
+      </c>
+      <c r="AM37">
+        <v>7683.999735434795</v>
+      </c>
+      <c r="AN37">
+        <v>7692.199896204131</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0.2206833847404309</v>
+      </c>
+      <c r="AQ37">
+        <v>126.6992681983637</v>
+      </c>
+      <c r="AR37">
+        <v>139.8571243777655</v>
+      </c>
+      <c r="AS37">
+        <v>448.0135344020851</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>2</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>2600.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50">
+      <c r="A38" s="1">
+        <v>512</v>
+      </c>
+      <c r="B38">
+        <v>25913</v>
+      </c>
+      <c r="C38">
+        <v>6.70751370193883</v>
+      </c>
+      <c r="D38">
+        <v>2.251040029682448</v>
+      </c>
+      <c r="E38">
+        <v>0.6377118390524732</v>
+      </c>
+      <c r="F38">
+        <v>389.9611155373603</v>
+      </c>
+      <c r="G38">
+        <v>427.5697847841071</v>
+      </c>
+      <c r="H38">
+        <v>423.3072695312476</v>
+      </c>
+      <c r="I38">
+        <v>426.374506585558</v>
+      </c>
+      <c r="J38">
+        <v>79.2825502138257</v>
+      </c>
+      <c r="K38">
+        <v>78.29989210831455</v>
+      </c>
+      <c r="L38">
+        <v>62.95927309086249</v>
+      </c>
+      <c r="M38">
+        <v>75.82269454119432</v>
+      </c>
+      <c r="N38">
+        <v>62.97962265442256</v>
+      </c>
+      <c r="O38">
+        <v>76.26145295404602</v>
+      </c>
+      <c r="P38">
+        <v>348.8947776109366</v>
+      </c>
+      <c r="Q38">
+        <v>380.0452606006535</v>
+      </c>
+      <c r="R38">
+        <v>0.62326878404354</v>
+      </c>
+      <c r="S38">
+        <v>-0.6369206675587197</v>
+      </c>
+      <c r="T38">
+        <v>-0.3223638541329296</v>
+      </c>
+      <c r="U38">
+        <v>120320</v>
+      </c>
+      <c r="V38">
+        <v>42161.48758857732</v>
+      </c>
+      <c r="W38">
+        <v>1.543281343492788</v>
+      </c>
+      <c r="X38">
+        <v>5.482998899085028</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>51.80777026071487</v>
+      </c>
+      <c r="AA38">
+        <v>5.390117352715751</v>
+      </c>
+      <c r="AB38">
+        <v>0.3006808138400853</v>
+      </c>
+      <c r="AC38">
+        <v>-1.418661897681963</v>
+      </c>
+      <c r="AD38">
+        <v>0.2637731545793213</v>
+      </c>
+      <c r="AE38">
+        <v>0.09072989276760125</v>
+      </c>
+      <c r="AF38">
+        <v>0.000266122710456268</v>
+      </c>
+      <c r="AG38">
+        <v>-0.1808420126145834</v>
+      </c>
+      <c r="AH38">
+        <v>0.01188332878109628</v>
+      </c>
+      <c r="AI38">
+        <v>0.02236511354025602</v>
+      </c>
+      <c r="AJ38">
+        <v>-0.1762421058206589</v>
+      </c>
+      <c r="AK38">
+        <v>-8.749993774624718</v>
+      </c>
+      <c r="AL38">
+        <v>-6.249990167919661</v>
+      </c>
+      <c r="AM38">
+        <v>7684.38185322251</v>
+      </c>
+      <c r="AN38">
+        <v>7692.562060137619</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0.2207543606990957</v>
+      </c>
+      <c r="AQ38">
+        <v>126.7431645181437</v>
+      </c>
+      <c r="AR38">
+        <v>139.904642285765</v>
+      </c>
+      <c r="AS38">
+        <v>414.2389553276246</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>2</v>
+      </c>
+      <c r="AW38">
+        <v>5</v>
+      </c>
+      <c r="AX38">
+        <v>2600.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50">
+      <c r="A39" s="1">
+        <v>513</v>
+      </c>
+      <c r="B39">
+        <v>25914</v>
+      </c>
+      <c r="C39">
+        <v>6.707150002762569</v>
+      </c>
+      <c r="D39">
+        <v>2.250843235915346</v>
+      </c>
+      <c r="E39">
+        <v>0.6384703631383749</v>
+      </c>
+      <c r="F39">
+        <v>389.9093484859144</v>
+      </c>
+      <c r="G39">
+        <v>427.5916921434794</v>
+      </c>
+      <c r="H39">
+        <v>423.2893264873386</v>
+      </c>
+      <c r="I39">
+        <v>426.4031082606459</v>
+      </c>
+      <c r="J39">
+        <v>79.28220691784698</v>
+      </c>
+      <c r="K39">
+        <v>78.30007202579763</v>
+      </c>
+      <c r="L39">
+        <v>62.95958188853918</v>
+      </c>
+      <c r="M39">
+        <v>75.82306622578338</v>
+      </c>
+      <c r="N39">
+        <v>62.98094961814574</v>
+      </c>
+      <c r="O39">
+        <v>76.26226501110932</v>
+      </c>
+      <c r="P39">
+        <v>348.9056084261723</v>
+      </c>
+      <c r="Q39">
+        <v>380.0571381476575</v>
+      </c>
+      <c r="R39">
+        <v>0.6246633214304876</v>
+      </c>
+      <c r="S39">
+        <v>-0.6369259018331674</v>
+      </c>
+      <c r="T39">
+        <v>-0.3316414217164611</v>
+      </c>
+      <c r="U39">
+        <v>120320</v>
+      </c>
+      <c r="V39">
+        <v>42161.58758573861</v>
+      </c>
+      <c r="W39">
+        <v>1.573805567262825</v>
+      </c>
+      <c r="X39">
+        <v>5.343834108329137</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>51.80776953454439</v>
+      </c>
+      <c r="AA39">
+        <v>5.390248077367385</v>
+      </c>
+      <c r="AB39">
+        <v>0.2628412874293304</v>
+      </c>
+      <c r="AC39">
+        <v>-1.414572855547281</v>
+      </c>
+      <c r="AD39">
+        <v>0.2933111316771503</v>
+      </c>
+      <c r="AE39">
+        <v>0.09066878251573041</v>
+      </c>
+      <c r="AF39">
+        <v>0.0002377399689959767</v>
+      </c>
+      <c r="AG39">
+        <v>-0.1801233050743715</v>
+      </c>
+      <c r="AH39">
+        <v>0.01376823177753274</v>
+      </c>
+      <c r="AI39">
+        <v>0.02280679878959935</v>
+      </c>
+      <c r="AJ39">
+        <v>-0.1755829319378524</v>
+      </c>
+      <c r="AK39">
+        <v>-8.750011588169949</v>
+      </c>
+      <c r="AL39">
+        <v>-6.250006981602008</v>
+      </c>
+      <c r="AM39">
+        <v>7684.665773432269</v>
+      </c>
+      <c r="AN39">
+        <v>7692.825780151585</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0.2208389168885961</v>
+      </c>
+      <c r="AQ39">
+        <v>126.794652828183</v>
+      </c>
+      <c r="AR39">
+        <v>139.9604226344749</v>
+      </c>
+      <c r="AS39">
+        <v>379.6694024375746</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <v>5</v>
+      </c>
+      <c r="AX39">
+        <v>2600.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50">
+      <c r="A40" s="1">
+        <v>514</v>
+      </c>
+      <c r="B40">
+        <v>25915</v>
+      </c>
+      <c r="C40">
+        <v>6.7098410275479</v>
+      </c>
+      <c r="D40">
+        <v>2.250647528279813</v>
+      </c>
+      <c r="E40">
+        <v>0.6383626254153948</v>
+      </c>
+      <c r="F40">
+        <v>389.8414570599821</v>
+      </c>
+      <c r="G40">
+        <v>427.6909616056221</v>
+      </c>
+      <c r="H40">
+        <v>423.2842019408746</v>
+      </c>
+      <c r="I40">
+        <v>426.4288571400211</v>
+      </c>
+      <c r="J40">
+        <v>79.28210771620057</v>
+      </c>
+      <c r="K40">
+        <v>78.30015997581178</v>
+      </c>
+      <c r="L40">
+        <v>62.95928306912012</v>
+      </c>
+      <c r="M40">
+        <v>75.82244585801809</v>
+      </c>
+      <c r="N40">
+        <v>62.98218265500186</v>
+      </c>
+      <c r="O40">
+        <v>76.26330091365176</v>
+      </c>
+      <c r="P40">
+        <v>348.9164373555351</v>
+      </c>
+      <c r="Q40">
+        <v>380.0690184521466</v>
+      </c>
+      <c r="R40">
+        <v>0.6257625487261814</v>
+      </c>
+      <c r="S40">
+        <v>-0.6369229498686404</v>
+      </c>
+      <c r="T40">
+        <v>-0.3373612919730243</v>
+      </c>
+      <c r="U40">
+        <v>120320</v>
+      </c>
+      <c r="V40">
+        <v>42161.6875828999</v>
+      </c>
+      <c r="W40">
+        <v>1.601940479914461</v>
+      </c>
+      <c r="X40">
+        <v>5.205064179793468</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>51.80776879614969</v>
+      </c>
+      <c r="AA40">
+        <v>5.390378812226954</v>
+      </c>
+      <c r="AB40">
+        <v>0.2418596935711816</v>
+      </c>
+      <c r="AC40">
+        <v>-1.410349638246565</v>
+      </c>
+      <c r="AD40">
+        <v>0.3175121498035037</v>
+      </c>
+      <c r="AE40">
+        <v>0.09059732929901143</v>
+      </c>
+      <c r="AF40">
+        <v>0.0001163925301391128</v>
+      </c>
+      <c r="AG40">
+        <v>-0.1790771484610926</v>
+      </c>
+      <c r="AH40">
+        <v>0.01561255306463392</v>
+      </c>
+      <c r="AI40">
+        <v>0.02312681980026846</v>
+      </c>
+      <c r="AJ40">
+        <v>-0.1745971315726651</v>
+      </c>
+      <c r="AK40">
+        <v>-8.750031564109143</v>
+      </c>
+      <c r="AL40">
+        <v>-6.250009289498531</v>
+      </c>
+      <c r="AM40">
+        <v>7684.848062037842</v>
+      </c>
+      <c r="AN40">
+        <v>7693.023247654271</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0.2209382163262582</v>
+      </c>
+      <c r="AQ40">
+        <v>126.852279308087</v>
+      </c>
+      <c r="AR40">
+        <v>140.0251881664958</v>
+      </c>
+      <c r="AS40">
+        <v>344.2027544914009</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>2</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>2600.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50">
+      <c r="A41" s="1">
+        <v>515</v>
+      </c>
+      <c r="B41">
+        <v>25916</v>
+      </c>
+      <c r="C41">
+        <v>6.716120817482043</v>
+      </c>
+      <c r="D41">
+        <v>2.250506712899162</v>
+      </c>
+      <c r="E41">
+        <v>0.637817786392293</v>
+      </c>
+      <c r="F41">
+        <v>389.7505212639675</v>
+      </c>
+      <c r="G41">
+        <v>427.8596406682427</v>
+      </c>
+      <c r="H41">
+        <v>423.2871499652445</v>
+      </c>
+      <c r="I41">
+        <v>426.4538126757563</v>
+      </c>
+      <c r="J41">
+        <v>79.2824185597767</v>
+      </c>
+      <c r="K41">
+        <v>78.30016138424894</v>
+      </c>
+      <c r="L41">
+        <v>62.95842939438015</v>
+      </c>
+      <c r="M41">
+        <v>75.82090315273581</v>
+      </c>
+      <c r="N41">
+        <v>62.9833950229451</v>
+      </c>
+      <c r="O41">
+        <v>76.26438595750326</v>
+      </c>
+      <c r="P41">
+        <v>348.9272637589036</v>
+      </c>
+      <c r="Q41">
+        <v>380.0809034421652</v>
+      </c>
+      <c r="R41">
+        <v>0.6262465672867721</v>
+      </c>
+      <c r="S41">
+        <v>-0.6369197857271066</v>
+      </c>
+      <c r="T41">
+        <v>-0.3413740733008552</v>
+      </c>
+      <c r="U41">
+        <v>120320</v>
+      </c>
+      <c r="V41">
+        <v>42161.78758006118</v>
+      </c>
+      <c r="W41">
+        <v>1.629680932728445</v>
+      </c>
+      <c r="X41">
+        <v>5.06657676266147</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>51.8077680336774</v>
+      </c>
+      <c r="AA41">
+        <v>5.39050956747696</v>
+      </c>
+      <c r="AB41">
+        <v>0.2443473025897099</v>
+      </c>
+      <c r="AC41">
+        <v>-1.406360628522645</v>
+      </c>
+      <c r="AD41">
+        <v>0.3353759894871505</v>
+      </c>
+      <c r="AE41">
+        <v>0.09050087546281343</v>
+      </c>
+      <c r="AF41">
+        <v>-9.208234172185942e-05</v>
+      </c>
+      <c r="AG41">
+        <v>-0.1778724627775918</v>
+      </c>
+      <c r="AH41">
+        <v>0.0174191847905388</v>
+      </c>
+      <c r="AI41">
+        <v>0.02335090657204864</v>
+      </c>
+      <c r="AJ41">
+        <v>-0.1734511233113962</v>
+      </c>
+      <c r="AK41">
+        <v>-8.750024050852129</v>
+      </c>
+      <c r="AL41">
+        <v>-6.2500039594686</v>
+      </c>
+      <c r="AM41">
+        <v>7684.945502207082</v>
+      </c>
+      <c r="AN41">
+        <v>7693.192917535343</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0.2210550249136767</v>
+      </c>
+      <c r="AQ41">
+        <v>126.9163894640115</v>
+      </c>
+      <c r="AR41">
+        <v>140.1002543965868</v>
+      </c>
+      <c r="AS41">
+        <v>307.8087411063124</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>2600.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50">
+      <c r="A42" s="1">
+        <v>516</v>
+      </c>
+      <c r="B42">
+        <v>25917</v>
+      </c>
+      <c r="C42">
+        <v>6.724830954172213</v>
+      </c>
+      <c r="D42">
+        <v>2.250463203248617</v>
+      </c>
+      <c r="E42">
+        <v>0.6374708000023476</v>
+      </c>
+      <c r="F42">
+        <v>389.6291725833733</v>
+      </c>
+      <c r="G42">
+        <v>428.0710689529508</v>
+      </c>
+      <c r="H42">
+        <v>423.2889333124647</v>
+      </c>
+      <c r="I42">
+        <v>426.4847394821854</v>
+      </c>
+      <c r="J42">
+        <v>79.28317775829996</v>
+      </c>
+      <c r="K42">
+        <v>78.3000473105415</v>
+      </c>
+      <c r="L42">
+        <v>62.95709108237242</v>
+      </c>
+      <c r="M42">
+        <v>75.81880073222582</v>
+      </c>
+      <c r="N42">
+        <v>62.98465109195617</v>
+      </c>
+      <c r="O42">
+        <v>76.26531605585426</v>
+      </c>
+      <c r="P42">
+        <v>348.9380867914753</v>
+      </c>
+      <c r="Q42">
+        <v>380.0927943051916</v>
+      </c>
+      <c r="R42">
+        <v>0.6262722908407923</v>
+      </c>
+      <c r="S42">
+        <v>-0.6369191757084783</v>
+      </c>
+      <c r="T42">
+        <v>-0.3457964561995802</v>
+      </c>
+      <c r="U42">
+        <v>120320</v>
+      </c>
+      <c r="V42">
+        <v>42161.88757722246</v>
+      </c>
+      <c r="W42">
+        <v>1.659584612720876</v>
+      </c>
+      <c r="X42">
+        <v>4.928272648222372</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>51.80776723405423</v>
+      </c>
+      <c r="AA42">
+        <v>5.390640354447123</v>
+      </c>
+      <c r="AB42">
+        <v>0.2745633953365321</v>
+      </c>
+      <c r="AC42">
+        <v>-1.403014993081092</v>
+      </c>
+      <c r="AD42">
+        <v>0.3458012206572731</v>
+      </c>
+      <c r="AE42">
+        <v>0.09034837176974506</v>
+      </c>
+      <c r="AF42">
+        <v>-0.0004028798049263699</v>
+      </c>
+      <c r="AG42">
+        <v>-0.1768215884999701</v>
+      </c>
+      <c r="AH42">
+        <v>0.01918732648593465</v>
+      </c>
+      <c r="AI42">
+        <v>0.02348773408598495</v>
+      </c>
+      <c r="AJ42">
+        <v>-0.1724589334449251</v>
+      </c>
+      <c r="AK42">
+        <v>-8.750020952070228</v>
+      </c>
+      <c r="AL42">
+        <v>-6.249999271559845</v>
+      </c>
+      <c r="AM42">
+        <v>7684.986451642482</v>
+      </c>
+      <c r="AN42">
+        <v>7693.355875922408</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0.2211905203873214</v>
+      </c>
+      <c r="AQ42">
+        <v>126.9884505589554</v>
+      </c>
+      <c r="AR42">
+        <v>140.1855959708286</v>
+      </c>
+      <c r="AS42">
+        <v>270.5945315160934</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>2</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>2600.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50">
+      <c r="A43" s="1">
+        <v>517</v>
+      </c>
+      <c r="B43">
+        <v>25918</v>
+      </c>
+      <c r="C43">
+        <v>6.733473090495228</v>
+      </c>
+      <c r="D43">
+        <v>2.250527925639437</v>
+      </c>
+      <c r="E43">
+        <v>0.6377675484020727</v>
+      </c>
+      <c r="F43">
+        <v>389.4810532361291</v>
+      </c>
+      <c r="G43">
+        <v>428.2853900404875</v>
+      </c>
+      <c r="H43">
+        <v>423.282718295296</v>
+      </c>
+      <c r="I43">
+        <v>426.5257760598454</v>
+      </c>
+      <c r="J43">
+        <v>79.28416780910841</v>
+      </c>
+      <c r="K43">
+        <v>78.29976886592107</v>
+      </c>
+      <c r="L43">
+        <v>62.95547633671028</v>
+      </c>
+      <c r="M43">
+        <v>75.81663431209871</v>
+      </c>
+      <c r="N43">
+        <v>62.98578215131257</v>
+      </c>
+      <c r="O43">
+        <v>76.26581470647457</v>
+      </c>
+      <c r="P43">
+        <v>348.9489057096208</v>
+      </c>
+      <c r="Q43">
+        <v>380.1046911215816</v>
+      </c>
+      <c r="R43">
+        <v>0.6262337571235655</v>
+      </c>
+      <c r="S43">
+        <v>-0.6369182434541661</v>
+      </c>
+      <c r="T43">
+        <v>-0.3525272333894037</v>
+      </c>
+      <c r="U43">
+        <v>120320</v>
+      </c>
+      <c r="V43">
+        <v>42161.98757438375</v>
+      </c>
+      <c r="W43">
+        <v>1.694235413322737</v>
+      </c>
+      <c r="X43">
+        <v>4.790106792798329</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>51.80776638839958</v>
+      </c>
+      <c r="AA43">
+        <v>5.390771181188255</v>
+      </c>
+      <c r="AB43">
+        <v>0.3304550514837623</v>
+      </c>
+      <c r="AC43">
+        <v>-1.400429449178804</v>
+      </c>
+      <c r="AD43">
+        <v>0.3474550166895057</v>
+      </c>
+      <c r="AE43">
+        <v>0.09012590794288969</v>
+      </c>
+      <c r="AF43">
+        <v>-0.0008066162366272053</v>
+      </c>
+      <c r="AG43">
+        <v>-0.1761855351920158</v>
+      </c>
+      <c r="AH43">
+        <v>0.02092381407710555</v>
+      </c>
+      <c r="AI43">
+        <v>0.02357457000022938</v>
+      </c>
+      <c r="AJ43">
+        <v>-0.1718858401366248</v>
+      </c>
+      <c r="AK43">
+        <v>-8.750336649428675</v>
+      </c>
+      <c r="AL43">
+        <v>-6.249997972257579</v>
+      </c>
+      <c r="AM43">
+        <v>7684.998312594119</v>
+      </c>
+      <c r="AN43">
+        <v>7693.501821896319</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0.2213412184510931</v>
+      </c>
+      <c r="AQ43">
+        <v>127.068904023171</v>
+      </c>
+      <c r="AR43">
+        <v>140.2783453605956</v>
+      </c>
+      <c r="AS43">
+        <v>232.8508479327668</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>2600.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50">
+      <c r="A44" s="1">
+        <v>518</v>
+      </c>
+      <c r="B44">
+        <v>25919</v>
+      </c>
+      <c r="C44">
+        <v>6.739438110435519</v>
+      </c>
+      <c r="D44">
+        <v>2.250670036069185</v>
+      </c>
+      <c r="E44">
+        <v>0.6387661440533576</v>
+      </c>
+      <c r="F44">
+        <v>389.3273851701731</v>
+      </c>
+      <c r="G44">
+        <v>428.4593602815497</v>
+      </c>
+      <c r="H44">
+        <v>423.2693459368579</v>
+      </c>
+      <c r="I44">
+        <v>426.5722521616599</v>
+      </c>
+      <c r="J44">
+        <v>79.28503744339602</v>
+      </c>
+      <c r="K44">
+        <v>78.29933375349415</v>
+      </c>
+      <c r="L44">
+        <v>62.95398530841589</v>
+      </c>
+      <c r="M44">
+        <v>75.81485777359541</v>
+      </c>
+      <c r="N44">
+        <v>62.98647332507625</v>
+      </c>
+      <c r="O44">
+        <v>76.26558906375246</v>
+      </c>
+      <c r="P44">
+        <v>348.9597203592088</v>
+      </c>
+      <c r="Q44">
+        <v>380.1165927704783</v>
+      </c>
+      <c r="R44">
+        <v>0.6263874628409537</v>
+      </c>
+      <c r="S44">
+        <v>-0.6369142671927169</v>
+      </c>
+      <c r="T44">
+        <v>-0.3627724089217811</v>
+      </c>
+      <c r="U44">
+        <v>120320</v>
+      </c>
+      <c r="V44">
+        <v>42162.08757785075</v>
+      </c>
+      <c r="W44">
+        <v>1.735603345129122</v>
+      </c>
+      <c r="X44">
+        <v>4.652093975151412</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>51.80776549650967</v>
+      </c>
+      <c r="AA44">
+        <v>5.3909020484225</v>
+      </c>
+      <c r="AB44">
+        <v>0.4044077704762181</v>
+      </c>
+      <c r="AC44">
+        <v>-1.398330668923321</v>
+      </c>
+      <c r="AD44">
+        <v>0.3392463718471627</v>
+      </c>
+      <c r="AE44">
+        <v>0.08985248761758879</v>
+      </c>
+      <c r="AF44">
+        <v>-0.00125174229240232</v>
+      </c>
+      <c r="AG44">
+        <v>-0.1760482350590088</v>
+      </c>
+      <c r="AH44">
+        <v>0.02264637918610992</v>
+      </c>
+      <c r="AI44">
+        <v>0.02369267827214287</v>
+      </c>
+      <c r="AJ44">
+        <v>-0.1718193067926682</v>
+      </c>
+      <c r="AK44">
+        <v>-8.751911485072293</v>
+      </c>
+      <c r="AL44">
+        <v>-6.249998792455503</v>
+      </c>
+      <c r="AM44">
+        <v>7684.999796596424</v>
+      </c>
+      <c r="AN44">
+        <v>7693.596402363532</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0.2214988395216702</v>
+      </c>
+      <c r="AQ44">
+        <v>127.1554597923028</v>
+      </c>
+      <c r="AR44">
+        <v>140.3732780253883</v>
+      </c>
+      <c r="AS44">
+        <v>195.0664940257471</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>2</v>
+      </c>
+      <c r="AW44">
+        <v>5</v>
+      </c>
+      <c r="AX44">
+        <v>2600.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50">
+      <c r="A45" s="1">
+        <v>519</v>
+      </c>
+      <c r="B45">
+        <v>25920</v>
+      </c>
+      <c r="C45">
+        <v>6.741176247060313</v>
+      </c>
+      <c r="D45">
+        <v>2.250832374949814</v>
+      </c>
+      <c r="E45">
+        <v>0.6402549712798069</v>
+      </c>
+      <c r="F45">
+        <v>389.2033284941218</v>
+      </c>
+      <c r="G45">
+        <v>428.5612493140421</v>
+      </c>
+      <c r="H45">
+        <v>423.2570120551649</v>
+      </c>
+      <c r="I45">
+        <v>426.6115575759603</v>
+      </c>
+      <c r="J45">
+        <v>79.28555870927296</v>
+      </c>
+      <c r="K45">
+        <v>78.29887069203392</v>
+      </c>
+      <c r="L45">
+        <v>62.95312331974501</v>
+      </c>
+      <c r="M45">
+        <v>75.81378164382531</v>
+      </c>
+      <c r="N45">
+        <v>62.98659570355625</v>
+      </c>
+      <c r="O45">
+        <v>76.26449976927672</v>
+      </c>
+      <c r="P45">
+        <v>348.9705315627781</v>
+      </c>
+      <c r="Q45">
+        <v>380.1284972496259</v>
+      </c>
+      <c r="R45">
+        <v>0.6266090643173187</v>
+      </c>
+      <c r="S45">
+        <v>-0.6369107369776756</v>
+      </c>
+      <c r="T45">
+        <v>-0.3767690817346268</v>
+      </c>
+      <c r="U45">
+        <v>120320</v>
+      </c>
+      <c r="V45">
+        <v>42162.18758221246</v>
+      </c>
+      <c r="W45">
+        <v>1.784701782874168</v>
+      </c>
+      <c r="X45">
+        <v>4.514305020791324</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>51.80776456698109</v>
+      </c>
+      <c r="AA45">
+        <v>5.391032949044624</v>
+      </c>
+      <c r="AB45">
+        <v>0.4867098768462156</v>
+      </c>
+      <c r="AC45">
+        <v>-1.396111861712016</v>
+      </c>
+      <c r="AD45">
+        <v>0.3208300008539498</v>
+      </c>
+      <c r="AE45">
+        <v>0.08956697087524358</v>
+      </c>
+      <c r="AF45">
+        <v>-0.001674599967000051</v>
+      </c>
+      <c r="AG45">
+        <v>-0.1763308136139576</v>
+      </c>
+      <c r="AH45">
+        <v>0.02437654909992492</v>
+      </c>
+      <c r="AI45">
+        <v>0.02393254277653716</v>
+      </c>
+      <c r="AJ45">
+        <v>-0.1721805059274788</v>
+      </c>
+      <c r="AK45">
+        <v>-8.756576654948033</v>
+      </c>
+      <c r="AL45">
+        <v>-6.249999849401153</v>
+      </c>
+      <c r="AM45">
+        <v>7684.999801578477</v>
+      </c>
+      <c r="AN45">
+        <v>7693.606192677138</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0.221653583294029</v>
+      </c>
+      <c r="AQ45">
+        <v>127.2434345830785</v>
+      </c>
+      <c r="AR45">
+        <v>140.4649546736111</v>
+      </c>
+      <c r="AS45">
+        <v>157.9145088948749</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>5</v>
+      </c>
+      <c r="AX45">
+        <v>2601</v>
       </c>
     </row>
   </sheetData>

--- a/reading flight data/short_period2.xlsx
+++ b/reading flight data/short_period2.xlsx
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX45"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,139 +675,139 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="1">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B2">
-        <v>25877</v>
+        <v>25871</v>
       </c>
       <c r="C2">
-        <v>7.687652961220393</v>
+        <v>7.513209042103524</v>
       </c>
       <c r="D2">
-        <v>2.251013708932208</v>
+        <v>2.250378834677565</v>
       </c>
       <c r="E2">
-        <v>-22.90777111276761</v>
+        <v>-21.05612611851582</v>
       </c>
       <c r="F2">
-        <v>390.1275989160796</v>
+        <v>390.2589906355444</v>
       </c>
       <c r="G2">
-        <v>428.630818960198</v>
+        <v>428.6050272820514</v>
       </c>
       <c r="H2">
-        <v>423.3507640659915</v>
+        <v>423.4769271008906</v>
       </c>
       <c r="I2">
-        <v>426.1805458406216</v>
+        <v>426.1037958491783</v>
       </c>
       <c r="J2">
-        <v>79.28736924071843</v>
+        <v>79.28478175047782</v>
       </c>
       <c r="K2">
-        <v>78.29801785918679</v>
+        <v>78.29936309123792</v>
       </c>
       <c r="L2">
-        <v>62.96658047188301</v>
+        <v>62.97797426233141</v>
       </c>
       <c r="M2">
-        <v>75.81988557903409</v>
+        <v>75.82227668004548</v>
       </c>
       <c r="N2">
-        <v>62.98694411257524</v>
+        <v>62.9975027924143</v>
       </c>
       <c r="O2">
-        <v>76.26606566158742</v>
+        <v>76.26639933239338</v>
       </c>
       <c r="P2">
-        <v>348.5052281002258</v>
+        <v>348.4401890225767</v>
       </c>
       <c r="Q2">
-        <v>379.6169738751915</v>
+        <v>379.5455105318206</v>
       </c>
       <c r="R2">
-        <v>0.7575726397173889</v>
+        <v>0.7006012788958971</v>
       </c>
       <c r="S2">
-        <v>-1.301512803520338</v>
+        <v>-1.262001839504559</v>
       </c>
       <c r="T2">
-        <v>-0.1793629429536925</v>
+        <v>-0.1819035446502055</v>
       </c>
       <c r="U2">
         <v>120320</v>
       </c>
       <c r="V2">
-        <v>42157.88781256802</v>
+        <v>42157.28783920004</v>
       </c>
       <c r="W2">
-        <v>-0.8007980682363864</v>
+        <v>-0.6130649930683919</v>
       </c>
       <c r="X2">
-        <v>9.934845515339523</v>
+        <v>9.871017521654981</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>51.80779067434433</v>
+        <v>51.80779459539223</v>
       </c>
       <c r="AA2">
-        <v>5.385390742348313</v>
+        <v>5.384594115125737</v>
       </c>
       <c r="AB2">
-        <v>-0.09685474270979222</v>
+        <v>-0.3679403995191641</v>
       </c>
       <c r="AC2">
-        <v>0.08708555791866091</v>
+        <v>0.08651108363087165</v>
       </c>
       <c r="AD2">
-        <v>0.363737676744874</v>
+        <v>-0.004944664966148778</v>
       </c>
       <c r="AE2">
-        <v>0.1135685634662401</v>
+        <v>0.1092513244542939</v>
       </c>
       <c r="AF2">
-        <v>0.002677072129285879</v>
+        <v>0.002215497387922298</v>
       </c>
       <c r="AG2">
-        <v>-0.01643786940337507</v>
+        <v>-0.03134035117763254</v>
       </c>
       <c r="AH2">
-        <v>-0.05793294922320504</v>
+        <v>-0.05854463126891169</v>
       </c>
       <c r="AI2">
-        <v>-0.0110633823659477</v>
+        <v>-0.008113766293964542</v>
       </c>
       <c r="AJ2">
-        <v>-0.01179593571325502</v>
+        <v>-0.02705590947069221</v>
       </c>
       <c r="AK2">
-        <v>-8.535395902551253</v>
+        <v>-8.500023926825286</v>
       </c>
       <c r="AL2">
-        <v>-5.999969390687079</v>
+        <v>-5.984221524883446</v>
       </c>
       <c r="AM2">
-        <v>7639.821905088792</v>
+        <v>7629.716676330142</v>
       </c>
       <c r="AN2">
-        <v>7647.888651511177</v>
+        <v>7637.669009953329</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.2247992760498782</v>
+        <v>0.2262081812659598</v>
       </c>
       <c r="AQ2">
-        <v>129.1552424683462</v>
+        <v>130.0156217308793</v>
       </c>
       <c r="AR2">
-        <v>142.4555402759373</v>
+        <v>143.3328502373942</v>
       </c>
       <c r="AS2">
-        <v>1024.648967572562</v>
+        <v>1066.287083049453</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -822,144 +822,144 @@
         <v>5</v>
       </c>
       <c r="AX2">
-        <v>2596.7</v>
+        <v>2596.1</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="1">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B3">
-        <v>25878</v>
+        <v>25872</v>
       </c>
       <c r="C3">
-        <v>7.730239361032075</v>
+        <v>7.517084953661893</v>
       </c>
       <c r="D3">
-        <v>2.250972541198436</v>
+        <v>2.250487857416455</v>
       </c>
       <c r="E3">
-        <v>-20.95034599157276</v>
+        <v>-21.82782566764167</v>
       </c>
       <c r="F3">
-        <v>390.1430609018935</v>
+        <v>390.3090174662027</v>
       </c>
       <c r="G3">
-        <v>428.6495167615575</v>
+        <v>428.7846361447099</v>
       </c>
       <c r="H3">
-        <v>423.3373239062283</v>
+        <v>423.4451506841548</v>
       </c>
       <c r="I3">
-        <v>426.2023181766543</v>
+        <v>426.1398025719573</v>
       </c>
       <c r="J3">
-        <v>79.28701164361138</v>
+        <v>79.2859242900296</v>
       </c>
       <c r="K3">
-        <v>78.29803483774639</v>
+        <v>78.29819963123349</v>
       </c>
       <c r="L3">
-        <v>62.96465371206218</v>
+        <v>62.97610083183143</v>
       </c>
       <c r="M3">
-        <v>75.81981795436933</v>
+        <v>75.82209599406929</v>
       </c>
       <c r="N3">
-        <v>62.98418811379521</v>
+        <v>62.99812624023875</v>
       </c>
       <c r="O3">
-        <v>76.26506654583889</v>
+        <v>76.26878974507956</v>
       </c>
       <c r="P3">
-        <v>348.5160654074731</v>
+        <v>348.4510309397285</v>
       </c>
       <c r="Q3">
-        <v>379.6288808062127</v>
+        <v>379.557421216158</v>
       </c>
       <c r="R3">
-        <v>0.7578294514372395</v>
+        <v>0.71657968942798</v>
       </c>
       <c r="S3">
-        <v>-1.256808611994412</v>
+        <v>-1.269250987738078</v>
       </c>
       <c r="T3">
-        <v>-0.1788921261680014</v>
+        <v>-0.1819004610578051</v>
       </c>
       <c r="U3">
         <v>120320</v>
       </c>
       <c r="V3">
-        <v>42157.98780812935</v>
+        <v>42157.38783476137</v>
       </c>
       <c r="W3">
-        <v>-0.7884917939241661</v>
+        <v>-0.6543195667253952</v>
       </c>
       <c r="X3">
-        <v>9.944599381767249</v>
+        <v>9.880902712260983</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>51.80779009542272</v>
+        <v>51.80779392160419</v>
       </c>
       <c r="AA3">
-        <v>5.385523154486309</v>
+        <v>5.384726987666022</v>
       </c>
       <c r="AB3">
-        <v>0.07448036590194516</v>
+        <v>-0.4576076121268429</v>
       </c>
       <c r="AC3">
-        <v>0.06772844875532941</v>
+        <v>0.08741691485548912</v>
       </c>
       <c r="AD3">
-        <v>0.389933276893662</v>
+        <v>0.06102214160306892</v>
       </c>
       <c r="AE3">
-        <v>0.113785867497409</v>
+        <v>0.1099789337191079</v>
       </c>
       <c r="AF3">
-        <v>0.002060091095569416</v>
+        <v>0.003104916922682631</v>
       </c>
       <c r="AG3">
-        <v>-0.0170121852014647</v>
+        <v>-0.02972448818863468</v>
       </c>
       <c r="AH3">
-        <v>-0.05780146992625707</v>
+        <v>-0.05826345224251502</v>
       </c>
       <c r="AI3">
-        <v>-0.01144503893954852</v>
+        <v>-0.007993205151284459</v>
       </c>
       <c r="AJ3">
-        <v>-0.01229187487767862</v>
+        <v>-0.02542676492783314</v>
       </c>
       <c r="AK3">
-        <v>-8.562845633666708</v>
+        <v>-8.500021346539439</v>
       </c>
       <c r="AL3">
-        <v>-5.999990275219712</v>
+        <v>-5.993973161900433</v>
       </c>
       <c r="AM3">
-        <v>7641.607534982631</v>
+        <v>7631.339476910298</v>
       </c>
       <c r="AN3">
-        <v>7649.674378235799</v>
+        <v>7639.298905792766</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.2245547572813043</v>
+        <v>0.2259475658610914</v>
       </c>
       <c r="AQ3">
-        <v>129.0148398383216</v>
+        <v>129.8564730271869</v>
       </c>
       <c r="AR3">
-        <v>142.3000670015108</v>
+        <v>143.1733647983267</v>
       </c>
       <c r="AS3">
-        <v>1018.93959531037</v>
+        <v>1060.372282981753</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -974,144 +974,144 @@
         <v>5</v>
       </c>
       <c r="AX3">
-        <v>2596.8</v>
+        <v>2596.2</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="1">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B4">
-        <v>25879</v>
+        <v>25873</v>
       </c>
       <c r="C4">
-        <v>7.77060947953532</v>
+        <v>7.534469743413887</v>
       </c>
       <c r="D4">
-        <v>2.250914537523897</v>
+        <v>2.250629812364537</v>
       </c>
       <c r="E4">
-        <v>-17.77191282269565</v>
+        <v>-22.61641798665925</v>
       </c>
       <c r="F4">
-        <v>390.1642791346578</v>
+        <v>390.322828714961</v>
       </c>
       <c r="G4">
-        <v>428.74677946498</v>
+        <v>428.8855399491434</v>
       </c>
       <c r="H4">
-        <v>423.3325390695222</v>
+        <v>423.4233423576414</v>
       </c>
       <c r="I4">
-        <v>426.2350007334457</v>
+        <v>426.163108884663</v>
       </c>
       <c r="J4">
-        <v>79.28706874568451</v>
+        <v>79.28711971151066</v>
       </c>
       <c r="K4">
-        <v>78.29685607372876</v>
+        <v>78.29693517253632</v>
       </c>
       <c r="L4">
-        <v>62.96294504806949</v>
+        <v>62.97445008356581</v>
       </c>
       <c r="M4">
-        <v>75.81980100795549</v>
+        <v>75.82169936657907</v>
       </c>
       <c r="N4">
-        <v>62.98327852108146</v>
+        <v>62.99829073113839</v>
       </c>
       <c r="O4">
-        <v>76.26522597727417</v>
+        <v>76.27043694298119</v>
       </c>
       <c r="P4">
-        <v>348.5269033041158</v>
+        <v>348.4618732405262</v>
       </c>
       <c r="Q4">
-        <v>379.6407904389756</v>
+        <v>379.5693347033788</v>
       </c>
       <c r="R4">
-        <v>0.7555244984281186</v>
+        <v>0.7295797379795056</v>
       </c>
       <c r="S4">
-        <v>-1.17673493704041</v>
+        <v>-1.280544690250375</v>
       </c>
       <c r="T4">
-        <v>-0.179017052880578</v>
+        <v>-0.1818164729840274</v>
       </c>
       <c r="U4">
         <v>120320</v>
       </c>
       <c r="V4">
-        <v>42158.08779736928</v>
+        <v>42157.4878303227</v>
       </c>
       <c r="W4">
-        <v>-0.7581685359613046</v>
+        <v>-0.6991044698391745</v>
       </c>
       <c r="X4">
-        <v>9.950851871846101</v>
+        <v>9.891132311055832</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>51.80778955035429</v>
+        <v>51.80779325115112</v>
       </c>
       <c r="AA4">
-        <v>5.385655400280797</v>
+        <v>5.384859838410396</v>
       </c>
       <c r="AB4">
-        <v>0.249779481807574</v>
+        <v>-0.4891678896040061</v>
       </c>
       <c r="AC4">
-        <v>0.02048482456835226</v>
+        <v>0.09050967301546167</v>
       </c>
       <c r="AD4">
-        <v>0.4050289499677619</v>
+        <v>0.1334760303506859</v>
       </c>
       <c r="AE4">
-        <v>0.1138153298778052</v>
+        <v>0.1109097108667412</v>
       </c>
       <c r="AF4">
-        <v>0.001598797765112852</v>
+        <v>0.003916110383341935</v>
       </c>
       <c r="AG4">
-        <v>-0.01983257682887555</v>
+        <v>-0.0268679530601581</v>
       </c>
       <c r="AH4">
-        <v>-0.05740723566604328</v>
+        <v>-0.05799816744321862</v>
       </c>
       <c r="AI4">
-        <v>-0.01135132529243922</v>
+        <v>-0.008012713709626812</v>
       </c>
       <c r="AJ4">
-        <v>-0.01502615471329111</v>
+        <v>-0.02252855275649672</v>
       </c>
       <c r="AK4">
-        <v>-8.597817967332228</v>
+        <v>-8.500341021996549</v>
       </c>
       <c r="AL4">
-        <v>-6.000007058207435</v>
+        <v>-5.998300009424646</v>
       </c>
       <c r="AM4">
-        <v>7643.360404985012</v>
+        <v>7632.95951533804</v>
       </c>
       <c r="AN4">
-        <v>7651.44247690675</v>
+        <v>7640.934767151146</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.2242919750863549</v>
+        <v>0.2257031030727683</v>
       </c>
       <c r="AQ4">
-        <v>128.8650846504523</v>
+        <v>129.7045643843717</v>
       </c>
       <c r="AR4">
-        <v>142.1315232677711</v>
+        <v>143.0229967801615</v>
       </c>
       <c r="AS4">
-        <v>1015.353847234838</v>
+        <v>1053.905513956632</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1126,144 +1126,144 @@
         <v>5</v>
       </c>
       <c r="AX4">
-        <v>2596.9</v>
+        <v>2596.3</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="1">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B5">
-        <v>25880</v>
+        <v>25874</v>
       </c>
       <c r="C5">
-        <v>7.806970571130416</v>
+        <v>7.563985208173949</v>
       </c>
       <c r="D5">
-        <v>2.250866042748575</v>
+        <v>2.250785758827483</v>
       </c>
       <c r="E5">
-        <v>-13.66444689913752</v>
+        <v>-23.31622863198085</v>
       </c>
       <c r="F5">
-        <v>390.1534117673563</v>
+        <v>390.2841854247968</v>
       </c>
       <c r="G5">
-        <v>428.8841210629617</v>
+        <v>428.884007241525</v>
       </c>
       <c r="H5">
-        <v>423.3352332242987</v>
+        <v>423.4068420183421</v>
       </c>
       <c r="I5">
-        <v>426.2750463254999</v>
+        <v>426.1712753629911</v>
       </c>
       <c r="J5">
-        <v>79.28747813084208</v>
+        <v>79.28794755329444</v>
       </c>
       <c r="K5">
-        <v>78.29509830500766</v>
+        <v>78.29613214212443</v>
       </c>
       <c r="L5">
-        <v>62.96138489496352</v>
+        <v>62.9727358574421</v>
       </c>
       <c r="M5">
-        <v>75.81974867728681</v>
+        <v>75.82110912587102</v>
       </c>
       <c r="N5">
-        <v>62.98429897787479</v>
+        <v>62.99717527078832</v>
       </c>
       <c r="O5">
-        <v>76.2664078242839</v>
+        <v>76.2707587879125</v>
       </c>
       <c r="P5">
-        <v>348.5377408988871</v>
+        <v>348.4727144678991</v>
       </c>
       <c r="Q5">
-        <v>379.6527038867829</v>
+        <v>379.5812481480244</v>
       </c>
       <c r="R5">
-        <v>0.7512884623736654</v>
+        <v>0.7401999412410319</v>
       </c>
       <c r="S5">
-        <v>-1.069721395488542</v>
+        <v>-1.295113613514316</v>
       </c>
       <c r="T5">
-        <v>-0.1796694651356202</v>
+        <v>-0.1815426774428616</v>
       </c>
       <c r="U5">
         <v>120320</v>
       </c>
       <c r="V5">
-        <v>42158.18778573144</v>
+        <v>42157.58782588403</v>
       </c>
       <c r="W5">
-        <v>-0.7105194956472787</v>
+        <v>-0.7411129089820765</v>
       </c>
       <c r="X5">
-        <v>9.949895500507596</v>
+        <v>9.901770326205918</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>51.80778903284355</v>
+        <v>51.80779258457886</v>
       </c>
       <c r="AA5">
-        <v>5.3857875091095</v>
+        <v>5.384992669916519</v>
       </c>
       <c r="AB5">
-        <v>0.41734828857664</v>
+        <v>-0.4590160630556509</v>
       </c>
       <c r="AC5">
-        <v>-0.06866844747922779</v>
+        <v>0.09270039614361293</v>
       </c>
       <c r="AD5">
-        <v>0.4097910392390669</v>
+        <v>0.2061750232263101</v>
       </c>
       <c r="AE5">
-        <v>0.1136101033482194</v>
+        <v>0.1118351967839528</v>
       </c>
       <c r="AF5">
-        <v>0.001210757582903544</v>
+        <v>0.00427044778997987</v>
       </c>
       <c r="AG5">
-        <v>-0.02493550653773167</v>
+        <v>-0.02348607540962042</v>
       </c>
       <c r="AH5">
-        <v>-0.05672926041085949</v>
+        <v>-0.05783958523929728</v>
       </c>
       <c r="AI5">
-        <v>-0.01087985675945707</v>
+        <v>-0.008427489739536392</v>
       </c>
       <c r="AJ5">
-        <v>-0.0200341988393546</v>
+        <v>-0.01908326631708868</v>
       </c>
       <c r="AK5">
-        <v>-8.636397568883581</v>
+        <v>-8.501928378832332</v>
       </c>
       <c r="AL5">
-        <v>-6.000009324234124</v>
+        <v>-5.999717653966676</v>
       </c>
       <c r="AM5">
-        <v>7645.064331856457</v>
+        <v>7634.604071768653</v>
       </c>
       <c r="AN5">
-        <v>7653.20415949335</v>
+        <v>7642.605549290801</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.2240114249417094</v>
+        <v>0.22547342791292</v>
       </c>
       <c r="AQ5">
-        <v>128.7047903004716</v>
+        <v>129.5610497709418</v>
       </c>
       <c r="AR5">
-        <v>141.9504376359927</v>
+        <v>142.8801706943371</v>
       </c>
       <c r="AS5">
-        <v>1014.233494244808</v>
+        <v>1046.85869488512</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -1278,144 +1278,144 @@
         <v>5</v>
       </c>
       <c r="AX5">
-        <v>2597</v>
+        <v>2596.4</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="1">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B6">
-        <v>25881</v>
+        <v>25875</v>
       </c>
       <c r="C6">
-        <v>7.836881299654721</v>
+        <v>7.601960391081836</v>
       </c>
       <c r="D6">
-        <v>2.25083113164591</v>
+        <v>2.250921859922212</v>
       </c>
       <c r="E6">
-        <v>-9.293049389517249</v>
+        <v>-23.77245556704225</v>
       </c>
       <c r="F6">
-        <v>390.0943156621182</v>
+        <v>390.2128951863649</v>
       </c>
       <c r="G6">
-        <v>429.012334939747</v>
+        <v>428.8008857391435</v>
       </c>
       <c r="H6">
-        <v>423.3409162778604</v>
+        <v>423.3896623269752</v>
       </c>
       <c r="I6">
-        <v>426.319458795315</v>
+        <v>426.1706600287001</v>
       </c>
       <c r="J6">
-        <v>79.28788998880289</v>
+        <v>79.2881859706871</v>
       </c>
       <c r="K6">
-        <v>78.29391135928988</v>
+        <v>78.29622538871564</v>
       </c>
       <c r="L6">
-        <v>62.95986980413822</v>
+        <v>62.97079570909498</v>
       </c>
       <c r="M6">
-        <v>75.81952628196777</v>
+        <v>75.82051212017996</v>
       </c>
       <c r="N6">
-        <v>62.98657328365728</v>
+        <v>62.99451560233618</v>
       </c>
       <c r="O6">
-        <v>76.26810181584224</v>
+        <v>76.26972187237861</v>
       </c>
       <c r="P6">
-        <v>348.5485768520999</v>
+        <v>348.4835537149876</v>
       </c>
       <c r="Q6">
-        <v>379.6646208960868</v>
+        <v>379.5931592837393</v>
       </c>
       <c r="R6">
-        <v>0.7459098041790919</v>
+        <v>0.7485718152378303</v>
       </c>
       <c r="S6">
-        <v>-0.9560113218776509</v>
+        <v>-1.309281904303351</v>
       </c>
       <c r="T6">
-        <v>-0.1805230924306964</v>
+        <v>-0.1809866902775905</v>
       </c>
       <c r="U6">
         <v>120320</v>
       </c>
       <c r="V6">
-        <v>42158.28777409361</v>
+        <v>42157.68782144536</v>
       </c>
       <c r="W6">
-        <v>-0.6471936319646726</v>
+        <v>-0.7747154693386977</v>
       </c>
       <c r="X6">
-        <v>9.937062101453286</v>
+        <v>9.912726983880233</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>51.80778853339953</v>
+        <v>51.80779192697055</v>
       </c>
       <c r="AA6">
-        <v>5.385919527405988</v>
+        <v>5.385125459800075</v>
       </c>
       <c r="AB6">
-        <v>0.5688173729746202</v>
+        <v>-0.3757104114774413</v>
       </c>
       <c r="AC6">
-        <v>-0.2061661911502882</v>
+        <v>0.09345352605984097</v>
       </c>
       <c r="AD6">
-        <v>0.4039649642745269</v>
+        <v>0.2716836180960457</v>
       </c>
       <c r="AE6">
-        <v>0.1131338016752036</v>
+        <v>0.1126094820962788</v>
       </c>
       <c r="AF6">
-        <v>0.0008070155847833961</v>
+        <v>0.004045258413832342</v>
       </c>
       <c r="AG6">
-        <v>-0.03184540219082885</v>
+        <v>-0.02023394970272469</v>
       </c>
       <c r="AH6">
-        <v>-0.05581096079434335</v>
+        <v>-0.05782292074438868</v>
       </c>
       <c r="AI6">
-        <v>-0.01015490741334393</v>
+        <v>-0.009255112808830068</v>
       </c>
       <c r="AJ6">
-        <v>-0.02685378392136947</v>
+        <v>-0.01575328763920553</v>
       </c>
       <c r="AK6">
-        <v>-8.673441533475637</v>
+        <v>-8.506620681390432</v>
       </c>
       <c r="AL6">
-        <v>-6.000003917993229</v>
+        <v>-5.999983398156895</v>
       </c>
       <c r="AM6">
-        <v>7646.731207020444</v>
+        <v>7636.2950092204</v>
       </c>
       <c r="AN6">
-        <v>7654.978106744582</v>
+        <v>7644.327788959316</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.223720995219401</v>
+        <v>0.2252517816016699</v>
       </c>
       <c r="AQ6">
-        <v>128.5375271664356</v>
+        <v>129.424091574059</v>
       </c>
       <c r="AR6">
-        <v>141.7627991178319</v>
+        <v>142.74108902373</v>
       </c>
       <c r="AS6">
-        <v>1015.268678019284</v>
+        <v>1039.34496845657</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -1430,144 +1430,144 @@
         <v>5</v>
       </c>
       <c r="AX6">
-        <v>2597.1</v>
+        <v>2596.5</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="1">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B7">
-        <v>25882</v>
+        <v>25876</v>
       </c>
       <c r="C7">
-        <v>7.857791154616978</v>
+        <v>7.644248986608994</v>
       </c>
       <c r="D7">
-        <v>2.250803703268967</v>
+        <v>2.251002611964836</v>
       </c>
       <c r="E7">
-        <v>-5.420020077711428</v>
+        <v>-23.74459508124298</v>
       </c>
       <c r="F7">
-        <v>389.9990973646354</v>
+        <v>390.150269661157</v>
       </c>
       <c r="G7">
-        <v>429.0918467434104</v>
+        <v>428.6944733194946</v>
       </c>
       <c r="H7">
-        <v>423.3446505798799</v>
+        <v>423.3699059018712</v>
       </c>
       <c r="I7">
-        <v>426.3660408319737</v>
+        <v>426.171083167651</v>
       </c>
       <c r="J7">
-        <v>79.2879017847448</v>
+        <v>79.28789168663431</v>
       </c>
       <c r="K7">
-        <v>78.29420086525467</v>
+        <v>78.29710947464757</v>
       </c>
       <c r="L7">
-        <v>62.95834795139609</v>
+        <v>62.96868211352359</v>
       </c>
       <c r="M7">
-        <v>75.81905911657699</v>
+        <v>75.82009122167022</v>
       </c>
       <c r="N7">
-        <v>62.98891915762094</v>
+        <v>62.99076739157754</v>
       </c>
       <c r="O7">
-        <v>76.26965191391388</v>
+        <v>76.26787146130549</v>
       </c>
       <c r="P7">
-        <v>348.5594101603601</v>
+        <v>348.4943912224782</v>
       </c>
       <c r="Q7">
-        <v>379.6765401140519</v>
+        <v>379.6050674635538</v>
       </c>
       <c r="R7">
-        <v>0.7400671265940008</v>
+        <v>0.7544622295171667</v>
       </c>
       <c r="S7">
-        <v>-0.858106487076444</v>
+        <v>-1.31523286692</v>
       </c>
       <c r="T7">
-        <v>-0.1812449594239321</v>
+        <v>-0.1801816580709066</v>
       </c>
       <c r="U7">
         <v>120320</v>
       </c>
       <c r="V7">
-        <v>42158.38776245577</v>
+        <v>42157.78781700669</v>
       </c>
       <c r="W7">
-        <v>-0.5704838839729429</v>
+        <v>-0.7956110737911989</v>
       </c>
       <c r="X7">
-        <v>9.907811970839504</v>
+        <v>9.923870724683946</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>51.80778804322808</v>
+        <v>51.80779128701938</v>
       </c>
       <c r="AA7">
-        <v>5.386051498721637</v>
+        <v>5.385258166399435</v>
       </c>
       <c r="AB7">
-        <v>0.6988191837481107</v>
+        <v>-0.2510694821952789</v>
       </c>
       <c r="AC7">
-        <v>-0.3858475333894402</v>
+        <v>0.09265635445161452</v>
       </c>
       <c r="AD7">
-        <v>0.3869762277823907</v>
+        <v>0.3247200059732249</v>
       </c>
       <c r="AE7">
-        <v>0.1123888281973966</v>
+        <v>0.1131823740835017</v>
       </c>
       <c r="AF7">
-        <v>0.0003567977561026628</v>
+        <v>0.003412126159366847</v>
       </c>
       <c r="AG7">
-        <v>-0.03975065355012346</v>
+        <v>-0.01769616654371064</v>
       </c>
       <c r="AH7">
-        <v>-0.054718202893412</v>
+        <v>-0.05789485884148957</v>
       </c>
       <c r="AI7">
-        <v>-0.009256213053503919</v>
+        <v>-0.01025112809410531</v>
       </c>
       <c r="AJ7">
-        <v>-0.03469188037456204</v>
+        <v>-0.01313331132678922</v>
       </c>
       <c r="AK7">
-        <v>-8.704333900784638</v>
+        <v>-8.516972665858646</v>
       </c>
       <c r="AL7">
-        <v>-5.999999075717432</v>
+        <v>-5.999974062908419</v>
       </c>
       <c r="AM7">
-        <v>7648.392603601935</v>
+        <v>7638.039467962825</v>
       </c>
       <c r="AN7">
-        <v>7656.768120867349</v>
+        <v>7646.096972513923</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.2234342844377289</v>
+        <v>0.2250296042906955</v>
       </c>
       <c r="AQ7">
-        <v>128.3706828405675</v>
+        <v>129.2901954525904</v>
       </c>
       <c r="AR7">
-        <v>141.5783937968736</v>
+        <v>142.6010904624096</v>
       </c>
       <c r="AS7">
-        <v>1017.542458764879</v>
+        <v>1031.726762078472</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -1582,144 +1582,144 @@
         <v>5</v>
       </c>
       <c r="AX7">
-        <v>2597.2</v>
+        <v>2596.6</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="1">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B8">
-        <v>25883</v>
+        <v>25877</v>
       </c>
       <c r="C8">
-        <v>7.86777402845225</v>
+        <v>7.687652961220393</v>
       </c>
       <c r="D8">
-        <v>2.250783602606984</v>
+        <v>2.251013708932208</v>
       </c>
       <c r="E8">
-        <v>-2.556387510417857</v>
+        <v>-22.90777111276761</v>
       </c>
       <c r="F8">
-        <v>389.8903904276113</v>
+        <v>390.1275989160796</v>
       </c>
       <c r="G8">
-        <v>429.098165403266</v>
+        <v>428.630818960198</v>
       </c>
       <c r="H8">
-        <v>423.3438883981235</v>
+        <v>423.3507640659915</v>
       </c>
       <c r="I8">
-        <v>426.4119662502592</v>
+        <v>426.1805458406216</v>
       </c>
       <c r="J8">
-        <v>79.28734893386576</v>
+        <v>79.28736924071843</v>
       </c>
       <c r="K8">
-        <v>78.29603337044198</v>
+        <v>78.29801785918679</v>
       </c>
       <c r="L8">
-        <v>62.95684031154397</v>
+        <v>62.96658047188301</v>
       </c>
       <c r="M8">
-        <v>75.81849932629376</v>
+        <v>75.81988557903409</v>
       </c>
       <c r="N8">
-        <v>62.99021490515878</v>
+        <v>62.98694411257524</v>
       </c>
       <c r="O8">
-        <v>76.27054384703342</v>
+        <v>76.26606566158742</v>
       </c>
       <c r="P8">
-        <v>348.570240448983</v>
+        <v>348.5052281002258</v>
       </c>
       <c r="Q8">
-        <v>379.6884595075354</v>
+        <v>379.6169738751915</v>
       </c>
       <c r="R8">
-        <v>0.7341554133672379</v>
+        <v>0.7575726397173889</v>
       </c>
       <c r="S8">
-        <v>-0.7894483579063943</v>
+        <v>-1.301512803520338</v>
       </c>
       <c r="T8">
-        <v>-0.1816823235795019</v>
+        <v>-0.1793629429536925</v>
       </c>
       <c r="U8">
         <v>120320</v>
       </c>
       <c r="V8">
-        <v>42158.48775081794</v>
+        <v>42157.88781256802</v>
       </c>
       <c r="W8">
-        <v>-0.4831021558757154</v>
+        <v>-0.8007980682363864</v>
       </c>
       <c r="X8">
-        <v>9.85894450785128</v>
+        <v>9.934845515339523</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>51.80778755642072</v>
+        <v>51.80779067434433</v>
       </c>
       <c r="AA8">
-        <v>5.386183449836302</v>
+        <v>5.385390742348313</v>
       </c>
       <c r="AB8">
-        <v>0.8038967891310604</v>
+        <v>-0.09685474270979222</v>
       </c>
       <c r="AC8">
-        <v>-0.5903986437271215</v>
+        <v>0.08708555791866091</v>
       </c>
       <c r="AD8">
-        <v>0.3586199875185945</v>
+        <v>0.363737676744874</v>
       </c>
       <c r="AE8">
-        <v>0.1114154032432983</v>
+        <v>0.1135685634662401</v>
       </c>
       <c r="AF8">
-        <v>-0.0001111312028701366</v>
+        <v>0.002677072129285879</v>
       </c>
       <c r="AG8">
-        <v>-0.04789989907757253</v>
+        <v>-0.01643786940337507</v>
       </c>
       <c r="AH8">
-        <v>-0.05349046622442066</v>
+        <v>-0.05793294922320504</v>
       </c>
       <c r="AI8">
-        <v>-0.008210566869452767</v>
+        <v>-0.0110633823659477</v>
       </c>
       <c r="AJ8">
-        <v>-0.04280646143437871</v>
+        <v>-0.01179593571325502</v>
       </c>
       <c r="AK8">
-        <v>-8.726497053580061</v>
+        <v>-8.535395902551253</v>
       </c>
       <c r="AL8">
-        <v>-5.999997645208129</v>
+        <v>-5.999969390687079</v>
       </c>
       <c r="AM8">
-        <v>7650.08067942736</v>
+        <v>7639.821905088792</v>
       </c>
       <c r="AN8">
-        <v>7658.555145502786</v>
+        <v>7647.888651511177</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.2231641136685701</v>
+        <v>0.2247992760498782</v>
       </c>
       <c r="AQ8">
-        <v>128.2117180882719</v>
+        <v>129.1552424683462</v>
       </c>
       <c r="AR8">
-        <v>141.4062096152301</v>
+        <v>142.4555402759373</v>
       </c>
       <c r="AS8">
-        <v>1019.86044396146</v>
+        <v>1024.648967572562</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -1734,144 +1734,144 @@
         <v>5</v>
       </c>
       <c r="AX8">
-        <v>2597.3</v>
+        <v>2596.7</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="1">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B9">
-        <v>25884</v>
+        <v>25878</v>
       </c>
       <c r="C9">
-        <v>7.865852772928231</v>
+        <v>7.730239361032075</v>
       </c>
       <c r="D9">
-        <v>2.250777355278991</v>
+        <v>2.250972541198436</v>
       </c>
       <c r="E9">
-        <v>-0.7970315021698136</v>
+        <v>-20.95034599157276</v>
       </c>
       <c r="F9">
-        <v>389.7796620706717</v>
+        <v>390.1430609018935</v>
       </c>
       <c r="G9">
-        <v>429.0174885384745</v>
+        <v>428.6495167615575</v>
       </c>
       <c r="H9">
-        <v>423.3392193151267</v>
+        <v>423.3373239062283</v>
       </c>
       <c r="I9">
-        <v>426.4535691293939</v>
+        <v>426.2023181766543</v>
       </c>
       <c r="J9">
-        <v>79.28642197827519</v>
+        <v>79.28701164361138</v>
       </c>
       <c r="K9">
-        <v>78.29867754818163</v>
+        <v>78.29803483774639</v>
       </c>
       <c r="L9">
-        <v>62.95537683169377</v>
+        <v>62.96465371206218</v>
       </c>
       <c r="M9">
-        <v>75.81811473153451</v>
+        <v>75.81981795436933</v>
       </c>
       <c r="N9">
-        <v>62.98998664129697</v>
+        <v>62.98418811379521</v>
       </c>
       <c r="O9">
-        <v>76.27058954663971</v>
+        <v>76.26506654583889</v>
       </c>
       <c r="P9">
-        <v>348.5810676618183</v>
+        <v>348.5160654074731</v>
       </c>
       <c r="Q9">
-        <v>379.7003766599947</v>
+        <v>379.6288808062127</v>
       </c>
       <c r="R9">
-        <v>0.7282876700144363</v>
+        <v>0.7578294514372395</v>
       </c>
       <c r="S9">
-        <v>-0.7502300648658561</v>
+        <v>-1.256808611994412</v>
       </c>
       <c r="T9">
-        <v>-0.1818660967797233</v>
+        <v>-0.1788921261680014</v>
       </c>
       <c r="U9">
         <v>120320</v>
       </c>
       <c r="V9">
-        <v>42158.58773918012</v>
+        <v>42157.98780812935</v>
       </c>
       <c r="W9">
-        <v>-0.3879572908210708</v>
+        <v>-0.7884917939241661</v>
       </c>
       <c r="X9">
-        <v>9.789291346909456</v>
+        <v>9.944599381767249</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>51.80778706987519</v>
+        <v>51.80779009542272</v>
       </c>
       <c r="AA9">
-        <v>5.38631538569934</v>
+        <v>5.385523154486309</v>
       </c>
       <c r="AB9">
-        <v>0.8828250492571212</v>
+        <v>0.07448036590194516</v>
       </c>
       <c r="AC9">
-        <v>-0.7984573965655187</v>
+        <v>0.06772844875532941</v>
       </c>
       <c r="AD9">
-        <v>0.3195281425734253</v>
+        <v>0.389933276893662</v>
       </c>
       <c r="AE9">
-        <v>0.1102711954313692</v>
+        <v>0.113785867497409</v>
       </c>
       <c r="AF9">
-        <v>-0.0005351121139025922</v>
+        <v>0.002060091095569416</v>
       </c>
       <c r="AG9">
-        <v>-0.05589481134768109</v>
+        <v>-0.0170121852014647</v>
       </c>
       <c r="AH9">
-        <v>-0.05212226464930986</v>
+        <v>-0.05780146992625707</v>
       </c>
       <c r="AI9">
-        <v>-0.007012184731305544</v>
+        <v>-0.01144503893954852</v>
       </c>
       <c r="AJ9">
-        <v>-0.05079486063307983</v>
+        <v>-0.01229187487767862</v>
       </c>
       <c r="AK9">
-        <v>-8.739943431256844</v>
+        <v>-8.562845633666708</v>
       </c>
       <c r="AL9">
-        <v>-5.999998674529567</v>
+        <v>-5.999990275219712</v>
       </c>
       <c r="AM9">
-        <v>7651.806870488807</v>
+        <v>7641.607534982631</v>
       </c>
       <c r="AN9">
-        <v>7660.309979002907</v>
+        <v>7649.674378235799</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.2229163891314728</v>
+        <v>0.2245547572813043</v>
       </c>
       <c r="AQ9">
-        <v>128.0646300358561</v>
+        <v>129.0148398383216</v>
       </c>
       <c r="AR9">
-        <v>141.2503098542668</v>
+        <v>142.3000670015108</v>
       </c>
       <c r="AS9">
-        <v>1021.15072616588</v>
+        <v>1018.93959531037</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -1886,144 +1886,144 @@
         <v>5</v>
       </c>
       <c r="AX9">
-        <v>2597.4</v>
+        <v>2596.8</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="1">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B10">
-        <v>25885</v>
+        <v>25879</v>
       </c>
       <c r="C10">
-        <v>7.851821852618948</v>
+        <v>7.77060947953532</v>
       </c>
       <c r="D10">
-        <v>2.250788665153907</v>
+        <v>2.250914537523897</v>
       </c>
       <c r="E10">
-        <v>0.08804317595157264</v>
+        <v>-17.77191282269565</v>
       </c>
       <c r="F10">
-        <v>389.6630758282182</v>
+        <v>390.1642791346578</v>
       </c>
       <c r="G10">
-        <v>428.8446374012969</v>
+        <v>428.74677946498</v>
       </c>
       <c r="H10">
-        <v>423.3330719920178</v>
+        <v>423.3325390695222</v>
       </c>
       <c r="I10">
-        <v>426.4873814714525</v>
+        <v>426.2350007334457</v>
       </c>
       <c r="J10">
-        <v>79.28551281643013</v>
+        <v>79.28706874568451</v>
       </c>
       <c r="K10">
-        <v>78.30118654440351</v>
+        <v>78.29685607372876</v>
       </c>
       <c r="L10">
-        <v>62.95391877900727</v>
+        <v>62.96294504806949</v>
       </c>
       <c r="M10">
-        <v>75.81799233763702</v>
+        <v>75.81980100795549</v>
       </c>
       <c r="N10">
-        <v>62.98848951286813</v>
+        <v>62.98327852108146</v>
       </c>
       <c r="O10">
-        <v>76.26986509154521</v>
+        <v>76.26522597727417</v>
       </c>
       <c r="P10">
-        <v>348.5918916361469</v>
+        <v>348.5269033041158</v>
       </c>
       <c r="Q10">
-        <v>379.7122890110336</v>
+        <v>379.6407904389756</v>
       </c>
       <c r="R10">
-        <v>0.7223234941986799</v>
+        <v>0.7555244984281186</v>
       </c>
       <c r="S10">
-        <v>-0.7317661622338396</v>
+        <v>-1.17673493704041</v>
       </c>
       <c r="T10">
-        <v>-0.1819065848207636</v>
+        <v>-0.179017052880578</v>
       </c>
       <c r="U10">
         <v>120320</v>
       </c>
       <c r="V10">
-        <v>42158.68772754228</v>
+        <v>42158.08779736928</v>
       </c>
       <c r="W10">
-        <v>-0.287797431200051</v>
+        <v>-0.7581685359613046</v>
       </c>
       <c r="X10">
-        <v>9.699601371470287</v>
+        <v>9.950851871846101</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>51.80778658202343</v>
+        <v>51.80778955035429</v>
       </c>
       <c r="AA10">
-        <v>5.386447290455547</v>
+        <v>5.385655400280797</v>
       </c>
       <c r="AB10">
-        <v>0.9379707048899316</v>
+        <v>0.249779481807574</v>
       </c>
       <c r="AC10">
-        <v>-0.9924360486351328</v>
+        <v>0.02048482456835226</v>
       </c>
       <c r="AD10">
-        <v>0.2714694285283076</v>
+        <v>0.4050289499677619</v>
       </c>
       <c r="AE10">
-        <v>0.1090065602679798</v>
+        <v>0.1138153298778052</v>
       </c>
       <c r="AF10">
-        <v>-0.0008522134564269521</v>
+        <v>0.001598797765112852</v>
       </c>
       <c r="AG10">
-        <v>-0.06372087399505474</v>
+        <v>-0.01983257682887555</v>
       </c>
       <c r="AH10">
-        <v>-0.0505832887701717</v>
+        <v>-0.05740723566604328</v>
       </c>
       <c r="AI10">
-        <v>-0.005647980672757522</v>
+        <v>-0.01135132529243922</v>
       </c>
       <c r="AJ10">
-        <v>-0.05863159654062031</v>
+        <v>-0.01502615471329111</v>
       </c>
       <c r="AK10">
-        <v>-8.74664525859224</v>
+        <v>-8.597817967332228</v>
       </c>
       <c r="AL10">
-        <v>-6.000000568087554</v>
+        <v>-6.000007058207435</v>
       </c>
       <c r="AM10">
-        <v>7653.548794575287</v>
+        <v>7643.360404985012</v>
       </c>
       <c r="AN10">
-        <v>7662.011604275009</v>
+        <v>7651.44247690675</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.2226887546418936</v>
+        <v>0.2242919750863549</v>
       </c>
       <c r="AQ10">
-        <v>127.9288315247321</v>
+        <v>128.8650846504523</v>
       </c>
       <c r="AR10">
-        <v>141.1088725832039</v>
+        <v>142.1315232677711</v>
       </c>
       <c r="AS10">
-        <v>1020.68039429511</v>
+        <v>1015.353847234838</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2038,144 +2038,144 @@
         <v>5</v>
       </c>
       <c r="AX10">
-        <v>2597.5</v>
+        <v>2596.9</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="1">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B11">
-        <v>25886</v>
+        <v>25880</v>
       </c>
       <c r="C11">
-        <v>7.825842547146153</v>
+        <v>7.806970571130416</v>
       </c>
       <c r="D11">
-        <v>2.250811089371396</v>
+        <v>2.250866042748575</v>
       </c>
       <c r="E11">
-        <v>0.4399162291855651</v>
+        <v>-13.66444689913752</v>
       </c>
       <c r="F11">
-        <v>389.534262026132</v>
+        <v>390.1534117673563</v>
       </c>
       <c r="G11">
-        <v>428.587223984363</v>
+        <v>428.8841210629617</v>
       </c>
       <c r="H11">
-        <v>423.3277547540526</v>
+        <v>423.3352332242987</v>
       </c>
       <c r="I11">
-        <v>426.5107304958466</v>
+        <v>426.2750463254999</v>
       </c>
       <c r="J11">
-        <v>79.28494429171518</v>
+        <v>79.28747813084208</v>
       </c>
       <c r="K11">
-        <v>78.30293792294165</v>
+        <v>78.29509830500766</v>
       </c>
       <c r="L11">
-        <v>62.95236023175726</v>
+        <v>62.96138489496352</v>
       </c>
       <c r="M11">
-        <v>75.81795418780752</v>
+        <v>75.81974867728681</v>
       </c>
       <c r="N11">
-        <v>62.98617874217932</v>
+        <v>62.98429897787479</v>
       </c>
       <c r="O11">
-        <v>76.26849637913089</v>
+        <v>76.2664078242839</v>
       </c>
       <c r="P11">
-        <v>348.6027120323143</v>
+        <v>348.5377408988871</v>
       </c>
       <c r="Q11">
-        <v>379.7241942116999</v>
+        <v>379.6527038867829</v>
       </c>
       <c r="R11">
-        <v>0.7158717298396955</v>
+        <v>0.7512884623736654</v>
       </c>
       <c r="S11">
-        <v>-0.7237392755239398</v>
+        <v>-1.069721395488542</v>
       </c>
       <c r="T11">
-        <v>-0.1818991454062307</v>
+        <v>-0.1796694651356202</v>
       </c>
       <c r="U11">
         <v>120320</v>
       </c>
       <c r="V11">
-        <v>42158.78771590445</v>
+        <v>42158.18778573144</v>
       </c>
       <c r="W11">
-        <v>-0.1847911370107813</v>
+        <v>-0.7105194956472787</v>
       </c>
       <c r="X11">
-        <v>9.591860226435143</v>
+        <v>9.949895500507596</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>51.80778609166984</v>
+        <v>51.80778903284355</v>
       </c>
       <c r="AA11">
-        <v>5.386579132922291</v>
+        <v>5.3857875091095</v>
       </c>
       <c r="AB11">
-        <v>0.9753718888080677</v>
+        <v>0.41734828857664</v>
       </c>
       <c r="AC11">
-        <v>-1.16254960353338</v>
+        <v>-0.06866844747922779</v>
       </c>
       <c r="AD11">
-        <v>0.2172957934169074</v>
+        <v>0.4097910392390669</v>
       </c>
       <c r="AE11">
-        <v>0.1076447133348408</v>
+        <v>0.1136101033482194</v>
       </c>
       <c r="AF11">
-        <v>-0.001030891796278419</v>
+        <v>0.001210757582903544</v>
       </c>
       <c r="AG11">
-        <v>-0.07162359562670462</v>
+        <v>-0.02493550653773167</v>
       </c>
       <c r="AH11">
-        <v>-0.048850937610906</v>
+        <v>-0.05672926041085949</v>
       </c>
       <c r="AI11">
-        <v>-0.004124437572348699</v>
+        <v>-0.01087985675945707</v>
       </c>
       <c r="AJ11">
-        <v>-0.06655490026860487</v>
+        <v>-0.0200341988393546</v>
       </c>
       <c r="AK11">
-        <v>-8.749240563466733</v>
+        <v>-8.636397568883581</v>
       </c>
       <c r="AL11">
-        <v>-6.000002124596473</v>
+        <v>-6.000009324234124</v>
       </c>
       <c r="AM11">
-        <v>7655.257135554765</v>
+        <v>7645.064331856457</v>
       </c>
       <c r="AN11">
-        <v>7663.653046201288</v>
+        <v>7653.20415949335</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.2224739138641467</v>
+        <v>0.2240114249417094</v>
       </c>
       <c r="AQ11">
-        <v>127.8004773756728</v>
+        <v>128.7047903004716</v>
       </c>
       <c r="AR11">
-        <v>140.9763687819617</v>
+        <v>141.9504376359927</v>
       </c>
       <c r="AS11">
-        <v>1018.044722056685</v>
+        <v>1014.233494244808</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2190,144 +2190,144 @@
         <v>5</v>
       </c>
       <c r="AX11">
-        <v>2597.6</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="1">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B12">
-        <v>25887</v>
+        <v>25881</v>
       </c>
       <c r="C12">
-        <v>7.788147971803323</v>
+        <v>7.836881299654721</v>
       </c>
       <c r="D12">
-        <v>2.250829455413265</v>
+        <v>2.25083113164591</v>
       </c>
       <c r="E12">
-        <v>0.5408905483076123</v>
+        <v>-9.293049389517249</v>
       </c>
       <c r="F12">
-        <v>389.396583419391</v>
+        <v>390.0943156621182</v>
       </c>
       <c r="G12">
-        <v>428.2715068529875</v>
+        <v>429.012334939747</v>
       </c>
       <c r="H12">
-        <v>423.3237231229979</v>
+        <v>423.3409162778604</v>
       </c>
       <c r="I12">
-        <v>426.5224109126216</v>
+        <v>426.319458795315</v>
       </c>
       <c r="J12">
-        <v>79.28483545574652</v>
+        <v>79.28788998880289</v>
       </c>
       <c r="K12">
-        <v>78.30376867594407</v>
+        <v>78.29391135928988</v>
       </c>
       <c r="L12">
-        <v>62.95059829906337</v>
+        <v>62.95986980413822</v>
       </c>
       <c r="M12">
-        <v>75.81772758456003</v>
+        <v>75.81952628196777</v>
       </c>
       <c r="N12">
-        <v>62.98322209970753</v>
+        <v>62.98657328365728</v>
       </c>
       <c r="O12">
-        <v>76.26653789509814</v>
+        <v>76.26810181584224</v>
       </c>
       <c r="P12">
-        <v>348.613528604076</v>
+        <v>348.5485768520999</v>
       </c>
       <c r="Q12">
-        <v>379.7360906424458</v>
+        <v>379.6646208960868</v>
       </c>
       <c r="R12">
-        <v>0.7084887479890455</v>
+        <v>0.7459098041790919</v>
       </c>
       <c r="S12">
-        <v>-0.7188777692505313</v>
+        <v>-0.9560113218776509</v>
       </c>
       <c r="T12">
-        <v>-0.1818902684164529</v>
+        <v>-0.1805230924306964</v>
       </c>
       <c r="U12">
         <v>120320</v>
       </c>
       <c r="V12">
-        <v>42158.88770426661</v>
+        <v>42158.28777409361</v>
       </c>
       <c r="W12">
-        <v>-0.08030955619858855</v>
+        <v>-0.6471936319646726</v>
       </c>
       <c r="X12">
-        <v>9.468547521043634</v>
+        <v>9.937062101453286</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>51.80778559761732</v>
+        <v>51.80778853339953</v>
       </c>
       <c r="AA12">
-        <v>5.386710877480391</v>
+        <v>5.385919527405988</v>
       </c>
       <c r="AB12">
-        <v>1.00217743632395</v>
+        <v>0.5688173729746202</v>
       </c>
       <c r="AC12">
-        <v>-1.306190992918024</v>
+        <v>-0.2061661911502882</v>
       </c>
       <c r="AD12">
-        <v>0.1603012556812562</v>
+        <v>0.4039649642745269</v>
       </c>
       <c r="AE12">
-        <v>0.1061803395222423</v>
+        <v>0.1131338016752036</v>
       </c>
       <c r="AF12">
-        <v>-0.001089343269452059</v>
+        <v>0.0008070155847833961</v>
       </c>
       <c r="AG12">
-        <v>-0.07994089675580612</v>
+        <v>-0.03184540219082885</v>
       </c>
       <c r="AH12">
-        <v>-0.04692733848444564</v>
+        <v>-0.05581096079434335</v>
       </c>
       <c r="AI12">
-        <v>-0.002484022611853852</v>
+        <v>-0.01015490741334393</v>
       </c>
       <c r="AJ12">
-        <v>-0.07490434128487861</v>
+        <v>-0.02685378392136947</v>
       </c>
       <c r="AK12">
-        <v>-8.749921412665136</v>
+        <v>-8.673441533475637</v>
       </c>
       <c r="AL12">
-        <v>-6.000001925481756</v>
+        <v>-6.000003917993229</v>
       </c>
       <c r="AM12">
-        <v>7656.884587618476</v>
+        <v>7646.731207020444</v>
       </c>
       <c r="AN12">
-        <v>7665.234119977893</v>
+        <v>7654.978106744582</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.2222646216640644</v>
+        <v>0.223720995219401</v>
       </c>
       <c r="AQ12">
-        <v>127.6752038952016</v>
+        <v>128.5375271664356</v>
       </c>
       <c r="AR12">
-        <v>140.8469847138067</v>
+        <v>141.7627991178319</v>
       </c>
       <c r="AS12">
-        <v>1013.07361705489</v>
+        <v>1015.268678019284</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -2342,144 +2342,144 @@
         <v>5</v>
       </c>
       <c r="AX12">
-        <v>2597.7</v>
+        <v>2597.1</v>
       </c>
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="1">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B13">
-        <v>25888</v>
+        <v>25882</v>
       </c>
       <c r="C13">
-        <v>7.739093008732888</v>
+        <v>7.857791154616978</v>
       </c>
       <c r="D13">
-        <v>2.250830749042291</v>
+        <v>2.250803703268967</v>
       </c>
       <c r="E13">
-        <v>0.5556609813492038</v>
+        <v>-5.420020077711428</v>
       </c>
       <c r="F13">
-        <v>389.2640906577207</v>
+        <v>389.9990973646354</v>
       </c>
       <c r="G13">
-        <v>427.9439419917587</v>
+        <v>429.0918467434104</v>
       </c>
       <c r="H13">
-        <v>423.3189122692812</v>
+        <v>423.3446505798799</v>
       </c>
       <c r="I13">
-        <v>426.524522655632</v>
+        <v>426.3660408319737</v>
       </c>
       <c r="J13">
-        <v>79.28517006031574</v>
+        <v>79.2879017847448</v>
       </c>
       <c r="K13">
-        <v>78.30380378724939</v>
+        <v>78.29420086525467</v>
       </c>
       <c r="L13">
-        <v>62.94860488934314</v>
+        <v>62.95834795139609</v>
       </c>
       <c r="M13">
-        <v>75.81713028953153</v>
+        <v>75.81905911657699</v>
       </c>
       <c r="N13">
-        <v>62.97960880282631</v>
+        <v>62.98891915762094</v>
       </c>
       <c r="O13">
-        <v>76.2640703006564</v>
+        <v>76.26965191391388</v>
       </c>
       <c r="P13">
-        <v>348.6243414954831</v>
+        <v>348.5594101603601</v>
       </c>
       <c r="Q13">
-        <v>379.7479779741678</v>
+        <v>379.6765401140519</v>
       </c>
       <c r="R13">
-        <v>0.7001304178117522</v>
+        <v>0.7400671265940008</v>
       </c>
       <c r="S13">
-        <v>-0.7138451853917904</v>
+        <v>-0.858106487076444</v>
       </c>
       <c r="T13">
-        <v>-0.1818890366424951</v>
+        <v>-0.1812449594239321</v>
       </c>
       <c r="U13">
         <v>120320</v>
       </c>
       <c r="V13">
-        <v>42158.98769262878</v>
+        <v>42158.38776245577</v>
       </c>
       <c r="W13">
-        <v>0.02488829389598241</v>
+        <v>-0.5704838839729429</v>
       </c>
       <c r="X13">
-        <v>9.33217816074767</v>
+        <v>9.907811970839504</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>51.80778509900121</v>
+        <v>51.80778804322808</v>
       </c>
       <c r="AA13">
-        <v>5.386842499231122</v>
+        <v>5.386051498721637</v>
       </c>
       <c r="AB13">
-        <v>1.022649065795306</v>
+        <v>0.6988191837481107</v>
       </c>
       <c r="AC13">
-        <v>-1.42475876447652</v>
+        <v>-0.3858475333894402</v>
       </c>
       <c r="AD13">
-        <v>0.1032771789512334</v>
+        <v>0.3869762277823907</v>
       </c>
       <c r="AE13">
-        <v>0.1046043624243746</v>
+        <v>0.1123888281973966</v>
       </c>
       <c r="AF13">
-        <v>-0.001079852116532421</v>
+        <v>0.0003567977561026628</v>
       </c>
       <c r="AG13">
-        <v>-0.08891069909463244</v>
+        <v>-0.03975065355012346</v>
       </c>
       <c r="AH13">
-        <v>-0.04483559305590866</v>
+        <v>-0.054718202893412</v>
       </c>
       <c r="AI13">
-        <v>-0.0007937275175235861</v>
+        <v>-0.009256213053503919</v>
       </c>
       <c r="AJ13">
-        <v>-0.08392407191976942</v>
+        <v>-0.03469188037456204</v>
       </c>
       <c r="AK13">
-        <v>-8.749985999424739</v>
+        <v>-8.704333900784638</v>
       </c>
       <c r="AL13">
-        <v>-5.999998457866597</v>
+        <v>-5.999999075717432</v>
       </c>
       <c r="AM13">
-        <v>7658.41828346577</v>
+        <v>7648.392603601935</v>
       </c>
       <c r="AN13">
-        <v>7666.754588849349</v>
+        <v>7656.768120867349</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.2220575230963704</v>
+        <v>0.2234342844377289</v>
       </c>
       <c r="AQ13">
-        <v>127.5508650433712</v>
+        <v>128.3706828405675</v>
       </c>
       <c r="AR13">
-        <v>140.7175039248071</v>
+        <v>141.5783937968736</v>
       </c>
       <c r="AS13">
-        <v>1005.765730390169</v>
+        <v>1017.542458764879</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -2494,144 +2494,144 @@
         <v>5</v>
       </c>
       <c r="AX13">
-        <v>2597.8</v>
+        <v>2597.2</v>
       </c>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="1">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B14">
-        <v>25889</v>
+        <v>25883</v>
       </c>
       <c r="C14">
-        <v>7.679516317518301</v>
+        <v>7.86777402845225</v>
       </c>
       <c r="D14">
-        <v>2.250815640838126</v>
+        <v>2.250783602606984</v>
       </c>
       <c r="E14">
-        <v>0.553561140972144</v>
+        <v>-2.556387510417857</v>
       </c>
       <c r="F14">
-        <v>389.1555695833621</v>
+        <v>389.8903904276113</v>
       </c>
       <c r="G14">
-        <v>427.6637585573241</v>
+        <v>429.098165403266</v>
       </c>
       <c r="H14">
-        <v>423.3103060150102</v>
+        <v>423.3438883981235</v>
       </c>
       <c r="I14">
-        <v>426.5236426445884</v>
+        <v>426.4119662502592</v>
       </c>
       <c r="J14">
-        <v>79.28590072775889</v>
+        <v>79.28734893386576</v>
       </c>
       <c r="K14">
-        <v>78.30320162046547</v>
+        <v>78.29603337044198</v>
       </c>
       <c r="L14">
-        <v>62.94648935646268</v>
+        <v>62.95684031154397</v>
       </c>
       <c r="M14">
-        <v>75.81615729178954</v>
+        <v>75.81849932629376</v>
       </c>
       <c r="N14">
-        <v>62.97560036654145</v>
+        <v>62.99021490515878</v>
       </c>
       <c r="O14">
-        <v>76.26140067080662</v>
+        <v>76.27054384703342</v>
       </c>
       <c r="P14">
-        <v>348.635151372416</v>
+        <v>348.570240448983</v>
       </c>
       <c r="Q14">
-        <v>379.7598575230166</v>
+        <v>379.6884595075354</v>
       </c>
       <c r="R14">
-        <v>0.6914352404843823</v>
+        <v>0.7341554133672379</v>
       </c>
       <c r="S14">
-        <v>-0.7079664098333345</v>
+        <v>-0.7894483579063943</v>
       </c>
       <c r="T14">
-        <v>-0.1818905954223396</v>
+        <v>-0.1816823235795019</v>
       </c>
       <c r="U14">
         <v>120320</v>
       </c>
       <c r="V14">
-        <v>42159.08769502115</v>
+        <v>42158.48775081794</v>
       </c>
       <c r="W14">
-        <v>0.130136346741996</v>
+        <v>-0.4831021558757154</v>
       </c>
       <c r="X14">
-        <v>9.185148968997261</v>
+        <v>9.85894450785128</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>51.80778459575644</v>
+        <v>51.80778755642072</v>
       </c>
       <c r="AA14">
-        <v>5.386973996285118</v>
+        <v>5.386183449836302</v>
       </c>
       <c r="AB14">
-        <v>1.035651023852298</v>
+        <v>0.8038967891310604</v>
       </c>
       <c r="AC14">
-        <v>-1.520609856172181</v>
+        <v>-0.5903986437271215</v>
       </c>
       <c r="AD14">
-        <v>0.0479316826990076</v>
+        <v>0.3586199875185945</v>
       </c>
       <c r="AE14">
-        <v>0.1029358397474552</v>
+        <v>0.1114154032432983</v>
       </c>
       <c r="AF14">
-        <v>-0.00105182753162322</v>
+        <v>-0.0001111312028701366</v>
       </c>
       <c r="AG14">
-        <v>-0.09851287634886233</v>
+        <v>-0.04789989907757253</v>
       </c>
       <c r="AH14">
-        <v>-0.04260815299626959</v>
+        <v>-0.05349046622442066</v>
       </c>
       <c r="AI14">
-        <v>0.0008839593596745073</v>
+        <v>-0.008210566869452767</v>
       </c>
       <c r="AJ14">
-        <v>-0.09359395583408418</v>
+        <v>-0.04280646143437871</v>
       </c>
       <c r="AK14">
-        <v>-8.749966995532365</v>
+        <v>-8.726497053580061</v>
       </c>
       <c r="AL14">
-        <v>-5.999992564634404</v>
+        <v>-5.999997645208129</v>
       </c>
       <c r="AM14">
-        <v>7659.888406244891</v>
+        <v>7650.08067942736</v>
       </c>
       <c r="AN14">
-        <v>7668.217621608216</v>
+        <v>7658.555145502786</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.2218544016500906</v>
+        <v>0.2231641136685701</v>
       </c>
       <c r="AQ14">
-        <v>127.4286946493497</v>
+        <v>128.2117180882719</v>
       </c>
       <c r="AR14">
-        <v>140.5886266958173</v>
+        <v>141.4062096152301</v>
       </c>
       <c r="AS14">
-        <v>996.2576874977511</v>
+        <v>1019.86044396146</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -2646,144 +2646,144 @@
         <v>5</v>
       </c>
       <c r="AX14">
-        <v>2597.9</v>
+        <v>2597.3</v>
       </c>
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="1">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B15">
-        <v>25890</v>
+        <v>25884</v>
       </c>
       <c r="C15">
-        <v>7.6110951316489</v>
+        <v>7.865852772928231</v>
       </c>
       <c r="D15">
-        <v>2.250795583478301</v>
+        <v>2.250777355278991</v>
       </c>
       <c r="E15">
-        <v>0.5538257805464767</v>
+        <v>-0.7970315021698136</v>
       </c>
       <c r="F15">
-        <v>389.0894321224507</v>
+        <v>389.7796620706717</v>
       </c>
       <c r="G15">
-        <v>427.4870290607101</v>
+        <v>429.0174885384745</v>
       </c>
       <c r="H15">
-        <v>423.2973622269634</v>
+        <v>423.3392193151267</v>
       </c>
       <c r="I15">
-        <v>426.528271526201</v>
+        <v>426.4535691293939</v>
       </c>
       <c r="J15">
-        <v>79.28693566304509</v>
+        <v>79.28642197827519</v>
       </c>
       <c r="K15">
-        <v>78.30207259950024</v>
+        <v>78.29867754818163</v>
       </c>
       <c r="L15">
-        <v>62.94455363569184</v>
+        <v>62.95537683169377</v>
       </c>
       <c r="M15">
-        <v>75.81503330437197</v>
+        <v>75.81811473153451</v>
       </c>
       <c r="N15">
-        <v>62.97190137110011</v>
+        <v>62.98998664129697</v>
       </c>
       <c r="O15">
-        <v>76.25908794907942</v>
+        <v>76.27058954663971</v>
       </c>
       <c r="P15">
-        <v>348.6459594121972</v>
+        <v>348.5810676618183</v>
       </c>
       <c r="Q15">
-        <v>379.7717321627127</v>
+        <v>379.7003766599947</v>
       </c>
       <c r="R15">
-        <v>0.683400939684599</v>
+        <v>0.7282876700144363</v>
       </c>
       <c r="S15">
-        <v>-0.7016251757669104</v>
+        <v>-0.7502300648658561</v>
       </c>
       <c r="T15">
-        <v>-0.1818915326186001</v>
+        <v>-0.1818660967797233</v>
       </c>
       <c r="U15">
         <v>120320</v>
       </c>
       <c r="V15">
-        <v>42159.18769938286</v>
+        <v>42158.58773918012</v>
       </c>
       <c r="W15">
-        <v>0.2343453525535945</v>
+        <v>-0.3879572908210708</v>
       </c>
       <c r="X15">
-        <v>9.029727075972385</v>
+        <v>9.789291346909456</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>51.8077840887161</v>
+        <v>51.80778706987519</v>
       </c>
       <c r="AA15">
-        <v>5.387105390657559</v>
+        <v>5.38631538569934</v>
       </c>
       <c r="AB15">
-        <v>1.035812631322087</v>
+        <v>0.8828250492571212</v>
       </c>
       <c r="AC15">
-        <v>-1.595607909509006</v>
+        <v>-0.7984573965655187</v>
       </c>
       <c r="AD15">
-        <v>-0.004986992031666028</v>
+        <v>0.3195281425734253</v>
       </c>
       <c r="AE15">
-        <v>0.101231008904553</v>
+        <v>0.1102711954313692</v>
       </c>
       <c r="AF15">
-        <v>-0.00102866115864638</v>
+        <v>-0.0005351121139025922</v>
       </c>
       <c r="AG15">
-        <v>-0.1084505382995277</v>
+        <v>-0.05589481134768109</v>
       </c>
       <c r="AH15">
-        <v>-0.04027957488354493</v>
+        <v>-0.05212226464930986</v>
       </c>
       <c r="AI15">
-        <v>0.002507929366542575</v>
+        <v>-0.007012184731305544</v>
       </c>
       <c r="AJ15">
-        <v>-0.1036041019050225</v>
+        <v>-0.05079486063307983</v>
       </c>
       <c r="AK15">
-        <v>-8.749978657128233</v>
+        <v>-8.739943431256844</v>
       </c>
       <c r="AL15">
-        <v>-5.999990430521721</v>
+        <v>-5.999998674529567</v>
       </c>
       <c r="AM15">
-        <v>7661.344661502758</v>
+        <v>7651.806870488807</v>
       </c>
       <c r="AN15">
-        <v>7669.63882786762</v>
+        <v>7660.309979002907</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.2216605371774656</v>
+        <v>0.2229163891314728</v>
       </c>
       <c r="AQ15">
-        <v>127.312138425135</v>
+        <v>128.0646300358561</v>
       </c>
       <c r="AR15">
-        <v>140.4641260737563</v>
+        <v>141.2503098542668</v>
       </c>
       <c r="AS15">
-        <v>984.8228382430863</v>
+        <v>1021.15072616588</v>
       </c>
       <c r="AT15">
         <v>0</v>
@@ -2798,144 +2798,144 @@
         <v>5</v>
       </c>
       <c r="AX15">
-        <v>2598</v>
+        <v>2597.4</v>
       </c>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="1">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B16">
-        <v>25891</v>
+        <v>25885</v>
       </c>
       <c r="C16">
-        <v>7.536337737454364</v>
+        <v>7.851821852618948</v>
       </c>
       <c r="D16">
-        <v>2.250775112889147</v>
+        <v>2.250788665153907</v>
       </c>
       <c r="E16">
-        <v>0.5583045504578699</v>
+        <v>0.08804317595157264</v>
       </c>
       <c r="F16">
-        <v>389.0801714348897</v>
+        <v>389.6630758282182</v>
       </c>
       <c r="G16">
-        <v>427.4480027394218</v>
+        <v>428.8446374012969</v>
       </c>
       <c r="H16">
-        <v>423.2846530860193</v>
+        <v>423.3330719920178</v>
       </c>
       <c r="I16">
-        <v>426.5426822723164</v>
+        <v>426.4873814714525</v>
       </c>
       <c r="J16">
-        <v>79.28804805525007</v>
+        <v>79.28551281643013</v>
       </c>
       <c r="K16">
-        <v>78.30067407669182</v>
+        <v>78.30118654440351</v>
       </c>
       <c r="L16">
-        <v>62.94325910547713</v>
+        <v>62.95391877900727</v>
       </c>
       <c r="M16">
-        <v>75.81422380559216</v>
+        <v>75.81799233763702</v>
       </c>
       <c r="N16">
-        <v>62.96932603903353</v>
+        <v>62.98848951286813</v>
       </c>
       <c r="O16">
-        <v>76.25768179839646</v>
+        <v>76.26986509154521</v>
       </c>
       <c r="P16">
-        <v>348.656767194737</v>
+        <v>348.5918916361469</v>
       </c>
       <c r="Q16">
-        <v>379.7836057183444</v>
+        <v>379.7122890110336</v>
       </c>
       <c r="R16">
-        <v>0.6766554035374936</v>
+        <v>0.7223234941986799</v>
       </c>
       <c r="S16">
-        <v>-0.6952346367789756</v>
+        <v>-0.7317661622338396</v>
       </c>
       <c r="T16">
-        <v>-0.1818935815476895</v>
+        <v>-0.1819065848207636</v>
       </c>
       <c r="U16">
         <v>120320</v>
       </c>
       <c r="V16">
-        <v>42159.28770374457</v>
+        <v>42158.68772754228</v>
       </c>
       <c r="W16">
-        <v>0.3358529097982562</v>
+        <v>-0.287797431200051</v>
       </c>
       <c r="X16">
-        <v>8.868043271946199</v>
+        <v>9.699601371470287</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>51.8077835792193</v>
+        <v>51.80778658202343</v>
       </c>
       <c r="AA16">
-        <v>5.387236717119112</v>
+        <v>5.386447290455547</v>
       </c>
       <c r="AB16">
-        <v>1.017610023405818</v>
+        <v>0.9379707048899316</v>
       </c>
       <c r="AC16">
-        <v>-1.651119912425003</v>
+        <v>-0.9924360486351328</v>
       </c>
       <c r="AD16">
-        <v>-0.05513429951049143</v>
+        <v>0.2714694285283076</v>
       </c>
       <c r="AE16">
-        <v>0.09956438261293817</v>
+        <v>0.1090065602679798</v>
       </c>
       <c r="AF16">
-        <v>-0.001011214508177498</v>
+        <v>-0.0008522134564269521</v>
       </c>
       <c r="AG16">
-        <v>-0.1182881756929779</v>
+        <v>-0.06372087399505474</v>
       </c>
       <c r="AH16">
-        <v>-0.03788315454691835</v>
+        <v>-0.0505832887701717</v>
       </c>
       <c r="AI16">
-        <v>0.004054135751593288</v>
+        <v>-0.005647980672757522</v>
       </c>
       <c r="AJ16">
-        <v>-0.1134989252206299</v>
+        <v>-0.05863159654062031</v>
       </c>
       <c r="AK16">
-        <v>-8.750000414692366</v>
+        <v>-8.74664525859224</v>
       </c>
       <c r="AL16">
-        <v>-6.000001055329745</v>
+        <v>-6.000000568087554</v>
       </c>
       <c r="AM16">
-        <v>7662.820889558259</v>
+        <v>7653.548794575287</v>
       </c>
       <c r="AN16">
-        <v>7671.046469169154</v>
+        <v>7662.011604275009</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.2214810402345991</v>
+        <v>0.2226887546418936</v>
       </c>
       <c r="AQ16">
-        <v>127.2043022159289</v>
+        <v>127.9288315247321</v>
       </c>
       <c r="AR16">
-        <v>140.3482453810698</v>
+        <v>141.1088725832039</v>
       </c>
       <c r="AS16">
-        <v>971.8832030463071</v>
+        <v>1020.68039429511</v>
       </c>
       <c r="AT16">
         <v>0</v>
@@ -2950,144 +2950,144 @@
         <v>5</v>
       </c>
       <c r="AX16">
-        <v>2598.1</v>
+        <v>2597.5</v>
       </c>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="1">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B17">
-        <v>25892</v>
+        <v>25886</v>
       </c>
       <c r="C17">
-        <v>7.458120550758883</v>
+        <v>7.825842547146153</v>
       </c>
       <c r="D17">
-        <v>2.250745318402334</v>
+        <v>2.250811089371396</v>
       </c>
       <c r="E17">
-        <v>0.5656332236629791</v>
+        <v>0.4399162291855651</v>
       </c>
       <c r="F17">
-        <v>389.1326363191097</v>
+        <v>389.534262026132</v>
       </c>
       <c r="G17">
-        <v>427.5452704845588</v>
+        <v>428.587223984363</v>
       </c>
       <c r="H17">
-        <v>423.2807501046631</v>
+        <v>423.3277547540526</v>
       </c>
       <c r="I17">
-        <v>426.5623083307348</v>
+        <v>426.5107304958466</v>
       </c>
       <c r="J17">
-        <v>79.2888688130537</v>
+        <v>79.28494429171518</v>
       </c>
       <c r="K17">
-        <v>78.29955057860623</v>
+        <v>78.30293792294165</v>
       </c>
       <c r="L17">
-        <v>62.94302317585806</v>
+        <v>62.95236023175726</v>
       </c>
       <c r="M17">
-        <v>75.8142479357651</v>
+        <v>75.81795418780752</v>
       </c>
       <c r="N17">
-        <v>62.96829515360643</v>
+        <v>62.98617874217932</v>
       </c>
       <c r="O17">
-        <v>76.25742665016159</v>
+        <v>76.26849637913089</v>
       </c>
       <c r="P17">
-        <v>348.6675764346348</v>
+        <v>348.6027120323143</v>
       </c>
       <c r="Q17">
-        <v>379.7954819758579</v>
+        <v>379.7241942116999</v>
       </c>
       <c r="R17">
-        <v>0.6710223219431205</v>
+        <v>0.7158717298396955</v>
       </c>
       <c r="S17">
-        <v>-0.6888839140518743</v>
+        <v>-0.7237392755239398</v>
       </c>
       <c r="T17">
-        <v>-0.1818992735120326</v>
+        <v>-0.1818991454062307</v>
       </c>
       <c r="U17">
         <v>120320</v>
       </c>
       <c r="V17">
-        <v>42159.38770810629</v>
+        <v>42158.78771590445</v>
       </c>
       <c r="W17">
-        <v>0.4327186628438585</v>
+        <v>-0.1847911370107813</v>
       </c>
       <c r="X17">
-        <v>8.702060649061684</v>
+        <v>9.591860226435143</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>51.80778306848573</v>
+        <v>51.80778609166984</v>
       </c>
       <c r="AA17">
-        <v>5.387368008310273</v>
+        <v>5.386579132922291</v>
       </c>
       <c r="AB17">
-        <v>0.9791517969040169</v>
+        <v>0.9753718888080677</v>
       </c>
       <c r="AC17">
-        <v>-1.688500464539249</v>
+        <v>-1.16254960353338</v>
       </c>
       <c r="AD17">
-        <v>-0.1020472594561935</v>
+        <v>0.2172957934169074</v>
       </c>
       <c r="AE17">
-        <v>0.09800450231923985</v>
+        <v>0.1076447133348408</v>
       </c>
       <c r="AF17">
-        <v>-0.0009894956630794541</v>
+        <v>-0.001030891796278419</v>
       </c>
       <c r="AG17">
-        <v>-0.1276401457948153</v>
+        <v>-0.07162359562670462</v>
       </c>
       <c r="AH17">
-        <v>-0.03544421539476743</v>
+        <v>-0.048850937610906</v>
       </c>
       <c r="AI17">
-        <v>0.005507876243055074</v>
+        <v>-0.004124437572348699</v>
       </c>
       <c r="AJ17">
-        <v>-0.1228799525615347</v>
+        <v>-0.06655490026860487</v>
       </c>
       <c r="AK17">
-        <v>-8.750009729322853</v>
+        <v>-8.749240563466733</v>
       </c>
       <c r="AL17">
-        <v>-6.000023179548215</v>
+        <v>-6.000002124596473</v>
       </c>
       <c r="AM17">
-        <v>7664.316089157088</v>
+        <v>7655.257135554765</v>
       </c>
       <c r="AN17">
-        <v>7672.465838009457</v>
+        <v>7663.653046201288</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.2213174277614354</v>
+        <v>0.2224739138641467</v>
       </c>
       <c r="AQ17">
-        <v>127.1060168675656</v>
+        <v>127.8004773756728</v>
       </c>
       <c r="AR17">
-        <v>140.2431454769877</v>
+        <v>140.9763687819617</v>
       </c>
       <c r="AS17">
-        <v>957.9644747983074</v>
+        <v>1018.044722056685</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -3102,144 +3102,144 @@
         <v>5</v>
       </c>
       <c r="AX17">
-        <v>2598.2</v>
+        <v>2597.6</v>
       </c>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="1">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B18">
-        <v>25893</v>
+        <v>25887</v>
       </c>
       <c r="C18">
-        <v>7.379025253565278</v>
+        <v>7.788147971803323</v>
       </c>
       <c r="D18">
-        <v>2.250704134275737</v>
+        <v>2.250829455413265</v>
       </c>
       <c r="E18">
-        <v>0.5746164227362988</v>
+        <v>0.5408905483076123</v>
       </c>
       <c r="F18">
-        <v>389.2343539925934</v>
+        <v>389.396583419391</v>
       </c>
       <c r="G18">
-        <v>427.7405414862466</v>
+        <v>428.2715068529875</v>
       </c>
       <c r="H18">
-        <v>423.2929956563707</v>
+        <v>423.3237231229979</v>
       </c>
       <c r="I18">
-        <v>426.5762281305973</v>
+        <v>426.5224109126216</v>
       </c>
       <c r="J18">
-        <v>79.28906121343711</v>
+        <v>79.28483545574652</v>
       </c>
       <c r="K18">
-        <v>78.29926126645077</v>
+        <v>78.30376867594407</v>
       </c>
       <c r="L18">
-        <v>62.9439345835109</v>
+        <v>62.95059829906337</v>
       </c>
       <c r="M18">
-        <v>75.81530373333321</v>
+        <v>75.81772758456003</v>
       </c>
       <c r="N18">
-        <v>62.96862311278649</v>
+        <v>62.98322209970753</v>
       </c>
       <c r="O18">
-        <v>76.2582015698957</v>
+        <v>76.26653789509814</v>
       </c>
       <c r="P18">
-        <v>348.6783885000235</v>
+        <v>348.613528604076</v>
       </c>
       <c r="Q18">
-        <v>379.8073636575658</v>
+        <v>379.7360906424458</v>
       </c>
       <c r="R18">
-        <v>0.6657683130087573</v>
+        <v>0.7084887479890455</v>
       </c>
       <c r="S18">
-        <v>-0.6824429920640178</v>
+        <v>-0.7188777692505313</v>
       </c>
       <c r="T18">
-        <v>-0.1819046904896534</v>
+        <v>-0.1818902684164529</v>
       </c>
       <c r="U18">
         <v>120320</v>
       </c>
       <c r="V18">
-        <v>42159.487712468</v>
+        <v>42158.88770426661</v>
       </c>
       <c r="W18">
-        <v>0.5232003842141192</v>
+        <v>-0.08030955619858855</v>
       </c>
       <c r="X18">
-        <v>8.533554897438643</v>
+        <v>9.468547521043634</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>51.80778255695681</v>
+        <v>51.80778559761732</v>
       </c>
       <c r="AA18">
-        <v>5.387499284543787</v>
+        <v>5.386710877480391</v>
       </c>
       <c r="AB18">
-        <v>0.9231915103866906</v>
+        <v>1.00217743632395</v>
       </c>
       <c r="AC18">
-        <v>-1.709387135816457</v>
+        <v>-1.306190992918024</v>
       </c>
       <c r="AD18">
-        <v>-0.1448586359933262</v>
+        <v>0.1603012556812562</v>
       </c>
       <c r="AE18">
-        <v>0.09660402642834523</v>
+        <v>0.1061803395222423</v>
       </c>
       <c r="AF18">
-        <v>-0.0009463060115107468</v>
+        <v>-0.001089343269452059</v>
       </c>
       <c r="AG18">
-        <v>-0.1362839294717262</v>
+        <v>-0.07994089675580612</v>
       </c>
       <c r="AH18">
-        <v>-0.03297064480092002</v>
+        <v>-0.04692733848444564</v>
       </c>
       <c r="AI18">
-        <v>0.006865331601377521</v>
+        <v>-0.002484022611853852</v>
       </c>
       <c r="AJ18">
-        <v>-0.1315268550588259</v>
+        <v>-0.07490434128487861</v>
       </c>
       <c r="AK18">
-        <v>-8.750006932778518</v>
+        <v>-8.749921412665136</v>
       </c>
       <c r="AL18">
-        <v>-6.000032471733668</v>
+        <v>-6.000001925481756</v>
       </c>
       <c r="AM18">
-        <v>7665.802005439167</v>
+        <v>7656.884587618476</v>
       </c>
       <c r="AN18">
-        <v>7673.899962927643</v>
+        <v>7665.234119977893</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.22116704354998</v>
+        <v>0.2222646216640644</v>
       </c>
       <c r="AQ18">
-        <v>127.0158917397148</v>
+        <v>127.6752038952016</v>
       </c>
       <c r="AR18">
-        <v>140.1482352389495</v>
+        <v>140.8469847138067</v>
       </c>
       <c r="AS18">
-        <v>943.5367122864436</v>
+        <v>1013.07361705489</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -3254,144 +3254,144 @@
         <v>5</v>
       </c>
       <c r="AX18">
-        <v>2598.3</v>
+        <v>2597.7</v>
       </c>
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="1">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B19">
-        <v>25894</v>
+        <v>25888</v>
       </c>
       <c r="C19">
-        <v>7.300896928437474</v>
+        <v>7.739093008732888</v>
       </c>
       <c r="D19">
-        <v>2.250676615518049</v>
+        <v>2.250830749042291</v>
       </c>
       <c r="E19">
-        <v>0.5843295298270198</v>
+        <v>0.5556609813492038</v>
       </c>
       <c r="F19">
-        <v>389.3531992233403</v>
+        <v>389.2640906577207</v>
       </c>
       <c r="G19">
-        <v>427.9731349321587</v>
+        <v>427.9439419917587</v>
       </c>
       <c r="H19">
-        <v>423.3218558907387</v>
+        <v>423.3189122692812</v>
       </c>
       <c r="I19">
-        <v>426.5752536196719</v>
+        <v>426.524522655632</v>
       </c>
       <c r="J19">
-        <v>79.28858892749408</v>
+        <v>79.28517006031574</v>
       </c>
       <c r="K19">
-        <v>78.29986972796719</v>
+        <v>78.30380378724939</v>
       </c>
       <c r="L19">
-        <v>62.94561678054339</v>
+        <v>62.94860488934314</v>
       </c>
       <c r="M19">
-        <v>75.81704440894001</v>
+        <v>75.81713028953153</v>
       </c>
       <c r="N19">
-        <v>62.96973882739402</v>
+        <v>62.97960880282631</v>
       </c>
       <c r="O19">
-        <v>76.2596626017438</v>
+        <v>76.2640703006564</v>
       </c>
       <c r="P19">
-        <v>348.6892038666685</v>
+        <v>348.6243414954831</v>
       </c>
       <c r="Q19">
-        <v>379.8192518002028</v>
+        <v>379.7479779741678</v>
       </c>
       <c r="R19">
-        <v>0.660215516979956</v>
+        <v>0.7001304178117522</v>
       </c>
       <c r="S19">
-        <v>-0.6758725589638768</v>
+        <v>-0.7138451853917904</v>
       </c>
       <c r="T19">
-        <v>-0.181897944891627</v>
+        <v>-0.1818890366424951</v>
       </c>
       <c r="U19">
         <v>120320</v>
       </c>
       <c r="V19">
-        <v>42159.58771682972</v>
+        <v>42158.98769262878</v>
       </c>
       <c r="W19">
-        <v>0.6061063816151041</v>
+        <v>0.02488829389598241</v>
       </c>
       <c r="X19">
-        <v>8.364114814051206</v>
+        <v>9.33217816074767</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>51.80778204368541</v>
+        <v>51.80778509900121</v>
       </c>
       <c r="AA19">
-        <v>5.387630550396201</v>
+        <v>5.386842499231122</v>
       </c>
       <c r="AB19">
-        <v>0.8557281298105383</v>
+        <v>1.022649065795306</v>
       </c>
       <c r="AC19">
-        <v>-1.71578410655194</v>
+        <v>-1.42475876447652</v>
       </c>
       <c r="AD19">
-        <v>-0.1822374147620221</v>
+        <v>0.1032771789512334</v>
       </c>
       <c r="AE19">
-        <v>0.09540074703770506</v>
+        <v>0.1046043624243746</v>
       </c>
       <c r="AF19">
-        <v>-0.000857618045048951</v>
+        <v>-0.001079852116532421</v>
       </c>
       <c r="AG19">
-        <v>-0.144146614395279</v>
+        <v>-0.08891069909463244</v>
       </c>
       <c r="AH19">
-        <v>-0.03045289425008653</v>
+        <v>-0.04483559305590866</v>
       </c>
       <c r="AI19">
-        <v>0.008137068258145622</v>
+        <v>-0.0007937275175235861</v>
       </c>
       <c r="AJ19">
-        <v>-0.1393779983166546</v>
+        <v>-0.08392407191976942</v>
       </c>
       <c r="AK19">
-        <v>-8.75000120600432</v>
+        <v>-8.749985999424739</v>
       </c>
       <c r="AL19">
-        <v>-6.000012572824355</v>
+        <v>-5.999998457866597</v>
       </c>
       <c r="AM19">
-        <v>7667.246174495946</v>
+        <v>7658.41828346577</v>
       </c>
       <c r="AN19">
-        <v>7675.326086621533</v>
+        <v>7666.754588849349</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.2210260578930515</v>
+        <v>0.2220575230963704</v>
       </c>
       <c r="AQ19">
-        <v>126.9320889447786</v>
+        <v>127.5508650433712</v>
       </c>
       <c r="AR19">
-        <v>140.0616453664018</v>
+        <v>140.7175039248071</v>
       </c>
       <c r="AS19">
-        <v>928.7966604037997</v>
+        <v>1005.765730390169</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -3406,144 +3406,144 @@
         <v>5</v>
       </c>
       <c r="AX19">
-        <v>2598.4</v>
+        <v>2597.8</v>
       </c>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="1">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B20">
-        <v>25895</v>
+        <v>25889</v>
       </c>
       <c r="C20">
-        <v>7.224919702064621</v>
+        <v>7.679516317518301</v>
       </c>
       <c r="D20">
-        <v>2.250703710066511</v>
+        <v>2.250815640838126</v>
       </c>
       <c r="E20">
-        <v>0.5940247197206466</v>
+        <v>0.553561140972144</v>
       </c>
       <c r="F20">
-        <v>389.4478826751308</v>
+        <v>389.1555695833621</v>
       </c>
       <c r="G20">
-        <v>428.1837473382995</v>
+        <v>427.6637585573241</v>
       </c>
       <c r="H20">
-        <v>423.3594506998551</v>
+        <v>423.3103060150102</v>
       </c>
       <c r="I20">
-        <v>426.558438977634</v>
+        <v>426.5236426445884</v>
       </c>
       <c r="J20">
-        <v>79.28782244172801</v>
+        <v>79.28590072775889</v>
       </c>
       <c r="K20">
-        <v>78.30076593359642</v>
+        <v>78.30320162046547</v>
       </c>
       <c r="L20">
-        <v>62.94737497108171</v>
+        <v>62.94648935646268</v>
       </c>
       <c r="M20">
-        <v>75.81876965627744</v>
+        <v>75.81615729178954</v>
       </c>
       <c r="N20">
-        <v>62.97109342554045</v>
+        <v>62.97560036654145</v>
       </c>
       <c r="O20">
-        <v>76.26142669091396</v>
+        <v>76.26140067080662</v>
       </c>
       <c r="P20">
-        <v>348.7000218634095</v>
+        <v>348.635151372416</v>
       </c>
       <c r="Q20">
-        <v>379.8311457931845</v>
+        <v>379.7598575230166</v>
       </c>
       <c r="R20">
-        <v>0.6541482459429255</v>
+        <v>0.6914352404843823</v>
       </c>
       <c r="S20">
-        <v>-0.6694602983517514</v>
+        <v>-0.7079664098333345</v>
       </c>
       <c r="T20">
-        <v>-0.1818777295043112</v>
+        <v>-0.1818905954223396</v>
       </c>
       <c r="U20">
         <v>120320</v>
       </c>
       <c r="V20">
-        <v>42159.68772119143</v>
+        <v>42159.08769502115</v>
       </c>
       <c r="W20">
-        <v>0.6809358233664593</v>
+        <v>0.130136346741996</v>
       </c>
       <c r="X20">
-        <v>8.195119714311881</v>
+        <v>9.185148968997261</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>51.80778152593694</v>
+        <v>51.80778459575644</v>
       </c>
       <c r="AA20">
-        <v>5.387761795873151</v>
+        <v>5.386973996285118</v>
       </c>
       <c r="AB20">
-        <v>0.7839134661969341</v>
+        <v>1.035651023852298</v>
       </c>
       <c r="AC20">
-        <v>-1.710099967248997</v>
+        <v>-1.520609856172181</v>
       </c>
       <c r="AD20">
-        <v>-0.2125458959260335</v>
+        <v>0.0479316826990076</v>
       </c>
       <c r="AE20">
-        <v>0.09441759425958017</v>
+        <v>0.1029358397474552</v>
       </c>
       <c r="AF20">
-        <v>-0.0006993907529214819</v>
+        <v>-0.00105182753162322</v>
       </c>
       <c r="AG20">
-        <v>-0.1511958592767524</v>
+        <v>-0.09851287634886233</v>
       </c>
       <c r="AH20">
-        <v>-0.02788082850465462</v>
+        <v>-0.04260815299626959</v>
       </c>
       <c r="AI20">
-        <v>0.009344007599185444</v>
+        <v>0.0008839593596745073</v>
       </c>
       <c r="AJ20">
-        <v>-0.1464111594145087</v>
+        <v>-0.09359395583408418</v>
       </c>
       <c r="AK20">
-        <v>-8.749998222626822</v>
+        <v>-8.749966995532365</v>
       </c>
       <c r="AL20">
-        <v>-6.000099933404561</v>
+        <v>-5.999992564634404</v>
       </c>
       <c r="AM20">
-        <v>7668.631875577314</v>
+        <v>7659.888406244891</v>
       </c>
       <c r="AN20">
-        <v>7676.712139817465</v>
+        <v>7668.217621608216</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.2208936891880016</v>
+        <v>0.2218544016500906</v>
       </c>
       <c r="AQ20">
-        <v>126.8542352588419</v>
+        <v>127.4286946493497</v>
       </c>
       <c r="AR20">
-        <v>139.9824492217817</v>
+        <v>140.5886266958173</v>
       </c>
       <c r="AS20">
-        <v>913.5518694630574</v>
+        <v>996.2576874977511</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -3558,144 +3558,144 @@
         <v>5</v>
       </c>
       <c r="AX20">
-        <v>2598.5</v>
+        <v>2597.9</v>
       </c>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="1">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B21">
-        <v>25896</v>
+        <v>25890</v>
       </c>
       <c r="C21">
-        <v>7.152161418421161</v>
+        <v>7.6110951316489</v>
       </c>
       <c r="D21">
-        <v>2.250805872417207</v>
+        <v>2.250795583478301</v>
       </c>
       <c r="E21">
-        <v>0.6031314810376083</v>
+        <v>0.5538257805464767</v>
       </c>
       <c r="F21">
-        <v>389.4873298190541</v>
+        <v>389.0894321224507</v>
       </c>
       <c r="G21">
-        <v>428.3364557046098</v>
+        <v>427.4870290607101</v>
       </c>
       <c r="H21">
-        <v>423.3934889994791</v>
+        <v>423.2973622269634</v>
       </c>
       <c r="I21">
-        <v>426.5329091427465</v>
+        <v>426.528271526201</v>
       </c>
       <c r="J21">
-        <v>79.28730686109722</v>
+        <v>79.28693566304509</v>
       </c>
       <c r="K21">
-        <v>78.30113452475888</v>
+        <v>78.30207259950024</v>
       </c>
       <c r="L21">
-        <v>62.94851783419244</v>
+        <v>62.94455363569184</v>
       </c>
       <c r="M21">
-        <v>75.81985098851375</v>
+        <v>75.81503330437197</v>
       </c>
       <c r="N21">
-        <v>62.97243348353657</v>
+        <v>62.97190137110011</v>
       </c>
       <c r="O21">
-        <v>76.26323166293416</v>
+        <v>76.25908794907942</v>
       </c>
       <c r="P21">
-        <v>348.7108409559045</v>
+        <v>348.6459594121972</v>
       </c>
       <c r="Q21">
-        <v>379.8430440280652</v>
+        <v>379.7717321627127</v>
       </c>
       <c r="R21">
-        <v>0.647807485474829</v>
+        <v>0.683400939684599</v>
       </c>
       <c r="S21">
-        <v>-0.6637755695246612</v>
+        <v>-0.7016251757669104</v>
       </c>
       <c r="T21">
-        <v>-0.1819029018779679</v>
+        <v>-0.1818915326186001</v>
       </c>
       <c r="U21">
         <v>120320</v>
       </c>
       <c r="V21">
-        <v>42159.78772555314</v>
+        <v>42159.18769938286</v>
       </c>
       <c r="W21">
-        <v>0.7478516245610924</v>
+        <v>0.2343453525535945</v>
       </c>
       <c r="X21">
-        <v>8.027668081160234</v>
+        <v>9.029727075972385</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>51.80778099936519</v>
+        <v>51.8077840887161</v>
       </c>
       <c r="AA21">
-        <v>5.387893000545904</v>
+        <v>5.387105390657559</v>
       </c>
       <c r="AB21">
-        <v>0.7139420051407434</v>
+        <v>1.035812631322087</v>
       </c>
       <c r="AC21">
-        <v>-1.695100626692681</v>
+        <v>-1.595607909509006</v>
       </c>
       <c r="AD21">
-        <v>-0.234203543923383</v>
+        <v>-0.004986992031666028</v>
       </c>
       <c r="AE21">
-        <v>0.09366047377697136</v>
+        <v>0.101231008904553</v>
       </c>
       <c r="AF21">
-        <v>-0.0004623547855853951</v>
+        <v>-0.00102866115864638</v>
       </c>
       <c r="AG21">
-        <v>-0.1573292610244905</v>
+        <v>-0.1084505382995277</v>
       </c>
       <c r="AH21">
-        <v>-0.02526464685083015</v>
+        <v>-0.04027957488354493</v>
       </c>
       <c r="AI21">
-        <v>0.01050422973429045</v>
+        <v>0.002507929366542575</v>
       </c>
       <c r="AJ21">
-        <v>-0.1525289229342458</v>
+        <v>-0.1036041019050225</v>
       </c>
       <c r="AK21">
-        <v>-8.749998256406606</v>
+        <v>-8.749978657128233</v>
       </c>
       <c r="AL21">
-        <v>-6.000878553203187</v>
+        <v>-5.999990430521721</v>
       </c>
       <c r="AM21">
-        <v>7669.961956701096</v>
+        <v>7661.344661502758</v>
       </c>
       <c r="AN21">
-        <v>7678.038408565126</v>
+        <v>7669.63882786762</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.2207737995216727</v>
+        <v>0.2216605371774656</v>
       </c>
       <c r="AQ21">
-        <v>126.7838990572352</v>
+        <v>127.312138425135</v>
       </c>
       <c r="AR21">
-        <v>139.9118587894122</v>
+        <v>140.4641260737563</v>
       </c>
       <c r="AS21">
-        <v>897.3102956339367</v>
+        <v>984.8228382430863</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -3710,144 +3710,144 @@
         <v>5</v>
       </c>
       <c r="AX21">
-        <v>2598.6</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="1">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B22">
-        <v>25897</v>
+        <v>25891</v>
       </c>
       <c r="C22">
-        <v>7.084162849387755</v>
+        <v>7.536337737454364</v>
       </c>
       <c r="D22">
-        <v>2.250957583530812</v>
+        <v>2.250775112889147</v>
       </c>
       <c r="E22">
-        <v>0.6111356678799216</v>
+        <v>0.5583045504578699</v>
       </c>
       <c r="F22">
-        <v>389.4636696056331</v>
+        <v>389.0801714348897</v>
       </c>
       <c r="G22">
-        <v>428.4302782349952</v>
+        <v>427.4480027394218</v>
       </c>
       <c r="H22">
-        <v>423.4138198736929</v>
+        <v>423.2846530860193</v>
       </c>
       <c r="I22">
-        <v>426.5079115358203</v>
+        <v>426.5426822723164</v>
       </c>
       <c r="J22">
-        <v>79.28735892225617</v>
+        <v>79.28804805525007</v>
       </c>
       <c r="K22">
-        <v>78.3006783104679</v>
+        <v>78.30067407669182</v>
       </c>
       <c r="L22">
-        <v>62.94862418611255</v>
+        <v>62.94325910547713</v>
       </c>
       <c r="M22">
-        <v>75.820029836424</v>
+        <v>75.81422380559216</v>
       </c>
       <c r="N22">
-        <v>62.97381903230772</v>
+        <v>62.96932603903353</v>
       </c>
       <c r="O22">
-        <v>76.26501480242585</v>
+        <v>76.25768179839646</v>
       </c>
       <c r="P22">
-        <v>348.7216593911713</v>
+        <v>348.656767194737</v>
       </c>
       <c r="Q22">
-        <v>379.8549448691272</v>
+        <v>379.7836057183444</v>
       </c>
       <c r="R22">
-        <v>0.6416999612675984</v>
+        <v>0.6766554035374936</v>
       </c>
       <c r="S22">
-        <v>-0.6593757053783785</v>
+        <v>-0.6952346367789756</v>
       </c>
       <c r="T22">
-        <v>-0.1821567338353607</v>
+        <v>-0.1818935815476895</v>
       </c>
       <c r="U22">
         <v>120320</v>
       </c>
       <c r="V22">
-        <v>42159.88772991486</v>
+        <v>42159.28770374457</v>
       </c>
       <c r="W22">
-        <v>0.8074912973924507</v>
+        <v>0.3358529097982562</v>
       </c>
       <c r="X22">
-        <v>7.862490579708983</v>
+        <v>8.868043271946199</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>51.80778045917211</v>
+        <v>51.8077835792193</v>
       </c>
       <c r="AA22">
-        <v>5.388024141026067</v>
+        <v>5.387236717119112</v>
       </c>
       <c r="AB22">
-        <v>0.64893772422812</v>
+        <v>1.017610023405818</v>
       </c>
       <c r="AC22">
-        <v>-1.673731086009771</v>
+        <v>-1.651119912425003</v>
       </c>
       <c r="AD22">
-        <v>-0.2461589438479782</v>
+        <v>-0.05513429951049143</v>
       </c>
       <c r="AE22">
-        <v>0.09311868812737775</v>
+        <v>0.09956438261293817</v>
       </c>
       <c r="AF22">
-        <v>-0.0001626552376751823</v>
+        <v>-0.001011214508177498</v>
       </c>
       <c r="AG22">
-        <v>-0.1623660429852895</v>
+        <v>-0.1182881756929779</v>
       </c>
       <c r="AH22">
-        <v>-0.02263928330781611</v>
+        <v>-0.03788315454691835</v>
       </c>
       <c r="AI22">
-        <v>0.01161989582200425</v>
+        <v>0.004054135751593288</v>
       </c>
       <c r="AJ22">
-        <v>-0.1575528705408328</v>
+        <v>-0.1134989252206299</v>
       </c>
       <c r="AK22">
-        <v>-8.749999376971299</v>
+        <v>-8.750000414692366</v>
       </c>
       <c r="AL22">
-        <v>-6.003722012851194</v>
+        <v>-6.000001055329745</v>
       </c>
       <c r="AM22">
-        <v>7671.247053107464</v>
+        <v>7662.820889558259</v>
       </c>
       <c r="AN22">
-        <v>7679.306360129475</v>
+        <v>7671.046469169154</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.2206724035539956</v>
+        <v>0.2214810402345991</v>
       </c>
       <c r="AQ22">
-        <v>126.7235501522728</v>
+        <v>127.2043022159289</v>
       </c>
       <c r="AR22">
-        <v>139.852699665185</v>
+        <v>140.3482453810698</v>
       </c>
       <c r="AS22">
-        <v>879.5159948379576</v>
+        <v>971.8832030463071</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -3862,144 +3862,144 @@
         <v>5</v>
       </c>
       <c r="AX22">
-        <v>2598.7</v>
+        <v>2598.1</v>
       </c>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="1">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B23">
-        <v>25898</v>
+        <v>25892</v>
       </c>
       <c r="C23">
-        <v>7.022998014958596</v>
+        <v>7.458120550758883</v>
       </c>
       <c r="D23">
-        <v>2.251098285608436</v>
+        <v>2.250745318402334</v>
       </c>
       <c r="E23">
-        <v>0.6174840908053698</v>
+        <v>0.5656332236629791</v>
       </c>
       <c r="F23">
-        <v>389.3897724469595</v>
+        <v>389.1326363191097</v>
       </c>
       <c r="G23">
-        <v>428.4946282904258</v>
+        <v>427.5452704845588</v>
       </c>
       <c r="H23">
-        <v>423.417602616212</v>
+        <v>423.2807501046631</v>
       </c>
       <c r="I23">
-        <v>426.4880891001137</v>
+        <v>426.5623083307348</v>
       </c>
       <c r="J23">
-        <v>79.2878486121561</v>
+        <v>79.2888688130537</v>
       </c>
       <c r="K23">
-        <v>78.29988347502223</v>
+        <v>78.29955057860623</v>
       </c>
       <c r="L23">
-        <v>62.94764922450336</v>
+        <v>62.94302317585806</v>
       </c>
       <c r="M23">
-        <v>75.81943835605834</v>
+        <v>75.8142479357651</v>
       </c>
       <c r="N23">
-        <v>62.97544633255198</v>
+        <v>62.96829515360643</v>
       </c>
       <c r="O23">
-        <v>76.26680529746621</v>
+        <v>76.25742665016159</v>
       </c>
       <c r="P23">
-        <v>348.7324757737392</v>
+        <v>348.6675764346348</v>
       </c>
       <c r="Q23">
-        <v>379.8668474976909</v>
+        <v>379.7954819758579</v>
       </c>
       <c r="R23">
-        <v>0.6364180677105286</v>
+        <v>0.6710223219431205</v>
       </c>
       <c r="S23">
-        <v>-0.6564982700274372</v>
+        <v>-0.6888839140518743</v>
       </c>
       <c r="T23">
-        <v>-0.182962332113168</v>
+        <v>-0.1818992735120326</v>
       </c>
       <c r="U23">
         <v>120320</v>
       </c>
       <c r="V23">
-        <v>42159.98773427658</v>
+        <v>42159.38770810629</v>
       </c>
       <c r="W23">
-        <v>0.8606098655663265</v>
+        <v>0.4327186628438585</v>
       </c>
       <c r="X23">
-        <v>7.699920566047567</v>
+        <v>8.702060649061684</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>51.80777990210807</v>
+        <v>51.80778306848573</v>
       </c>
       <c r="AA23">
-        <v>5.388155201009956</v>
+        <v>5.387368008310273</v>
       </c>
       <c r="AB23">
-        <v>0.5879294857221894</v>
+        <v>0.9791517969040169</v>
       </c>
       <c r="AC23">
-        <v>-1.648909154544253</v>
+        <v>-1.688500464539249</v>
       </c>
       <c r="AD23">
-        <v>-0.2481959179101541</v>
+        <v>-0.1020472594561935</v>
       </c>
       <c r="AE23">
-        <v>0.09276623932660441</v>
+        <v>0.09800450231923985</v>
       </c>
       <c r="AF23">
-        <v>0.0001711243079743315</v>
+        <v>-0.0009894956630794541</v>
       </c>
       <c r="AG23">
-        <v>-0.1661581647236849</v>
+        <v>-0.1276401457948153</v>
       </c>
       <c r="AH23">
-        <v>-0.02004978695842884</v>
+        <v>-0.03544421539476743</v>
       </c>
       <c r="AI23">
-        <v>0.01268237132487458</v>
+        <v>0.005507876243055074</v>
       </c>
       <c r="AJ23">
-        <v>-0.1613384426755661</v>
+        <v>-0.1228799525615347</v>
       </c>
       <c r="AK23">
-        <v>-8.750000157995032</v>
+        <v>-8.750009729322853</v>
       </c>
       <c r="AL23">
-        <v>-6.010886235682587</v>
+        <v>-6.000023179548215</v>
       </c>
       <c r="AM23">
-        <v>7672.491749112355</v>
+        <v>7664.316089157088</v>
       </c>
       <c r="AN23">
-        <v>7680.530103815002</v>
+        <v>7672.465838009457</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.2205941297070393</v>
+        <v>0.2213174277614354</v>
       </c>
       <c r="AQ23">
-        <v>126.6754451321919</v>
+        <v>127.1060168675656</v>
       </c>
       <c r="AR23">
-        <v>139.8080736209063</v>
+        <v>140.2431454769877</v>
       </c>
       <c r="AS23">
-        <v>859.7903791981735</v>
+        <v>957.9644747983074</v>
       </c>
       <c r="AT23">
         <v>0</v>
@@ -4014,144 +4014,144 @@
         <v>5</v>
       </c>
       <c r="AX23">
-        <v>2598.8</v>
+        <v>2598.2</v>
       </c>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="1">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B24">
-        <v>25899</v>
+        <v>25893</v>
       </c>
       <c r="C24">
-        <v>6.970570016950214</v>
+        <v>7.379025253565278</v>
       </c>
       <c r="D24">
-        <v>2.251170298965244</v>
+        <v>2.250704134275737</v>
       </c>
       <c r="E24">
-        <v>0.6217523615022897</v>
+        <v>0.5746164227362988</v>
       </c>
       <c r="F24">
-        <v>389.2889726232194</v>
+        <v>389.2343539925934</v>
       </c>
       <c r="G24">
-        <v>428.5669636667001</v>
+        <v>427.7405414862466</v>
       </c>
       <c r="H24">
-        <v>423.4103563174556</v>
+        <v>423.2929956563707</v>
       </c>
       <c r="I24">
-        <v>426.471061615531</v>
+        <v>426.5762281305973</v>
       </c>
       <c r="J24">
-        <v>79.28832072167197</v>
+        <v>79.28906121343711</v>
       </c>
       <c r="K24">
-        <v>78.29957477245406</v>
+        <v>78.29926126645077</v>
       </c>
       <c r="L24">
-        <v>62.94591913559108</v>
+        <v>62.9439345835109</v>
       </c>
       <c r="M24">
-        <v>75.81844156034903</v>
+        <v>75.81530373333321</v>
       </c>
       <c r="N24">
-        <v>62.97739316912234</v>
+        <v>62.96862311278649</v>
       </c>
       <c r="O24">
-        <v>76.26845595951555</v>
+        <v>76.2582015698957</v>
       </c>
       <c r="P24">
-        <v>348.7432893563121</v>
+        <v>348.6783885000235</v>
       </c>
       <c r="Q24">
-        <v>379.8787521355705</v>
+        <v>379.8073636575658</v>
       </c>
       <c r="R24">
-        <v>0.6324334999823017</v>
+        <v>0.6657683130087573</v>
       </c>
       <c r="S24">
-        <v>-0.6549665075121022</v>
+        <v>-0.6824429920640178</v>
       </c>
       <c r="T24">
-        <v>-0.184664342798676</v>
+        <v>-0.1819046904896534</v>
       </c>
       <c r="U24">
         <v>120320</v>
       </c>
       <c r="V24">
-        <v>42160.08772319764</v>
+        <v>42159.487712468</v>
       </c>
       <c r="W24">
-        <v>0.9077060055189534</v>
+        <v>0.5232003842141192</v>
       </c>
       <c r="X24">
-        <v>7.539960161024179</v>
+        <v>8.533554897438643</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>51.80777932811448</v>
+        <v>51.80778255695681</v>
       </c>
       <c r="AA24">
-        <v>5.388286179307367</v>
+        <v>5.387499284543787</v>
       </c>
       <c r="AB24">
-        <v>0.5275189491193524</v>
+        <v>0.9231915103866906</v>
       </c>
       <c r="AC24">
-        <v>-1.62331592014535</v>
+        <v>-1.709387135816457</v>
       </c>
       <c r="AD24">
-        <v>-0.2407451768268014</v>
+        <v>-0.1448586359933262</v>
       </c>
       <c r="AE24">
-        <v>0.09256055415439636</v>
+        <v>0.09660402642834523</v>
       </c>
       <c r="AF24">
-        <v>0.0005310966571963689</v>
+        <v>-0.0009463060115107468</v>
       </c>
       <c r="AG24">
-        <v>-0.1687221648007459</v>
+        <v>-0.1362839294717262</v>
       </c>
       <c r="AH24">
-        <v>-0.01753434630952698</v>
+        <v>-0.03297064480092002</v>
       </c>
       <c r="AI24">
-        <v>0.01369655535082456</v>
+        <v>0.006865331601377521</v>
       </c>
       <c r="AJ24">
-        <v>-0.1639075669873025</v>
+        <v>-0.1315268550588259</v>
       </c>
       <c r="AK24">
-        <v>-8.750000314751361</v>
+        <v>-8.750006932778518</v>
       </c>
       <c r="AL24">
-        <v>-6.025002815108721</v>
+        <v>-6.000032471733668</v>
       </c>
       <c r="AM24">
-        <v>7673.69090251844</v>
+        <v>7665.802005439167</v>
       </c>
       <c r="AN24">
-        <v>7681.720908422102</v>
+        <v>7673.899962927643</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.2205417408850857</v>
+        <v>0.22116704354998</v>
       </c>
       <c r="AQ24">
-        <v>126.641675509035</v>
+        <v>127.0158917397148</v>
       </c>
       <c r="AR24">
-        <v>139.7805690861358</v>
+        <v>140.1482352389495</v>
       </c>
       <c r="AS24">
-        <v>838.0683184029408</v>
+        <v>943.5367122864436</v>
       </c>
       <c r="AT24">
         <v>0</v>
@@ -4166,144 +4166,144 @@
         <v>5</v>
       </c>
       <c r="AX24">
-        <v>2598.9</v>
+        <v>2598.3</v>
       </c>
     </row>
     <row r="25" spans="1:50">
       <c r="A25" s="1">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B25">
-        <v>25900</v>
+        <v>25894</v>
       </c>
       <c r="C25">
-        <v>6.927585599287561</v>
+        <v>7.300896928437474</v>
       </c>
       <c r="D25">
-        <v>2.251153162103797</v>
+        <v>2.250676615518049</v>
       </c>
       <c r="E25">
-        <v>0.6239798562376436</v>
+        <v>0.5843295298270198</v>
       </c>
       <c r="F25">
-        <v>389.1882382749524</v>
+        <v>389.3531992233403</v>
       </c>
       <c r="G25">
-        <v>428.6624874487323</v>
+        <v>427.9731349321587</v>
       </c>
       <c r="H25">
-        <v>423.4022270446602</v>
+        <v>423.3218558907387</v>
       </c>
       <c r="I25">
-        <v>426.4509046850781</v>
+        <v>426.5752536196719</v>
       </c>
       <c r="J25">
-        <v>79.28832498415009</v>
+        <v>79.28858892749408</v>
       </c>
       <c r="K25">
-        <v>78.30021742981394</v>
+        <v>78.29986972796719</v>
       </c>
       <c r="L25">
-        <v>62.94403902467558</v>
+        <v>62.94561678054339</v>
       </c>
       <c r="M25">
-        <v>75.81744703781627</v>
+        <v>75.81704440894001</v>
       </c>
       <c r="N25">
-        <v>62.97942408586316</v>
+        <v>62.96973882739402</v>
       </c>
       <c r="O25">
-        <v>76.26949104606109</v>
+        <v>76.2596626017438</v>
       </c>
       <c r="P25">
-        <v>348.7541001407087</v>
+        <v>348.6892038666685</v>
       </c>
       <c r="Q25">
-        <v>379.8906594268885</v>
+        <v>379.8192518002028</v>
       </c>
       <c r="R25">
-        <v>0.6298906118738581</v>
+        <v>0.660215516979956</v>
       </c>
       <c r="S25">
-        <v>-0.65432546772211</v>
+        <v>-0.6758725589638768</v>
       </c>
       <c r="T25">
-        <v>-0.1873664846944516</v>
+        <v>-0.181897944891627</v>
       </c>
       <c r="U25">
         <v>120320</v>
       </c>
       <c r="V25">
-        <v>42160.18770996014</v>
+        <v>42159.58771682972</v>
       </c>
       <c r="W25">
-        <v>0.9489581932077832</v>
+        <v>0.6061063816151041</v>
       </c>
       <c r="X25">
-        <v>7.382407169005759</v>
+        <v>8.364114814051206</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>51.80777874034898</v>
+        <v>51.80778204368541</v>
       </c>
       <c r="AA25">
-        <v>5.388417090347376</v>
+        <v>5.387630550396201</v>
       </c>
       <c r="AB25">
-        <v>0.466355884716022</v>
+        <v>0.8557281298105383</v>
       </c>
       <c r="AC25">
-        <v>-1.599083857193506</v>
+        <v>-1.71578410655194</v>
       </c>
       <c r="AD25">
-        <v>-0.2242289056553206</v>
+        <v>-0.1822374147620221</v>
       </c>
       <c r="AE25">
-        <v>0.09244080507840043</v>
+        <v>0.09540074703770506</v>
       </c>
       <c r="AF25">
-        <v>0.0009463906102342288</v>
+        <v>-0.000857618045048951</v>
       </c>
       <c r="AG25">
-        <v>-0.1702836688358577</v>
+        <v>-0.144146614395279</v>
       </c>
       <c r="AH25">
-        <v>-0.01511962150625548</v>
+        <v>-0.03045289425008653</v>
       </c>
       <c r="AI25">
-        <v>0.01469460025392987</v>
+        <v>0.008137068258145622</v>
       </c>
       <c r="AJ25">
-        <v>-0.1654894774459542</v>
+        <v>-0.1393779983166546</v>
       </c>
       <c r="AK25">
-        <v>-8.750000164266524</v>
+        <v>-8.75000120600432</v>
       </c>
       <c r="AL25">
-        <v>-6.047925715994146</v>
+        <v>-6.000012572824355</v>
       </c>
       <c r="AM25">
-        <v>7674.835321278131</v>
+        <v>7667.246174495946</v>
       </c>
       <c r="AN25">
-        <v>7682.876737895563</v>
+        <v>7675.326086621533</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.2205183702060947</v>
+        <v>0.2210260578930515</v>
       </c>
       <c r="AQ25">
-        <v>126.6248579209627</v>
+        <v>126.9320889447786</v>
       </c>
       <c r="AR25">
-        <v>139.7721014208363</v>
+        <v>140.0616453664018</v>
       </c>
       <c r="AS25">
-        <v>814.561988977799</v>
+        <v>928.7966604037997</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -4318,144 +4318,144 @@
         <v>5</v>
       </c>
       <c r="AX25">
-        <v>2599</v>
+        <v>2598.4</v>
       </c>
     </row>
     <row r="26" spans="1:50">
       <c r="A26" s="1">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B26">
-        <v>25901</v>
+        <v>25895</v>
       </c>
       <c r="C26">
-        <v>6.89298408542853</v>
+        <v>7.224919702064621</v>
       </c>
       <c r="D26">
-        <v>2.251070079548678</v>
+        <v>2.250703710066511</v>
       </c>
       <c r="E26">
-        <v>0.6248013045810941</v>
+        <v>0.5940247197206466</v>
       </c>
       <c r="F26">
-        <v>389.1146126858832</v>
+        <v>389.4478826751308</v>
       </c>
       <c r="G26">
-        <v>428.757642990986</v>
+        <v>428.1837473382995</v>
       </c>
       <c r="H26">
-        <v>423.4014560912786</v>
+        <v>423.3594506998551</v>
       </c>
       <c r="I26">
-        <v>426.4244840597354</v>
+        <v>426.558438977634</v>
       </c>
       <c r="J26">
-        <v>79.28771141448163</v>
+        <v>79.28782244172801</v>
       </c>
       <c r="K26">
-        <v>78.30160060681209</v>
+        <v>78.30076593359642</v>
       </c>
       <c r="L26">
-        <v>62.94267234148736</v>
+        <v>62.94737497108171</v>
       </c>
       <c r="M26">
-        <v>75.8167486950812</v>
+        <v>75.81876965627744</v>
       </c>
       <c r="N26">
-        <v>62.98098447702908</v>
+        <v>62.97109342554045</v>
       </c>
       <c r="O26">
-        <v>76.26933661828471</v>
+        <v>76.26142669091396</v>
       </c>
       <c r="P26">
-        <v>348.7649088799499</v>
+        <v>348.7000218634095</v>
       </c>
       <c r="Q26">
-        <v>379.9025693614161</v>
+        <v>379.8311457931845</v>
       </c>
       <c r="R26">
-        <v>0.628567449494744</v>
+        <v>0.6541482459429255</v>
       </c>
       <c r="S26">
-        <v>-0.6540374867746459</v>
+        <v>-0.6694602983517514</v>
       </c>
       <c r="T26">
-        <v>-0.1906921960236573</v>
+        <v>-0.1818777295043112</v>
       </c>
       <c r="U26">
         <v>120320</v>
       </c>
       <c r="V26">
-        <v>42160.28769672263</v>
+        <v>42159.68772119143</v>
       </c>
       <c r="W26">
-        <v>0.9847200137999549</v>
+        <v>0.6809358233664593</v>
       </c>
       <c r="X26">
-        <v>7.226981436818511</v>
+        <v>8.195119714311881</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>51.80777814361373</v>
+        <v>51.80778152593694</v>
       </c>
       <c r="AA26">
-        <v>5.388547956823579</v>
+        <v>5.387761795873151</v>
       </c>
       <c r="AB26">
-        <v>0.4102506773114434</v>
+        <v>0.7839134661969341</v>
       </c>
       <c r="AC26">
-        <v>-1.577428697209203</v>
+        <v>-1.710099967248997</v>
       </c>
       <c r="AD26">
-        <v>-0.1984870981326522</v>
+        <v>-0.2125458959260335</v>
       </c>
       <c r="AE26">
-        <v>0.09233264775923358</v>
+        <v>0.09441759425958017</v>
       </c>
       <c r="AF26">
-        <v>0.001453320786937112</v>
+        <v>-0.0006993907529214819</v>
       </c>
       <c r="AG26">
-        <v>-0.1712193835575323</v>
+        <v>-0.1511958592767524</v>
       </c>
       <c r="AH26">
-        <v>-0.01282530313240763</v>
+        <v>-0.02788082850465462</v>
       </c>
       <c r="AI26">
-        <v>0.01571347085160131</v>
+        <v>0.009344007599185444</v>
       </c>
       <c r="AJ26">
-        <v>-0.1664568702452325</v>
+        <v>-0.1464111594145087</v>
       </c>
       <c r="AK26">
-        <v>-8.750000027159301</v>
+        <v>-8.749998222626822</v>
       </c>
       <c r="AL26">
-        <v>-6.079460479336466</v>
+        <v>-6.000099933404561</v>
       </c>
       <c r="AM26">
-        <v>7675.919487812014</v>
+        <v>7668.631875577314</v>
       </c>
       <c r="AN26">
-        <v>7683.981944656751</v>
+        <v>7676.712139817465</v>
       </c>
       <c r="AO26">
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.2205276472068665</v>
+        <v>0.2208936891880016</v>
       </c>
       <c r="AQ26">
-        <v>126.627533618459</v>
+        <v>126.8542352588419</v>
       </c>
       <c r="AR26">
-        <v>139.7830883823128</v>
+        <v>139.9824492217817</v>
       </c>
       <c r="AS26">
-        <v>789.5588620229628</v>
+        <v>913.5518694630574</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -4470,144 +4470,144 @@
         <v>5</v>
       </c>
       <c r="AX26">
-        <v>2599.1</v>
+        <v>2598.5</v>
       </c>
     </row>
     <row r="27" spans="1:50">
       <c r="A27" s="1">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B27">
-        <v>25902</v>
+        <v>25896</v>
       </c>
       <c r="C27">
-        <v>6.864251556130549</v>
+        <v>7.152161418421161</v>
       </c>
       <c r="D27">
-        <v>2.250966531221706</v>
+        <v>2.250805872417207</v>
       </c>
       <c r="E27">
-        <v>0.6251611590178868</v>
+        <v>0.6031314810376083</v>
       </c>
       <c r="F27">
-        <v>389.0890545394813</v>
+        <v>389.4873298190541</v>
       </c>
       <c r="G27">
-        <v>428.8014408605031</v>
+        <v>428.3364557046098</v>
       </c>
       <c r="H27">
-        <v>423.4092570830118</v>
+        <v>423.3934889994791</v>
       </c>
       <c r="I27">
-        <v>426.3954693868897</v>
+        <v>426.5329091427465</v>
       </c>
       <c r="J27">
-        <v>79.28670841543389</v>
+        <v>79.28730686109722</v>
       </c>
       <c r="K27">
-        <v>78.30306156435141</v>
+        <v>78.30113452475888</v>
       </c>
       <c r="L27">
-        <v>62.94223482214628</v>
+        <v>62.94851783419244</v>
       </c>
       <c r="M27">
-        <v>75.81641402000551</v>
+        <v>75.81985098851375</v>
       </c>
       <c r="N27">
-        <v>62.98141027303317</v>
+        <v>62.97243348353657</v>
       </c>
       <c r="O27">
-        <v>76.26778930369116</v>
+        <v>76.26323166293416</v>
       </c>
       <c r="P27">
-        <v>348.7757169092427</v>
+        <v>348.7108409559045</v>
       </c>
       <c r="Q27">
-        <v>379.9144805125511</v>
+        <v>379.8430440280652</v>
       </c>
       <c r="R27">
-        <v>0.628043405441568</v>
+        <v>0.647807485474829</v>
       </c>
       <c r="S27">
-        <v>-0.6535944932622044</v>
+        <v>-0.6637755695246612</v>
       </c>
       <c r="T27">
-        <v>-0.1938612800752697</v>
+        <v>-0.1819029018779679</v>
       </c>
       <c r="U27">
         <v>120320</v>
       </c>
       <c r="V27">
-        <v>42160.38768348513</v>
+        <v>42159.78772555314</v>
       </c>
       <c r="W27">
-        <v>1.016440458896408</v>
+        <v>0.7478516245610924</v>
       </c>
       <c r="X27">
-        <v>7.073420047728545</v>
+        <v>8.027668081160234</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>51.80777754228606</v>
+        <v>51.80778099936519</v>
       </c>
       <c r="AA27">
-        <v>5.388678800104094</v>
+        <v>5.387893000545904</v>
       </c>
       <c r="AB27">
-        <v>0.3740712912738158</v>
+        <v>0.7139420051407434</v>
       </c>
       <c r="AC27">
-        <v>-1.558464662511697</v>
+        <v>-1.695100626692681</v>
       </c>
       <c r="AD27">
-        <v>-0.1629500598541941</v>
+        <v>-0.234203543923383</v>
       </c>
       <c r="AE27">
-        <v>0.09216515668963071</v>
+        <v>0.09366047377697136</v>
       </c>
       <c r="AF27">
-        <v>0.00203109018774887</v>
+        <v>-0.0004623547855853951</v>
       </c>
       <c r="AG27">
-        <v>-0.1719551023854346</v>
+        <v>-0.1573292610244905</v>
       </c>
       <c r="AH27">
-        <v>-0.01066299539665285</v>
+        <v>-0.02526464685083015</v>
       </c>
       <c r="AI27">
-        <v>0.01674568288876381</v>
+        <v>0.01050422973429045</v>
       </c>
       <c r="AJ27">
-        <v>-0.1672221738846368</v>
+        <v>-0.1525289229342458</v>
       </c>
       <c r="AK27">
-        <v>-8.749999998309571</v>
+        <v>-8.749998256406606</v>
       </c>
       <c r="AL27">
-        <v>-6.116822802842146</v>
+        <v>-6.000878553203187</v>
       </c>
       <c r="AM27">
-        <v>7676.94513688085</v>
+        <v>7669.961956701096</v>
       </c>
       <c r="AN27">
-        <v>7685.015976316233</v>
+        <v>7678.038408565126</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.2205685539394796</v>
+        <v>0.2207737995216727</v>
       </c>
       <c r="AQ27">
-        <v>126.6491026895635</v>
+        <v>126.7838990572352</v>
       </c>
       <c r="AR27">
-        <v>139.8100489077532</v>
+        <v>139.9118587894122</v>
       </c>
       <c r="AS27">
-        <v>763.1959256403784</v>
+        <v>897.3102956339367</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -4622,144 +4622,144 @@
         <v>5</v>
       </c>
       <c r="AX27">
-        <v>2599.2</v>
+        <v>2598.6</v>
       </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="1">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B28">
-        <v>25903</v>
+        <v>25897</v>
       </c>
       <c r="C28">
-        <v>6.83847689241434</v>
+        <v>7.084162849387755</v>
       </c>
       <c r="D28">
-        <v>2.250880956944989</v>
+        <v>2.250957583530812</v>
       </c>
       <c r="E28">
-        <v>0.6257960046399618</v>
+        <v>0.6111356678799216</v>
       </c>
       <c r="F28">
-        <v>389.1190244982608</v>
+        <v>389.4636696056331</v>
       </c>
       <c r="G28">
-        <v>428.7470770178393</v>
+        <v>428.4302782349952</v>
       </c>
       <c r="H28">
-        <v>423.4198401013168</v>
+        <v>423.4138198736929</v>
       </c>
       <c r="I28">
-        <v>426.3725108796652</v>
+        <v>426.5079115358203</v>
       </c>
       <c r="J28">
-        <v>79.28576545163028</v>
+        <v>79.28735892225617</v>
       </c>
       <c r="K28">
-        <v>78.30392581278807</v>
+        <v>78.3006783104679</v>
       </c>
       <c r="L28">
-        <v>62.94267642422705</v>
+        <v>62.94862418611255</v>
       </c>
       <c r="M28">
-        <v>75.81625597064162</v>
+        <v>75.820029836424</v>
       </c>
       <c r="N28">
-        <v>62.98026936987241</v>
+        <v>62.97381903230772</v>
       </c>
       <c r="O28">
-        <v>76.2652668147072</v>
+        <v>76.26501480242585</v>
       </c>
       <c r="P28">
-        <v>348.7865257710343</v>
+        <v>348.7216593911713</v>
       </c>
       <c r="Q28">
-        <v>379.9263901535793</v>
+        <v>379.8549448691272</v>
       </c>
       <c r="R28">
-        <v>0.62791991021625</v>
+        <v>0.6416999612675984</v>
       </c>
       <c r="S28">
-        <v>-0.6525632416307738</v>
+        <v>-0.6593757053783785</v>
       </c>
       <c r="T28">
-        <v>-0.1962067955869907</v>
+        <v>-0.1821567338353607</v>
       </c>
       <c r="U28">
         <v>120320</v>
       </c>
       <c r="V28">
-        <v>42160.48767024762</v>
+        <v>42159.88772991486</v>
       </c>
       <c r="W28">
-        <v>1.0473906231595</v>
+        <v>0.8074912973924507</v>
       </c>
       <c r="X28">
-        <v>6.921540525685544</v>
+        <v>7.862490579708983</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>51.8077769388087</v>
+        <v>51.80778045917211</v>
       </c>
       <c r="AA28">
-        <v>5.38880963414803</v>
+        <v>5.388024141026067</v>
       </c>
       <c r="AB28">
-        <v>0.3764651440407747</v>
+        <v>0.64893772422812</v>
       </c>
       <c r="AC28">
-        <v>-1.541384855682095</v>
+        <v>-1.673731086009771</v>
       </c>
       <c r="AD28">
-        <v>-0.117788829888518</v>
+        <v>-0.2461589438479782</v>
       </c>
       <c r="AE28">
-        <v>0.09189672781852161</v>
+        <v>0.09311868812737775</v>
       </c>
       <c r="AF28">
-        <v>0.002546975611859914</v>
+        <v>-0.0001626552376751823</v>
       </c>
       <c r="AG28">
-        <v>-0.1728731163874563</v>
+        <v>-0.1623660429852895</v>
       </c>
       <c r="AH28">
-        <v>-0.008622562122955138</v>
+        <v>-0.02263928330781611</v>
       </c>
       <c r="AI28">
-        <v>0.01769781137481874</v>
+        <v>0.01161989582200425</v>
       </c>
       <c r="AJ28">
-        <v>-0.1681522559305653</v>
+        <v>-0.1575528705408328</v>
       </c>
       <c r="AK28">
-        <v>-8.749999995968244</v>
+        <v>-8.749999376971299</v>
       </c>
       <c r="AL28">
-        <v>-6.155288248133185</v>
+        <v>-6.003722012851194</v>
       </c>
       <c r="AM28">
-        <v>7677.917287163109</v>
+        <v>7671.247053107464</v>
       </c>
       <c r="AN28">
-        <v>7685.965187053237</v>
+        <v>7679.306360129475</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.2206286849559186</v>
+        <v>0.2206724035539956</v>
       </c>
       <c r="AQ28">
-        <v>126.682158938296</v>
+        <v>126.7235501522728</v>
       </c>
       <c r="AR28">
-        <v>139.8432373493952</v>
+        <v>139.852699665185</v>
       </c>
       <c r="AS28">
-        <v>735.4012770984375</v>
+        <v>879.5159948379576</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -4774,144 +4774,144 @@
         <v>5</v>
       </c>
       <c r="AX28">
-        <v>2599.3</v>
+        <v>2598.7</v>
       </c>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="1">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B29">
-        <v>25904</v>
+        <v>25898</v>
       </c>
       <c r="C29">
-        <v>6.813598657795316</v>
+        <v>7.022998014958596</v>
       </c>
       <c r="D29">
-        <v>2.250827950833789</v>
+        <v>2.251098285608436</v>
       </c>
       <c r="E29">
-        <v>0.6268867148719318</v>
+        <v>0.6174840908053698</v>
       </c>
       <c r="F29">
-        <v>389.1972350444651</v>
+        <v>389.3897724469595</v>
       </c>
       <c r="G29">
-        <v>428.5842958183856</v>
+        <v>428.4946282904258</v>
       </c>
       <c r="H29">
-        <v>423.4252459273284</v>
+        <v>423.417602616212</v>
       </c>
       <c r="I29">
-        <v>426.3631262542704</v>
+        <v>426.4880891001137</v>
       </c>
       <c r="J29">
-        <v>79.2852880112609</v>
+        <v>79.2878486121561</v>
       </c>
       <c r="K29">
-        <v>78.30383054481428</v>
+        <v>78.29988347502223</v>
       </c>
       <c r="L29">
-        <v>62.94354529685218</v>
+        <v>62.94764922450336</v>
       </c>
       <c r="M29">
-        <v>75.81597664707395</v>
+        <v>75.81943835605834</v>
       </c>
       <c r="N29">
-        <v>62.97772670986584</v>
+        <v>62.97544633255198</v>
       </c>
       <c r="O29">
-        <v>76.26260721571148</v>
+        <v>76.26680529746621</v>
       </c>
       <c r="P29">
-        <v>348.7973368053412</v>
+        <v>348.7324757737392</v>
       </c>
       <c r="Q29">
-        <v>379.9382952729076</v>
+        <v>379.8668474976909</v>
       </c>
       <c r="R29">
-        <v>0.6279351097933856</v>
+        <v>0.6364180677105286</v>
       </c>
       <c r="S29">
-        <v>-0.650665624439098</v>
+        <v>-0.6564982700274372</v>
       </c>
       <c r="T29">
-        <v>-0.1978298634095623</v>
+        <v>-0.182962332113168</v>
       </c>
       <c r="U29">
         <v>120320</v>
       </c>
       <c r="V29">
-        <v>42160.58765701012</v>
+        <v>42159.98773427658</v>
       </c>
       <c r="W29">
-        <v>1.082348248833325</v>
+        <v>0.8606098655663265</v>
       </c>
       <c r="X29">
-        <v>6.771268836157065</v>
+        <v>7.699920566047567</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>51.80777633286559</v>
+        <v>51.80777990210807</v>
       </c>
       <c r="AA29">
-        <v>5.388940464366993</v>
+        <v>5.388155201009956</v>
       </c>
       <c r="AB29">
-        <v>0.4271396351713972</v>
+        <v>0.5879294857221894</v>
       </c>
       <c r="AC29">
-        <v>-1.524989502126349</v>
+        <v>-1.648909154544253</v>
       </c>
       <c r="AD29">
-        <v>-0.06546548333463363</v>
+        <v>-0.2481959179101541</v>
       </c>
       <c r="AE29">
-        <v>0.09153524886436633</v>
+        <v>0.09276623932660441</v>
       </c>
       <c r="AF29">
-        <v>0.002772657328801774</v>
+        <v>0.0001711243079743315</v>
       </c>
       <c r="AG29">
-        <v>-0.1742356010071004</v>
+        <v>-0.1661581647236849</v>
       </c>
       <c r="AH29">
-        <v>-0.006659217695133997</v>
+        <v>-0.02004978695842884</v>
       </c>
       <c r="AI29">
-        <v>0.01840482583384134</v>
+        <v>0.01268237132487458</v>
       </c>
       <c r="AJ29">
-        <v>-0.1695034904582997</v>
+        <v>-0.1613384426755661</v>
       </c>
       <c r="AK29">
-        <v>-8.749999905742367</v>
+        <v>-8.750000157995032</v>
       </c>
       <c r="AL29">
-        <v>-6.189753682453525</v>
+        <v>-6.010886235682587</v>
       </c>
       <c r="AM29">
-        <v>7678.836773572284</v>
+        <v>7672.491749112355</v>
       </c>
       <c r="AN29">
-        <v>7686.831224565609</v>
+        <v>7680.530103815002</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.2206841987966281</v>
+        <v>0.2205941297070393</v>
       </c>
       <c r="AQ29">
-        <v>126.7125478440293</v>
+        <v>126.6754451321919</v>
       </c>
       <c r="AR29">
-        <v>139.8681039160065</v>
+        <v>139.8080736209063</v>
       </c>
       <c r="AS29">
-        <v>706.0622331925747</v>
+        <v>859.7903791981735</v>
       </c>
       <c r="AT29">
         <v>0</v>
@@ -4926,144 +4926,144 @@
         <v>5</v>
       </c>
       <c r="AX29">
-        <v>2599.4</v>
+        <v>2598.8</v>
       </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="1">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B30">
-        <v>25905</v>
+        <v>25899</v>
       </c>
       <c r="C30">
-        <v>6.78916051679572</v>
+        <v>6.970570016950214</v>
       </c>
       <c r="D30">
-        <v>2.250803514901247</v>
+        <v>2.251170298965244</v>
       </c>
       <c r="E30">
-        <v>0.6281272696898308</v>
+        <v>0.6217523615022897</v>
       </c>
       <c r="F30">
-        <v>389.3094741842801</v>
+        <v>389.2889726232194</v>
       </c>
       <c r="G30">
-        <v>428.3529124932708</v>
+        <v>428.5669636667001</v>
       </c>
       <c r="H30">
-        <v>423.4211372070121</v>
+        <v>423.4103563174556</v>
       </c>
       <c r="I30">
-        <v>426.3681929278245</v>
+        <v>426.471061615531</v>
       </c>
       <c r="J30">
-        <v>79.2854142239151</v>
+        <v>79.28832072167197</v>
       </c>
       <c r="K30">
-        <v>78.30283186243744</v>
+        <v>78.29957477245406</v>
       </c>
       <c r="L30">
-        <v>62.94438275785476</v>
+        <v>62.94591913559108</v>
       </c>
       <c r="M30">
-        <v>75.81543014551292</v>
+        <v>75.81844156034903</v>
       </c>
       <c r="N30">
-        <v>62.97471298081802</v>
+        <v>62.97739316912234</v>
       </c>
       <c r="O30">
-        <v>76.26062323481422</v>
+        <v>76.26845595951555</v>
       </c>
       <c r="P30">
-        <v>348.8081509574018</v>
+        <v>348.7432893563121</v>
       </c>
       <c r="Q30">
-        <v>379.9501939649213</v>
+        <v>379.8787521355705</v>
       </c>
       <c r="R30">
-        <v>0.6279365866780193</v>
+        <v>0.6324334999823017</v>
       </c>
       <c r="S30">
-        <v>-0.6479196486684092</v>
+        <v>-0.6549665075121022</v>
       </c>
       <c r="T30">
-        <v>-0.1998921046782152</v>
+        <v>-0.184664342798676</v>
       </c>
       <c r="U30">
         <v>120320</v>
       </c>
       <c r="V30">
-        <v>42160.68764377262</v>
+        <v>42160.08772319764</v>
       </c>
       <c r="W30">
-        <v>1.125848902222224</v>
+        <v>0.9077060055189534</v>
       </c>
       <c r="X30">
-        <v>6.622628321171835</v>
+        <v>7.539960161024179</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>51.80777572124794</v>
+        <v>51.80777932811448</v>
       </c>
       <c r="AA30">
-        <v>5.389071289505143</v>
+        <v>5.388286179307367</v>
       </c>
       <c r="AB30">
-        <v>0.5142554060587334</v>
+        <v>0.5275189491193524</v>
       </c>
       <c r="AC30">
-        <v>-1.50834050190629</v>
+        <v>-1.62331592014535</v>
       </c>
       <c r="AD30">
-        <v>-0.01130599207307646</v>
+        <v>-0.2407451768268014</v>
       </c>
       <c r="AE30">
-        <v>0.09113627559646943</v>
+        <v>0.09256055415439636</v>
       </c>
       <c r="AF30">
-        <v>0.002507511339041976</v>
+        <v>0.0005310966571963689</v>
       </c>
       <c r="AG30">
-        <v>-0.1761040071759008</v>
+        <v>-0.1687221648007459</v>
       </c>
       <c r="AH30">
-        <v>-0.004703671928510903</v>
+        <v>-0.01753434630952698</v>
       </c>
       <c r="AI30">
-        <v>0.01872942749336565</v>
+        <v>0.01369655535082456</v>
       </c>
       <c r="AJ30">
-        <v>-0.1713455300770847</v>
+        <v>-0.1639075669873025</v>
       </c>
       <c r="AK30">
-        <v>-8.749999733790091</v>
+        <v>-8.750000314751361</v>
       </c>
       <c r="AL30">
-        <v>-6.216473172459886</v>
+        <v>-6.025002815108721</v>
       </c>
       <c r="AM30">
-        <v>7679.697636619516</v>
+        <v>7673.69090251844</v>
       </c>
       <c r="AN30">
-        <v>7687.631302691461</v>
+        <v>7681.720908422102</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.2207105804696287</v>
+        <v>0.2205417408850857</v>
       </c>
       <c r="AQ30">
-        <v>126.725609116114</v>
+        <v>126.641675509035</v>
       </c>
       <c r="AR30">
-        <v>139.872222975004</v>
+        <v>139.7805690861358</v>
       </c>
       <c r="AS30">
-        <v>675.2722553676489</v>
+        <v>838.0683184029408</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -5078,144 +5078,144 @@
         <v>5</v>
       </c>
       <c r="AX30">
-        <v>2599.5</v>
+        <v>2598.9</v>
       </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="1">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B31">
-        <v>25906</v>
+        <v>25900</v>
       </c>
       <c r="C31">
-        <v>6.766205341895567</v>
+        <v>6.927585599287561</v>
       </c>
       <c r="D31">
-        <v>2.250805748361566</v>
+        <v>2.251153162103797</v>
       </c>
       <c r="E31">
-        <v>0.6291125446076091</v>
+        <v>0.6239798562376436</v>
       </c>
       <c r="F31">
-        <v>389.4439440366726</v>
+        <v>389.1882382749524</v>
       </c>
       <c r="G31">
-        <v>428.1245370463664</v>
+        <v>428.6624874487323</v>
       </c>
       <c r="H31">
-        <v>423.4098204689269</v>
+        <v>423.4022270446602</v>
       </c>
       <c r="I31">
-        <v>426.3802013853062</v>
+        <v>426.4509046850781</v>
       </c>
       <c r="J31">
-        <v>79.28593233673591</v>
+        <v>79.28832498415009</v>
       </c>
       <c r="K31">
-        <v>78.30131719181</v>
+        <v>78.30021742981394</v>
       </c>
       <c r="L31">
-        <v>62.94515220359195</v>
+        <v>62.94403902467558</v>
       </c>
       <c r="M31">
-        <v>75.8147932842096</v>
+        <v>75.81744703781627</v>
       </c>
       <c r="N31">
-        <v>62.97253351573716</v>
+        <v>62.97942408586316</v>
       </c>
       <c r="O31">
-        <v>76.25972832614265</v>
+        <v>76.26949104606109</v>
       </c>
       <c r="P31">
-        <v>348.8189688447362</v>
+        <v>348.7541001407087</v>
       </c>
       <c r="Q31">
-        <v>379.9620863131726</v>
+        <v>379.8906594268885</v>
       </c>
       <c r="R31">
-        <v>0.6277838186470616</v>
+        <v>0.6298906118738581</v>
       </c>
       <c r="S31">
-        <v>-0.6447155439653091</v>
+        <v>-0.65432546772211</v>
       </c>
       <c r="T31">
-        <v>-0.2043280813668512</v>
+        <v>-0.1873664846944516</v>
       </c>
       <c r="U31">
         <v>120320</v>
       </c>
       <c r="V31">
-        <v>42160.78763053511</v>
+        <v>42160.18770996014</v>
       </c>
       <c r="W31">
-        <v>1.179765104083626</v>
+        <v>0.9489581932077832</v>
       </c>
       <c r="X31">
-        <v>6.475686601951777</v>
+        <v>7.382407169005759</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>51.80777509842116</v>
+        <v>51.80777874034898</v>
       </c>
       <c r="AA31">
-        <v>5.389202104422666</v>
+        <v>5.388417090347376</v>
       </c>
       <c r="AB31">
-        <v>0.6039415459443429</v>
+        <v>0.466355884716022</v>
       </c>
       <c r="AC31">
-        <v>-1.491201377806298</v>
+        <v>-1.599083857193506</v>
       </c>
       <c r="AD31">
-        <v>0.03812624975900531</v>
+        <v>-0.2242289056553206</v>
       </c>
       <c r="AE31">
-        <v>0.09077989585901386</v>
+        <v>0.09244080507840043</v>
       </c>
       <c r="AF31">
-        <v>0.001748305475341908</v>
+        <v>0.0009463906102342288</v>
       </c>
       <c r="AG31">
-        <v>-0.1782686225765497</v>
+        <v>-0.1702836688358577</v>
       </c>
       <c r="AH31">
-        <v>-0.002695033742412895</v>
+        <v>-0.01511962150625548</v>
       </c>
       <c r="AI31">
-        <v>0.01869780864004286</v>
+        <v>0.01469460025392987</v>
       </c>
       <c r="AJ31">
-        <v>-0.1734842247140072</v>
+        <v>-0.1654894774459542</v>
       </c>
       <c r="AK31">
-        <v>-8.749999713148737</v>
+        <v>-8.750000164266524</v>
       </c>
       <c r="AL31">
-        <v>-6.234162124128368</v>
+        <v>-6.047925715994146</v>
       </c>
       <c r="AM31">
-        <v>7680.491418917623</v>
+        <v>7674.835321278131</v>
       </c>
       <c r="AN31">
-        <v>7688.389405438946</v>
+        <v>7682.876737895563</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.2206977311023285</v>
+        <v>0.2205183702060947</v>
       </c>
       <c r="AQ31">
-        <v>126.7152338785859</v>
+        <v>126.6248579209627</v>
       </c>
       <c r="AR31">
-        <v>139.8534557603758</v>
+        <v>139.7721014208363</v>
       </c>
       <c r="AS31">
-        <v>643.423187811057</v>
+        <v>814.561988977799</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -5230,144 +5230,144 @@
         <v>5</v>
       </c>
       <c r="AX31">
-        <v>2599.6</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="32" spans="1:50">
       <c r="A32" s="1">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B32">
-        <v>25907</v>
+        <v>25901</v>
       </c>
       <c r="C32">
-        <v>6.746488091733595</v>
+        <v>6.89298408542853</v>
       </c>
       <c r="D32">
-        <v>2.25084745279473</v>
+        <v>2.251070079548678</v>
       </c>
       <c r="E32">
-        <v>0.6297204256363694</v>
+        <v>0.6248013045810941</v>
       </c>
       <c r="F32">
-        <v>389.5918928892517</v>
+        <v>389.1146126858832</v>
       </c>
       <c r="G32">
-        <v>427.9589799685073</v>
+        <v>428.757642990986</v>
       </c>
       <c r="H32">
-        <v>423.398296599721</v>
+        <v>423.4014560912786</v>
       </c>
       <c r="I32">
-        <v>426.3867448843918</v>
+        <v>426.4244840597354</v>
       </c>
       <c r="J32">
-        <v>79.28639269549227</v>
+        <v>79.28771141448163</v>
       </c>
       <c r="K32">
-        <v>78.29980518748951</v>
+        <v>78.30160060681209</v>
       </c>
       <c r="L32">
-        <v>62.9462668095764</v>
+        <v>62.94267234148736</v>
       </c>
       <c r="M32">
-        <v>75.81449436553072</v>
+        <v>75.8167486950812</v>
       </c>
       <c r="N32">
-        <v>62.97198041425179</v>
+        <v>62.98098447702908</v>
       </c>
       <c r="O32">
-        <v>76.25980721423942</v>
+        <v>76.26933661828471</v>
       </c>
       <c r="P32">
-        <v>348.8297908417609</v>
+        <v>348.7649088799499</v>
       </c>
       <c r="Q32">
-        <v>379.9739740626162</v>
+        <v>379.9025693614161</v>
       </c>
       <c r="R32">
-        <v>0.6272902964862024</v>
+        <v>0.628567449494744</v>
       </c>
       <c r="S32">
-        <v>-0.6416742116360765</v>
+        <v>-0.6540374867746459</v>
       </c>
       <c r="T32">
-        <v>-0.2131018348577566</v>
+        <v>-0.1906921960236573</v>
       </c>
       <c r="U32">
         <v>120320</v>
       </c>
       <c r="V32">
-        <v>42160.88761729761</v>
+        <v>42160.28769672263</v>
       </c>
       <c r="W32">
-        <v>1.241888685494908</v>
+        <v>0.9847200137999549</v>
       </c>
       <c r="X32">
-        <v>6.330469242949743</v>
+        <v>7.226981436818511</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>51.80777445824088</v>
+        <v>51.80777814361373</v>
       </c>
       <c r="AA32">
-        <v>5.389332903034824</v>
+        <v>5.388547956823579</v>
       </c>
       <c r="AB32">
-        <v>0.6565497141334458</v>
+        <v>0.4102506773114434</v>
       </c>
       <c r="AC32">
-        <v>-1.474111324062052</v>
+        <v>-1.577428697209203</v>
       </c>
       <c r="AD32">
-        <v>0.0783828531788691</v>
+        <v>-0.1984870981326522</v>
       </c>
       <c r="AE32">
-        <v>0.09054014770769502</v>
+        <v>0.09233264775923358</v>
       </c>
       <c r="AF32">
-        <v>0.0007588542485547821</v>
+        <v>0.001453320786937112</v>
       </c>
       <c r="AG32">
-        <v>-0.1802793318936279</v>
+        <v>-0.1712193835575323</v>
       </c>
       <c r="AH32">
-        <v>-0.0006090837843374267</v>
+        <v>-0.01282530313240763</v>
       </c>
       <c r="AI32">
-        <v>0.01854993103329575</v>
+        <v>0.01571347085160131</v>
       </c>
       <c r="AJ32">
-        <v>-0.1754824792919573</v>
+        <v>-0.1664568702452325</v>
       </c>
       <c r="AK32">
-        <v>-8.750000215573772</v>
+        <v>-8.750000027159301</v>
       </c>
       <c r="AL32">
-        <v>-6.243944006663576</v>
+        <v>-6.079460479336466</v>
       </c>
       <c r="AM32">
-        <v>7681.213806601631</v>
+        <v>7675.919487812014</v>
       </c>
       <c r="AN32">
-        <v>7689.123601357849</v>
+        <v>7683.981944656751</v>
       </c>
       <c r="AO32">
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.2206568655658249</v>
+        <v>0.2205276472068665</v>
       </c>
       <c r="AQ32">
-        <v>126.6882460360089</v>
+        <v>126.627533618459</v>
       </c>
       <c r="AR32">
-        <v>139.8221689685727</v>
+        <v>139.7830883823128</v>
       </c>
       <c r="AS32">
-        <v>611.0531186674037</v>
+        <v>789.5588620229628</v>
       </c>
       <c r="AT32">
         <v>0</v>
@@ -5382,144 +5382,144 @@
         <v>5</v>
       </c>
       <c r="AX32">
-        <v>2599.7</v>
+        <v>2599.1</v>
       </c>
     </row>
     <row r="33" spans="1:50">
       <c r="A33" s="1">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B33">
-        <v>25908</v>
+        <v>25902</v>
       </c>
       <c r="C33">
-        <v>6.731466082414756</v>
+        <v>6.864251556130549</v>
       </c>
       <c r="D33">
-        <v>2.250941410257724</v>
+        <v>2.250966531221706</v>
       </c>
       <c r="E33">
-        <v>0.6302028337262898</v>
+        <v>0.6251611590178868</v>
       </c>
       <c r="F33">
-        <v>389.7405221636861</v>
+        <v>389.0890545394813</v>
       </c>
       <c r="G33">
-        <v>427.8676655908961</v>
+        <v>428.8014408605031</v>
       </c>
       <c r="H33">
-        <v>423.3918838412041</v>
+        <v>423.4092570830118</v>
       </c>
       <c r="I33">
-        <v>426.3789673113201</v>
+        <v>426.3954693868897</v>
       </c>
       <c r="J33">
-        <v>79.28637551640851</v>
+        <v>79.28670841543389</v>
       </c>
       <c r="K33">
-        <v>78.2987464827287</v>
+        <v>78.30306156435141</v>
       </c>
       <c r="L33">
-        <v>62.94816173689455</v>
+        <v>62.94223482214628</v>
       </c>
       <c r="M33">
-        <v>75.81492505611303</v>
+        <v>75.81641402000551</v>
       </c>
       <c r="N33">
-        <v>62.97282526410375</v>
+        <v>62.98141027303317</v>
       </c>
       <c r="O33">
-        <v>76.26036103545196</v>
+        <v>76.26778930369116</v>
       </c>
       <c r="P33">
-        <v>348.8406169673765</v>
+        <v>348.7757169092427</v>
       </c>
       <c r="Q33">
-        <v>379.9858592755493</v>
+        <v>379.9144805125511</v>
       </c>
       <c r="R33">
-        <v>0.6262891037817317</v>
+        <v>0.628043405441568</v>
       </c>
       <c r="S33">
-        <v>-0.6393291268342775</v>
+        <v>-0.6535944932622044</v>
       </c>
       <c r="T33">
-        <v>-0.2272861436784402</v>
+        <v>-0.1938612800752697</v>
       </c>
       <c r="U33">
         <v>120320</v>
       </c>
       <c r="V33">
-        <v>42160.9876040601</v>
+        <v>42160.38768348513</v>
       </c>
       <c r="W33">
-        <v>1.306768160471875</v>
+        <v>1.016440458896408</v>
       </c>
       <c r="X33">
-        <v>6.186870326874934</v>
+        <v>7.073420047728545</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>51.80777379653971</v>
+        <v>51.80777754228606</v>
       </c>
       <c r="AA33">
-        <v>5.389463681190644</v>
+        <v>5.388678800104094</v>
       </c>
       <c r="AB33">
-        <v>0.6495584421601902</v>
+        <v>0.3740712912738158</v>
       </c>
       <c r="AC33">
-        <v>-1.458196860745709</v>
+        <v>-1.558464662511697</v>
       </c>
       <c r="AD33">
-        <v>0.1097667097450855</v>
+        <v>-0.1629500598541941</v>
       </c>
       <c r="AE33">
-        <v>0.0904555034958882</v>
+        <v>0.09216515668963071</v>
       </c>
       <c r="AF33">
-        <v>-6.112269714380677e-05</v>
+        <v>0.00203109018774887</v>
       </c>
       <c r="AG33">
-        <v>-0.1816589772867313</v>
+        <v>-0.1719551023854346</v>
       </c>
       <c r="AH33">
-        <v>0.001538338738404079</v>
+        <v>-0.01066299539665285</v>
       </c>
       <c r="AI33">
-        <v>0.01861897003674248</v>
+        <v>0.01674568288876381</v>
       </c>
       <c r="AJ33">
-        <v>-0.1768679452782986</v>
+        <v>-0.1672221738846368</v>
       </c>
       <c r="AK33">
-        <v>-8.750001296251282</v>
+        <v>-8.749999998309571</v>
       </c>
       <c r="AL33">
-        <v>-6.248288978878196</v>
+        <v>-6.116822802842146</v>
       </c>
       <c r="AM33">
-        <v>7681.869016834461</v>
+        <v>7676.94513688085</v>
       </c>
       <c r="AN33">
-        <v>7689.838169378504</v>
+        <v>7685.015976316233</v>
       </c>
       <c r="AO33">
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.2206128389244487</v>
+        <v>0.2205685539394796</v>
       </c>
       <c r="AQ33">
-        <v>126.6597721530826</v>
+        <v>126.6491026895635</v>
       </c>
       <c r="AR33">
-        <v>139.794759461266</v>
+        <v>139.8100489077532</v>
       </c>
       <c r="AS33">
-        <v>578.5899236937751</v>
+        <v>763.1959256403784</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -5534,144 +5534,144 @@
         <v>5</v>
       </c>
       <c r="AX33">
-        <v>2599.8</v>
+        <v>2599.2</v>
       </c>
     </row>
     <row r="34" spans="1:50">
       <c r="A34" s="1">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B34">
-        <v>25909</v>
+        <v>25903</v>
       </c>
       <c r="C34">
-        <v>6.721500116035082</v>
+        <v>6.83847689241434</v>
       </c>
       <c r="D34">
-        <v>2.251072496790624</v>
+        <v>2.250880956944989</v>
       </c>
       <c r="E34">
-        <v>0.6309703728685537</v>
+        <v>0.6257960046399618</v>
       </c>
       <c r="F34">
-        <v>389.8696609389175</v>
+        <v>389.1190244982608</v>
       </c>
       <c r="G34">
-        <v>427.8162640767897</v>
+        <v>428.7470770178393</v>
       </c>
       <c r="H34">
-        <v>423.3885985550868</v>
+        <v>423.4198401013168</v>
       </c>
       <c r="I34">
-        <v>426.3592654052004</v>
+        <v>426.3725108796652</v>
       </c>
       <c r="J34">
-        <v>79.28575654045024</v>
+        <v>79.28576545163028</v>
       </c>
       <c r="K34">
-        <v>78.29836898256183</v>
+        <v>78.30392581278807</v>
       </c>
       <c r="L34">
-        <v>62.95083401016932</v>
+        <v>62.94267642422705</v>
       </c>
       <c r="M34">
-        <v>75.81616248569478</v>
+        <v>75.81625597064162</v>
       </c>
       <c r="N34">
-        <v>62.97426578736803</v>
+        <v>62.98026936987241</v>
       </c>
       <c r="O34">
-        <v>76.26083989917348</v>
+        <v>76.2652668147072</v>
       </c>
       <c r="P34">
-        <v>348.8514466801804</v>
+        <v>348.7865257710343</v>
       </c>
       <c r="Q34">
-        <v>379.9977430606625</v>
+        <v>379.9263901535793</v>
       </c>
       <c r="R34">
-        <v>0.6248141901550743</v>
+        <v>0.62791991021625</v>
       </c>
       <c r="S34">
-        <v>-0.6378779488268381</v>
+        <v>-0.6525632416307738</v>
       </c>
       <c r="T34">
-        <v>-0.2463765421421233</v>
+        <v>-0.1962067955869907</v>
       </c>
       <c r="U34">
         <v>120320</v>
       </c>
       <c r="V34">
-        <v>42161.08759993219</v>
+        <v>42160.48767024762</v>
       </c>
       <c r="W34">
-        <v>1.368396705820358</v>
+        <v>1.0473906231595</v>
       </c>
       <c r="X34">
-        <v>6.044616341395498</v>
+        <v>6.921540525685544</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>51.80777311321521</v>
+        <v>51.8077769388087</v>
       </c>
       <c r="AA34">
-        <v>5.389594438660878</v>
+        <v>5.38880963414803</v>
       </c>
       <c r="AB34">
-        <v>0.5895420216293403</v>
+        <v>0.3764651440407747</v>
       </c>
       <c r="AC34">
-        <v>-1.444755341468499</v>
+        <v>-1.541384855682095</v>
       </c>
       <c r="AD34">
-        <v>0.1368357397250111</v>
+        <v>-0.117788829888518</v>
       </c>
       <c r="AE34">
-        <v>0.09050776698159643</v>
+        <v>0.09189672781852161</v>
       </c>
       <c r="AF34">
-        <v>-0.0004330567018003363</v>
+        <v>0.002546975611859914</v>
       </c>
       <c r="AG34">
-        <v>-0.1822010824924113</v>
+        <v>-0.1728731163874563</v>
       </c>
       <c r="AH34">
-        <v>0.003706916027335392</v>
+        <v>-0.008622562122955138</v>
       </c>
       <c r="AI34">
-        <v>0.01910717962748977</v>
+        <v>0.01769781137481874</v>
       </c>
       <c r="AJ34">
-        <v>-0.1774313117177728</v>
+        <v>-0.1681522559305653</v>
       </c>
       <c r="AK34">
-        <v>-8.750002028723262</v>
+        <v>-8.749999995968244</v>
       </c>
       <c r="AL34">
-        <v>-6.249714896525097</v>
+        <v>-6.155288248133185</v>
       </c>
       <c r="AM34">
-        <v>7682.468788910533</v>
+        <v>7677.917287163109</v>
       </c>
       <c r="AN34">
-        <v>7690.524079754785</v>
+        <v>7685.965187053237</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.2205885370281352</v>
+        <v>0.2206286849559186</v>
       </c>
       <c r="AQ34">
-        <v>126.6436061741135</v>
+        <v>126.682158938296</v>
       </c>
       <c r="AR34">
-        <v>139.7837710853574</v>
+        <v>139.8432373493952</v>
       </c>
       <c r="AS34">
-        <v>546.1950030647583</v>
+        <v>735.4012770984375</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -5686,144 +5686,144 @@
         <v>5</v>
       </c>
       <c r="AX34">
-        <v>2599.9</v>
+        <v>2599.3</v>
       </c>
     </row>
     <row r="35" spans="1:50">
       <c r="A35" s="1">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B35">
-        <v>25910</v>
+        <v>25904</v>
       </c>
       <c r="C35">
-        <v>6.715630148937537</v>
+        <v>6.813598657795316</v>
       </c>
       <c r="D35">
-        <v>2.251191107942829</v>
+        <v>2.250827950833789</v>
       </c>
       <c r="E35">
-        <v>0.63229574918104</v>
+        <v>0.6268867148719318</v>
       </c>
       <c r="F35">
-        <v>389.9588845870904</v>
+        <v>389.1972350444651</v>
       </c>
       <c r="G35">
-        <v>427.7617571791388</v>
+        <v>428.5842958183856</v>
       </c>
       <c r="H35">
-        <v>423.3806473450394</v>
+        <v>423.4252459273284</v>
       </c>
       <c r="I35">
-        <v>426.3402790737688</v>
+        <v>426.3631262542704</v>
       </c>
       <c r="J35">
-        <v>79.28477080957921</v>
+        <v>79.2852880112609</v>
       </c>
       <c r="K35">
-        <v>78.29859144973146</v>
+        <v>78.30383054481428</v>
       </c>
       <c r="L35">
-        <v>62.95378962993483</v>
+        <v>62.94354529685218</v>
       </c>
       <c r="M35">
-        <v>75.81793881815206</v>
+        <v>75.81597664707395</v>
       </c>
       <c r="N35">
-        <v>62.97569376795618</v>
+        <v>62.97772670986584</v>
       </c>
       <c r="O35">
-        <v>76.26098271776767</v>
+        <v>76.26260721571148</v>
       </c>
       <c r="P35">
-        <v>348.8622788714189</v>
+        <v>348.7973368053412</v>
       </c>
       <c r="Q35">
-        <v>380.0096253316952</v>
+        <v>379.9382952729076</v>
       </c>
       <c r="R35">
-        <v>0.6232507604510252</v>
+        <v>0.6279351097933856</v>
       </c>
       <c r="S35">
-        <v>-0.6371817240874699</v>
+        <v>-0.650665624439098</v>
       </c>
       <c r="T35">
-        <v>-0.268244162384504</v>
+        <v>-0.1978298634095623</v>
       </c>
       <c r="U35">
         <v>120320</v>
       </c>
       <c r="V35">
-        <v>42161.18759709347</v>
+        <v>42160.58765701012</v>
       </c>
       <c r="W35">
-        <v>1.422879434727178</v>
+        <v>1.082348248833325</v>
       </c>
       <c r="X35">
-        <v>5.903340021746436</v>
+        <v>6.771268836157065</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>51.80777241230033</v>
+        <v>51.80777633286559</v>
       </c>
       <c r="AA35">
-        <v>5.389725179112157</v>
+        <v>5.388940464366993</v>
       </c>
       <c r="AB35">
-        <v>0.50387077840932</v>
+        <v>0.4271396351713972</v>
       </c>
       <c r="AC35">
-        <v>-1.434616160177011</v>
+        <v>-1.524989502126349</v>
       </c>
       <c r="AD35">
-        <v>0.164925509870845</v>
+        <v>-0.06546548333463363</v>
       </c>
       <c r="AE35">
-        <v>0.09062657681560427</v>
+        <v>0.09153524886436633</v>
       </c>
       <c r="AF35">
-        <v>-0.0003650574069320268</v>
+        <v>0.002772657328801774</v>
       </c>
       <c r="AG35">
-        <v>-0.1820907437050641</v>
+        <v>-0.1742356010071004</v>
       </c>
       <c r="AH35">
-        <v>0.005851126526446575</v>
+        <v>-0.006659217695133997</v>
       </c>
       <c r="AI35">
-        <v>0.01995271045308174</v>
+        <v>0.01840482583384134</v>
       </c>
       <c r="AJ35">
-        <v>-0.1773522574837298</v>
+        <v>-0.1695034904582997</v>
       </c>
       <c r="AK35">
-        <v>-8.750000488327901</v>
+        <v>-8.749999905742367</v>
       </c>
       <c r="AL35">
-        <v>-6.249983205409283</v>
+        <v>-6.189753682453525</v>
       </c>
       <c r="AM35">
-        <v>7683.024984213483</v>
+        <v>7678.836773572284</v>
       </c>
       <c r="AN35">
-        <v>7691.162694147176</v>
+        <v>7686.831224565609</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.2205942415588667</v>
+        <v>0.2206841987966281</v>
       </c>
       <c r="AQ35">
-        <v>126.6458681567239</v>
+        <v>126.7125478440293</v>
       </c>
       <c r="AR35">
-        <v>139.7928181091075</v>
+        <v>139.8681039160065</v>
       </c>
       <c r="AS35">
-        <v>513.7818439845657</v>
+        <v>706.0622331925747</v>
       </c>
       <c r="AT35">
         <v>0</v>
@@ -5838,144 +5838,144 @@
         <v>5</v>
       </c>
       <c r="AX35">
-        <v>2600</v>
+        <v>2599.4</v>
       </c>
     </row>
     <row r="36" spans="1:50">
       <c r="A36" s="1">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B36">
-        <v>25911</v>
+        <v>25905</v>
       </c>
       <c r="C36">
-        <v>6.712118153218205</v>
+        <v>6.78916051679572</v>
       </c>
       <c r="D36">
-        <v>2.251239223187775</v>
+        <v>2.250803514901247</v>
       </c>
       <c r="E36">
-        <v>0.6341363958749423</v>
+        <v>0.6281272696898308</v>
       </c>
       <c r="F36">
-        <v>389.9987271289549</v>
+        <v>389.3094741842801</v>
       </c>
       <c r="G36">
-        <v>427.6877988853774</v>
+        <v>428.3529124932708</v>
       </c>
       <c r="H36">
-        <v>423.3620469616057</v>
+        <v>423.4211372070121</v>
       </c>
       <c r="I36">
-        <v>426.3352619270482</v>
+        <v>426.3681929278245</v>
       </c>
       <c r="J36">
-        <v>79.28379763926839</v>
+        <v>79.2854142239151</v>
       </c>
       <c r="K36">
-        <v>78.29909810561139</v>
+        <v>78.30283186243744</v>
       </c>
       <c r="L36">
-        <v>62.9563944211526</v>
+        <v>62.94438275785476</v>
       </c>
       <c r="M36">
-        <v>75.81984456271074</v>
+        <v>75.81543014551292</v>
       </c>
       <c r="N36">
-        <v>62.97698446507115</v>
+        <v>62.97471298081802</v>
       </c>
       <c r="O36">
-        <v>76.26092743828704</v>
+        <v>76.26062323481422</v>
       </c>
       <c r="P36">
-        <v>348.8731121693947</v>
+        <v>348.8081509574018</v>
       </c>
       <c r="Q36">
-        <v>380.0215055483309</v>
+        <v>379.9501939649213</v>
       </c>
       <c r="R36">
-        <v>0.6222367579980557</v>
+        <v>0.6279365866780193</v>
       </c>
       <c r="S36">
-        <v>-0.6369468180658714</v>
+        <v>-0.6479196486684092</v>
       </c>
       <c r="T36">
-        <v>-0.2898486081246193</v>
+        <v>-0.1998921046782152</v>
       </c>
       <c r="U36">
         <v>120320</v>
       </c>
       <c r="V36">
-        <v>42161.28759425476</v>
+        <v>42160.68764377262</v>
       </c>
       <c r="W36">
-        <v>1.469338863115787</v>
+        <v>1.125848902222224</v>
       </c>
       <c r="X36">
-        <v>5.762729217378901</v>
+        <v>6.622628321171835</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>51.8077716999995</v>
+        <v>51.80777572124794</v>
       </c>
       <c r="AA36">
-        <v>5.389855908172637</v>
+        <v>5.389071289505143</v>
       </c>
       <c r="AB36">
-        <v>0.4203217040461666</v>
+        <v>0.5142554060587334</v>
       </c>
       <c r="AC36">
-        <v>-1.427625439048804</v>
+        <v>-1.50834050190629</v>
       </c>
       <c r="AD36">
-        <v>0.1965682587251456</v>
+        <v>-0.01130599207307646</v>
       </c>
       <c r="AE36">
-        <v>0.09072761554256249</v>
+        <v>0.09113627559646943</v>
       </c>
       <c r="AF36">
-        <v>-8.568835133256814e-05</v>
+        <v>0.002507511339041976</v>
       </c>
       <c r="AG36">
-        <v>-0.1817099346592648</v>
+        <v>-0.1761040071759008</v>
       </c>
       <c r="AH36">
-        <v>0.00793560223815803</v>
+        <v>-0.004703671928510903</v>
       </c>
       <c r="AI36">
-        <v>0.02090907244040487</v>
+        <v>0.01872942749336565</v>
       </c>
       <c r="AJ36">
-        <v>-0.1770098739304652</v>
+        <v>-0.1713455300770847</v>
       </c>
       <c r="AK36">
-        <v>-8.749995581782866</v>
+        <v>-8.749999733790091</v>
       </c>
       <c r="AL36">
-        <v>-6.24997416522714</v>
+        <v>-6.216473172459886</v>
       </c>
       <c r="AM36">
-        <v>7683.539647028998</v>
+        <v>7679.697636619516</v>
       </c>
       <c r="AN36">
-        <v>7691.729332389637</v>
+        <v>7687.631302691461</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.2206281300478888</v>
+        <v>0.2207105804696287</v>
       </c>
       <c r="AQ36">
-        <v>126.6656542734957</v>
+        <v>126.725609116114</v>
       </c>
       <c r="AR36">
-        <v>139.8188221101076</v>
+        <v>139.872222975004</v>
       </c>
       <c r="AS36">
-        <v>481.1324386090038</v>
+        <v>675.2722553676489</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -5990,144 +5990,144 @@
         <v>5</v>
       </c>
       <c r="AX36">
-        <v>2600.1</v>
+        <v>2599.5</v>
       </c>
     </row>
     <row r="37" spans="1:50">
       <c r="A37" s="1">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B37">
-        <v>25912</v>
+        <v>25906</v>
       </c>
       <c r="C37">
-        <v>6.709505297095212</v>
+        <v>6.766205341895567</v>
       </c>
       <c r="D37">
-        <v>2.251185480418868</v>
+        <v>2.250805748361566</v>
       </c>
       <c r="E37">
-        <v>0.6361229830282894</v>
+        <v>0.6291125446076091</v>
       </c>
       <c r="F37">
-        <v>389.9947799709412</v>
+        <v>389.4439440366726</v>
       </c>
       <c r="G37">
-        <v>427.6120988287387</v>
+        <v>428.1245370463664</v>
       </c>
       <c r="H37">
-        <v>423.334645249013</v>
+        <v>423.4098204689269</v>
       </c>
       <c r="I37">
-        <v>426.3486390575277</v>
+        <v>426.3802013853062</v>
       </c>
       <c r="J37">
-        <v>79.28306087996522</v>
+        <v>79.28593233673591</v>
       </c>
       <c r="K37">
-        <v>78.29957518838648</v>
+        <v>78.30131719181</v>
       </c>
       <c r="L37">
-        <v>62.95824668026497</v>
+        <v>62.94515220359195</v>
       </c>
       <c r="M37">
-        <v>75.82152603253159</v>
+        <v>75.8147932842096</v>
       </c>
       <c r="N37">
-        <v>62.97827200778185</v>
+        <v>62.97253351573716</v>
       </c>
       <c r="O37">
-        <v>76.26100758086422</v>
+        <v>76.25972832614265</v>
       </c>
       <c r="P37">
-        <v>348.8839453577273</v>
+        <v>348.8189688447362</v>
       </c>
       <c r="Q37">
-        <v>380.0333836621873</v>
+        <v>379.9620863131726</v>
       </c>
       <c r="R37">
-        <v>0.6222623202363941</v>
+        <v>0.6277838186470616</v>
       </c>
       <c r="S37">
-        <v>-0.6369101397222372</v>
+        <v>-0.6447155439653091</v>
       </c>
       <c r="T37">
-        <v>-0.3084085021668407</v>
+        <v>-0.2043280813668512</v>
       </c>
       <c r="U37">
         <v>120320</v>
       </c>
       <c r="V37">
-        <v>42161.38759141604</v>
+        <v>42160.78763053511</v>
       </c>
       <c r="W37">
-        <v>1.508925977528809</v>
+        <v>1.179765104083626</v>
       </c>
       <c r="X37">
-        <v>5.622626261243816</v>
+        <v>6.475686601951777</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>51.80777098191237</v>
+        <v>51.80777509842116</v>
       </c>
       <c r="AA37">
-        <v>5.389986631226838</v>
+        <v>5.389202104422666</v>
       </c>
       <c r="AB37">
-        <v>0.3524636706842535</v>
+        <v>0.6039415459443429</v>
       </c>
       <c r="AC37">
-        <v>-1.422735322498184</v>
+        <v>-1.491201377806298</v>
       </c>
       <c r="AD37">
-        <v>0.2305708018854735</v>
+        <v>0.03812624975900531</v>
       </c>
       <c r="AE37">
-        <v>0.09076075505993726</v>
+        <v>0.09077989585901386</v>
       </c>
       <c r="AF37">
-        <v>0.0001619809386615131</v>
+        <v>0.001748305475341908</v>
       </c>
       <c r="AG37">
-        <v>-0.1813072869602293</v>
+        <v>-0.1782686225765497</v>
       </c>
       <c r="AH37">
-        <v>0.009944626487300002</v>
+        <v>-0.002695033742412895</v>
       </c>
       <c r="AI37">
-        <v>0.0217433036803458</v>
+        <v>0.01869780864004286</v>
       </c>
       <c r="AJ37">
-        <v>-0.1766532654264472</v>
+        <v>-0.1734842247140072</v>
       </c>
       <c r="AK37">
-        <v>-8.74999048962343</v>
+        <v>-8.749999713148737</v>
       </c>
       <c r="AL37">
-        <v>-6.249969338762425</v>
+        <v>-6.234162124128368</v>
       </c>
       <c r="AM37">
-        <v>7683.999735434795</v>
+        <v>7680.491418917623</v>
       </c>
       <c r="AN37">
-        <v>7692.199896204131</v>
+        <v>7688.389405438946</v>
       </c>
       <c r="AO37">
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.2206833847404309</v>
+        <v>0.2206977311023285</v>
       </c>
       <c r="AQ37">
-        <v>126.6992681983637</v>
+        <v>126.7152338785859</v>
       </c>
       <c r="AR37">
-        <v>139.8571243777655</v>
+        <v>139.8534557603758</v>
       </c>
       <c r="AS37">
-        <v>448.0135344020851</v>
+        <v>643.423187811057</v>
       </c>
       <c r="AT37">
         <v>0</v>
@@ -6142,144 +6142,144 @@
         <v>5</v>
       </c>
       <c r="AX37">
-        <v>2600.2</v>
+        <v>2599.6</v>
       </c>
     </row>
     <row r="38" spans="1:50">
       <c r="A38" s="1">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B38">
-        <v>25913</v>
+        <v>25907</v>
       </c>
       <c r="C38">
-        <v>6.70751370193883</v>
+        <v>6.746488091733595</v>
       </c>
       <c r="D38">
-        <v>2.251040029682448</v>
+        <v>2.25084745279473</v>
       </c>
       <c r="E38">
-        <v>0.6377118390524732</v>
+        <v>0.6297204256363694</v>
       </c>
       <c r="F38">
-        <v>389.9611155373603</v>
+        <v>389.5918928892517</v>
       </c>
       <c r="G38">
-        <v>427.5697847841071</v>
+        <v>427.9589799685073</v>
       </c>
       <c r="H38">
-        <v>423.3072695312476</v>
+        <v>423.398296599721</v>
       </c>
       <c r="I38">
-        <v>426.374506585558</v>
+        <v>426.3867448843918</v>
       </c>
       <c r="J38">
-        <v>79.2825502138257</v>
+        <v>79.28639269549227</v>
       </c>
       <c r="K38">
-        <v>78.29989210831455</v>
+        <v>78.29980518748951</v>
       </c>
       <c r="L38">
-        <v>62.95927309086249</v>
+        <v>62.9462668095764</v>
       </c>
       <c r="M38">
-        <v>75.82269454119432</v>
+        <v>75.81449436553072</v>
       </c>
       <c r="N38">
-        <v>62.97962265442256</v>
+        <v>62.97198041425179</v>
       </c>
       <c r="O38">
-        <v>76.26145295404602</v>
+        <v>76.25980721423942</v>
       </c>
       <c r="P38">
-        <v>348.8947776109366</v>
+        <v>348.8297908417609</v>
       </c>
       <c r="Q38">
-        <v>380.0452606006535</v>
+        <v>379.9739740626162</v>
       </c>
       <c r="R38">
-        <v>0.62326878404354</v>
+        <v>0.6272902964862024</v>
       </c>
       <c r="S38">
-        <v>-0.6369206675587197</v>
+        <v>-0.6416742116360765</v>
       </c>
       <c r="T38">
-        <v>-0.3223638541329296</v>
+        <v>-0.2131018348577566</v>
       </c>
       <c r="U38">
         <v>120320</v>
       </c>
       <c r="V38">
-        <v>42161.48758857732</v>
+        <v>42160.88761729761</v>
       </c>
       <c r="W38">
-        <v>1.543281343492788</v>
+        <v>1.241888685494908</v>
       </c>
       <c r="X38">
-        <v>5.482998899085028</v>
+        <v>6.330469242949743</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>51.80777026071487</v>
+        <v>51.80777445824088</v>
       </c>
       <c r="AA38">
-        <v>5.390117352715751</v>
+        <v>5.389332903034824</v>
       </c>
       <c r="AB38">
-        <v>0.3006808138400853</v>
+        <v>0.6565497141334458</v>
       </c>
       <c r="AC38">
-        <v>-1.418661897681963</v>
+        <v>-1.474111324062052</v>
       </c>
       <c r="AD38">
-        <v>0.2637731545793213</v>
+        <v>0.0783828531788691</v>
       </c>
       <c r="AE38">
-        <v>0.09072989276760125</v>
+        <v>0.09054014770769502</v>
       </c>
       <c r="AF38">
-        <v>0.000266122710456268</v>
+        <v>0.0007588542485547821</v>
       </c>
       <c r="AG38">
-        <v>-0.1808420126145834</v>
+        <v>-0.1802793318936279</v>
       </c>
       <c r="AH38">
-        <v>0.01188332878109628</v>
+        <v>-0.0006090837843374267</v>
       </c>
       <c r="AI38">
-        <v>0.02236511354025602</v>
+        <v>0.01854993103329575</v>
       </c>
       <c r="AJ38">
-        <v>-0.1762421058206589</v>
+        <v>-0.1754824792919573</v>
       </c>
       <c r="AK38">
-        <v>-8.749993774624718</v>
+        <v>-8.750000215573772</v>
       </c>
       <c r="AL38">
-        <v>-6.249990167919661</v>
+        <v>-6.243944006663576</v>
       </c>
       <c r="AM38">
-        <v>7684.38185322251</v>
+        <v>7681.213806601631</v>
       </c>
       <c r="AN38">
-        <v>7692.562060137619</v>
+        <v>7689.123601357849</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.2207543606990957</v>
+        <v>0.2206568655658249</v>
       </c>
       <c r="AQ38">
-        <v>126.7431645181437</v>
+        <v>126.6882460360089</v>
       </c>
       <c r="AR38">
-        <v>139.904642285765</v>
+        <v>139.8221689685727</v>
       </c>
       <c r="AS38">
-        <v>414.2389553276246</v>
+        <v>611.0531186674037</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -6294,144 +6294,144 @@
         <v>5</v>
       </c>
       <c r="AX38">
-        <v>2600.3</v>
+        <v>2599.7</v>
       </c>
     </row>
     <row r="39" spans="1:50">
       <c r="A39" s="1">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B39">
-        <v>25914</v>
+        <v>25908</v>
       </c>
       <c r="C39">
-        <v>6.707150002762569</v>
+        <v>6.731466082414756</v>
       </c>
       <c r="D39">
-        <v>2.250843235915346</v>
+        <v>2.250941410257724</v>
       </c>
       <c r="E39">
-        <v>0.6384703631383749</v>
+        <v>0.6302028337262898</v>
       </c>
       <c r="F39">
-        <v>389.9093484859144</v>
+        <v>389.7405221636861</v>
       </c>
       <c r="G39">
-        <v>427.5916921434794</v>
+        <v>427.8676655908961</v>
       </c>
       <c r="H39">
-        <v>423.2893264873386</v>
+        <v>423.3918838412041</v>
       </c>
       <c r="I39">
-        <v>426.4031082606459</v>
+        <v>426.3789673113201</v>
       </c>
       <c r="J39">
-        <v>79.28220691784698</v>
+        <v>79.28637551640851</v>
       </c>
       <c r="K39">
-        <v>78.30007202579763</v>
+        <v>78.2987464827287</v>
       </c>
       <c r="L39">
-        <v>62.95958188853918</v>
+        <v>62.94816173689455</v>
       </c>
       <c r="M39">
-        <v>75.82306622578338</v>
+        <v>75.81492505611303</v>
       </c>
       <c r="N39">
-        <v>62.98094961814574</v>
+        <v>62.97282526410375</v>
       </c>
       <c r="O39">
-        <v>76.26226501110932</v>
+        <v>76.26036103545196</v>
       </c>
       <c r="P39">
-        <v>348.9056084261723</v>
+        <v>348.8406169673765</v>
       </c>
       <c r="Q39">
-        <v>380.0571381476575</v>
+        <v>379.9858592755493</v>
       </c>
       <c r="R39">
-        <v>0.6246633214304876</v>
+        <v>0.6262891037817317</v>
       </c>
       <c r="S39">
-        <v>-0.6369259018331674</v>
+        <v>-0.6393291268342775</v>
       </c>
       <c r="T39">
-        <v>-0.3316414217164611</v>
+        <v>-0.2272861436784402</v>
       </c>
       <c r="U39">
         <v>120320</v>
       </c>
       <c r="V39">
-        <v>42161.58758573861</v>
+        <v>42160.9876040601</v>
       </c>
       <c r="W39">
-        <v>1.573805567262825</v>
+        <v>1.306768160471875</v>
       </c>
       <c r="X39">
-        <v>5.343834108329137</v>
+        <v>6.186870326874934</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>51.80776953454439</v>
+        <v>51.80777379653971</v>
       </c>
       <c r="AA39">
-        <v>5.390248077367385</v>
+        <v>5.389463681190644</v>
       </c>
       <c r="AB39">
-        <v>0.2628412874293304</v>
+        <v>0.6495584421601902</v>
       </c>
       <c r="AC39">
-        <v>-1.414572855547281</v>
+        <v>-1.458196860745709</v>
       </c>
       <c r="AD39">
-        <v>0.2933111316771503</v>
+        <v>0.1097667097450855</v>
       </c>
       <c r="AE39">
-        <v>0.09066878251573041</v>
+        <v>0.0904555034958882</v>
       </c>
       <c r="AF39">
-        <v>0.0002377399689959767</v>
+        <v>-6.112269714380677e-05</v>
       </c>
       <c r="AG39">
-        <v>-0.1801233050743715</v>
+        <v>-0.1816589772867313</v>
       </c>
       <c r="AH39">
-        <v>0.01376823177753274</v>
+        <v>0.001538338738404079</v>
       </c>
       <c r="AI39">
-        <v>0.02280679878959935</v>
+        <v>0.01861897003674248</v>
       </c>
       <c r="AJ39">
-        <v>-0.1755829319378524</v>
+        <v>-0.1768679452782986</v>
       </c>
       <c r="AK39">
-        <v>-8.750011588169949</v>
+        <v>-8.750001296251282</v>
       </c>
       <c r="AL39">
-        <v>-6.250006981602008</v>
+        <v>-6.248288978878196</v>
       </c>
       <c r="AM39">
-        <v>7684.665773432269</v>
+        <v>7681.869016834461</v>
       </c>
       <c r="AN39">
-        <v>7692.825780151585</v>
+        <v>7689.838169378504</v>
       </c>
       <c r="AO39">
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.2208389168885961</v>
+        <v>0.2206128389244487</v>
       </c>
       <c r="AQ39">
-        <v>126.794652828183</v>
+        <v>126.6597721530826</v>
       </c>
       <c r="AR39">
-        <v>139.9604226344749</v>
+        <v>139.794759461266</v>
       </c>
       <c r="AS39">
-        <v>379.6694024375746</v>
+        <v>578.5899236937751</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -6446,144 +6446,144 @@
         <v>5</v>
       </c>
       <c r="AX39">
-        <v>2600.4</v>
+        <v>2599.8</v>
       </c>
     </row>
     <row r="40" spans="1:50">
       <c r="A40" s="1">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B40">
-        <v>25915</v>
+        <v>25909</v>
       </c>
       <c r="C40">
-        <v>6.7098410275479</v>
+        <v>6.721500116035082</v>
       </c>
       <c r="D40">
-        <v>2.250647528279813</v>
+        <v>2.251072496790624</v>
       </c>
       <c r="E40">
-        <v>0.6383626254153948</v>
+        <v>0.6309703728685537</v>
       </c>
       <c r="F40">
-        <v>389.8414570599821</v>
+        <v>389.8696609389175</v>
       </c>
       <c r="G40">
-        <v>427.6909616056221</v>
+        <v>427.8162640767897</v>
       </c>
       <c r="H40">
-        <v>423.2842019408746</v>
+        <v>423.3885985550868</v>
       </c>
       <c r="I40">
-        <v>426.4288571400211</v>
+        <v>426.3592654052004</v>
       </c>
       <c r="J40">
-        <v>79.28210771620057</v>
+        <v>79.28575654045024</v>
       </c>
       <c r="K40">
-        <v>78.30015997581178</v>
+        <v>78.29836898256183</v>
       </c>
       <c r="L40">
-        <v>62.95928306912012</v>
+        <v>62.95083401016932</v>
       </c>
       <c r="M40">
-        <v>75.82244585801809</v>
+        <v>75.81616248569478</v>
       </c>
       <c r="N40">
-        <v>62.98218265500186</v>
+        <v>62.97426578736803</v>
       </c>
       <c r="O40">
-        <v>76.26330091365176</v>
+        <v>76.26083989917348</v>
       </c>
       <c r="P40">
-        <v>348.9164373555351</v>
+        <v>348.8514466801804</v>
       </c>
       <c r="Q40">
-        <v>380.0690184521466</v>
+        <v>379.9977430606625</v>
       </c>
       <c r="R40">
-        <v>0.6257625487261814</v>
+        <v>0.6248141901550743</v>
       </c>
       <c r="S40">
-        <v>-0.6369229498686404</v>
+        <v>-0.6378779488268381</v>
       </c>
       <c r="T40">
-        <v>-0.3373612919730243</v>
+        <v>-0.2463765421421233</v>
       </c>
       <c r="U40">
         <v>120320</v>
       </c>
       <c r="V40">
-        <v>42161.6875828999</v>
+        <v>42161.08759993219</v>
       </c>
       <c r="W40">
-        <v>1.601940479914461</v>
+        <v>1.368396705820358</v>
       </c>
       <c r="X40">
-        <v>5.205064179793468</v>
+        <v>6.044616341395498</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>51.80776879614969</v>
+        <v>51.80777311321521</v>
       </c>
       <c r="AA40">
-        <v>5.390378812226954</v>
+        <v>5.389594438660878</v>
       </c>
       <c r="AB40">
-        <v>0.2418596935711816</v>
+        <v>0.5895420216293403</v>
       </c>
       <c r="AC40">
-        <v>-1.410349638246565</v>
+        <v>-1.444755341468499</v>
       </c>
       <c r="AD40">
-        <v>0.3175121498035037</v>
+        <v>0.1368357397250111</v>
       </c>
       <c r="AE40">
-        <v>0.09059732929901143</v>
+        <v>0.09050776698159643</v>
       </c>
       <c r="AF40">
-        <v>0.0001163925301391128</v>
+        <v>-0.0004330567018003363</v>
       </c>
       <c r="AG40">
-        <v>-0.1790771484610926</v>
+        <v>-0.1822010824924113</v>
       </c>
       <c r="AH40">
-        <v>0.01561255306463392</v>
+        <v>0.003706916027335392</v>
       </c>
       <c r="AI40">
-        <v>0.02312681980026846</v>
+        <v>0.01910717962748977</v>
       </c>
       <c r="AJ40">
-        <v>-0.1745971315726651</v>
+        <v>-0.1774313117177728</v>
       </c>
       <c r="AK40">
-        <v>-8.750031564109143</v>
+        <v>-8.750002028723262</v>
       </c>
       <c r="AL40">
-        <v>-6.250009289498531</v>
+        <v>-6.249714896525097</v>
       </c>
       <c r="AM40">
-        <v>7684.848062037842</v>
+        <v>7682.468788910533</v>
       </c>
       <c r="AN40">
-        <v>7693.023247654271</v>
+        <v>7690.524079754785</v>
       </c>
       <c r="AO40">
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.2209382163262582</v>
+        <v>0.2205885370281352</v>
       </c>
       <c r="AQ40">
-        <v>126.852279308087</v>
+        <v>126.6436061741135</v>
       </c>
       <c r="AR40">
-        <v>140.0251881664958</v>
+        <v>139.7837710853574</v>
       </c>
       <c r="AS40">
-        <v>344.2027544914009</v>
+        <v>546.1950030647583</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -6598,144 +6598,144 @@
         <v>5</v>
       </c>
       <c r="AX40">
-        <v>2600.5</v>
+        <v>2599.9</v>
       </c>
     </row>
     <row r="41" spans="1:50">
       <c r="A41" s="1">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B41">
-        <v>25916</v>
+        <v>25910</v>
       </c>
       <c r="C41">
-        <v>6.716120817482043</v>
+        <v>6.715630148937537</v>
       </c>
       <c r="D41">
-        <v>2.250506712899162</v>
+        <v>2.251191107942829</v>
       </c>
       <c r="E41">
-        <v>0.637817786392293</v>
+        <v>0.63229574918104</v>
       </c>
       <c r="F41">
-        <v>389.7505212639675</v>
+        <v>389.9588845870904</v>
       </c>
       <c r="G41">
-        <v>427.8596406682427</v>
+        <v>427.7617571791388</v>
       </c>
       <c r="H41">
-        <v>423.2871499652445</v>
+        <v>423.3806473450394</v>
       </c>
       <c r="I41">
-        <v>426.4538126757563</v>
+        <v>426.3402790737688</v>
       </c>
       <c r="J41">
-        <v>79.2824185597767</v>
+        <v>79.28477080957921</v>
       </c>
       <c r="K41">
-        <v>78.30016138424894</v>
+        <v>78.29859144973146</v>
       </c>
       <c r="L41">
-        <v>62.95842939438015</v>
+        <v>62.95378962993483</v>
       </c>
       <c r="M41">
-        <v>75.82090315273581</v>
+        <v>75.81793881815206</v>
       </c>
       <c r="N41">
-        <v>62.9833950229451</v>
+        <v>62.97569376795618</v>
       </c>
       <c r="O41">
-        <v>76.26438595750326</v>
+        <v>76.26098271776767</v>
       </c>
       <c r="P41">
-        <v>348.9272637589036</v>
+        <v>348.8622788714189</v>
       </c>
       <c r="Q41">
-        <v>380.0809034421652</v>
+        <v>380.0096253316952</v>
       </c>
       <c r="R41">
-        <v>0.6262465672867721</v>
+        <v>0.6232507604510252</v>
       </c>
       <c r="S41">
-        <v>-0.6369197857271066</v>
+        <v>-0.6371817240874699</v>
       </c>
       <c r="T41">
-        <v>-0.3413740733008552</v>
+        <v>-0.268244162384504</v>
       </c>
       <c r="U41">
         <v>120320</v>
       </c>
       <c r="V41">
-        <v>42161.78758006118</v>
+        <v>42161.18759709347</v>
       </c>
       <c r="W41">
-        <v>1.629680932728445</v>
+        <v>1.422879434727178</v>
       </c>
       <c r="X41">
-        <v>5.06657676266147</v>
+        <v>5.903340021746436</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>51.8077680336774</v>
+        <v>51.80777241230033</v>
       </c>
       <c r="AA41">
-        <v>5.39050956747696</v>
+        <v>5.389725179112157</v>
       </c>
       <c r="AB41">
-        <v>0.2443473025897099</v>
+        <v>0.50387077840932</v>
       </c>
       <c r="AC41">
-        <v>-1.406360628522645</v>
+        <v>-1.434616160177011</v>
       </c>
       <c r="AD41">
-        <v>0.3353759894871505</v>
+        <v>0.164925509870845</v>
       </c>
       <c r="AE41">
-        <v>0.09050087546281343</v>
+        <v>0.09062657681560427</v>
       </c>
       <c r="AF41">
-        <v>-9.208234172185942e-05</v>
+        <v>-0.0003650574069320268</v>
       </c>
       <c r="AG41">
-        <v>-0.1778724627775918</v>
+        <v>-0.1820907437050641</v>
       </c>
       <c r="AH41">
-        <v>0.0174191847905388</v>
+        <v>0.005851126526446575</v>
       </c>
       <c r="AI41">
-        <v>0.02335090657204864</v>
+        <v>0.01995271045308174</v>
       </c>
       <c r="AJ41">
-        <v>-0.1734511233113962</v>
+        <v>-0.1773522574837298</v>
       </c>
       <c r="AK41">
-        <v>-8.750024050852129</v>
+        <v>-8.750000488327901</v>
       </c>
       <c r="AL41">
-        <v>-6.2500039594686</v>
+        <v>-6.249983205409283</v>
       </c>
       <c r="AM41">
-        <v>7684.945502207082</v>
+        <v>7683.024984213483</v>
       </c>
       <c r="AN41">
-        <v>7693.192917535343</v>
+        <v>7691.162694147176</v>
       </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.2210550249136767</v>
+        <v>0.2205942415588667</v>
       </c>
       <c r="AQ41">
-        <v>126.9163894640115</v>
+        <v>126.6458681567239</v>
       </c>
       <c r="AR41">
-        <v>140.1002543965868</v>
+        <v>139.7928181091075</v>
       </c>
       <c r="AS41">
-        <v>307.8087411063124</v>
+        <v>513.7818439845657</v>
       </c>
       <c r="AT41">
         <v>0</v>
@@ -6750,144 +6750,144 @@
         <v>5</v>
       </c>
       <c r="AX41">
-        <v>2600.6</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="42" spans="1:50">
       <c r="A42" s="1">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B42">
-        <v>25917</v>
+        <v>25911</v>
       </c>
       <c r="C42">
-        <v>6.724830954172213</v>
+        <v>6.712118153218205</v>
       </c>
       <c r="D42">
-        <v>2.250463203248617</v>
+        <v>2.251239223187775</v>
       </c>
       <c r="E42">
-        <v>0.6374708000023476</v>
+        <v>0.6341363958749423</v>
       </c>
       <c r="F42">
-        <v>389.6291725833733</v>
+        <v>389.9987271289549</v>
       </c>
       <c r="G42">
-        <v>428.0710689529508</v>
+        <v>427.6877988853774</v>
       </c>
       <c r="H42">
-        <v>423.2889333124647</v>
+        <v>423.3620469616057</v>
       </c>
       <c r="I42">
-        <v>426.4847394821854</v>
+        <v>426.3352619270482</v>
       </c>
       <c r="J42">
-        <v>79.28317775829996</v>
+        <v>79.28379763926839</v>
       </c>
       <c r="K42">
-        <v>78.3000473105415</v>
+        <v>78.29909810561139</v>
       </c>
       <c r="L42">
-        <v>62.95709108237242</v>
+        <v>62.9563944211526</v>
       </c>
       <c r="M42">
-        <v>75.81880073222582</v>
+        <v>75.81984456271074</v>
       </c>
       <c r="N42">
-        <v>62.98465109195617</v>
+        <v>62.97698446507115</v>
       </c>
       <c r="O42">
-        <v>76.26531605585426</v>
+        <v>76.26092743828704</v>
       </c>
       <c r="P42">
-        <v>348.9380867914753</v>
+        <v>348.8731121693947</v>
       </c>
       <c r="Q42">
-        <v>380.0927943051916</v>
+        <v>380.0215055483309</v>
       </c>
       <c r="R42">
-        <v>0.6262722908407923</v>
+        <v>0.6222367579980557</v>
       </c>
       <c r="S42">
-        <v>-0.6369191757084783</v>
+        <v>-0.6369468180658714</v>
       </c>
       <c r="T42">
-        <v>-0.3457964561995802</v>
+        <v>-0.2898486081246193</v>
       </c>
       <c r="U42">
         <v>120320</v>
       </c>
       <c r="V42">
-        <v>42161.88757722246</v>
+        <v>42161.28759425476</v>
       </c>
       <c r="W42">
-        <v>1.659584612720876</v>
+        <v>1.469338863115787</v>
       </c>
       <c r="X42">
-        <v>4.928272648222372</v>
+        <v>5.762729217378901</v>
       </c>
       <c r="Y42">
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>51.80776723405423</v>
+        <v>51.8077716999995</v>
       </c>
       <c r="AA42">
-        <v>5.390640354447123</v>
+        <v>5.389855908172637</v>
       </c>
       <c r="AB42">
-        <v>0.2745633953365321</v>
+        <v>0.4203217040461666</v>
       </c>
       <c r="AC42">
-        <v>-1.403014993081092</v>
+        <v>-1.427625439048804</v>
       </c>
       <c r="AD42">
-        <v>0.3458012206572731</v>
+        <v>0.1965682587251456</v>
       </c>
       <c r="AE42">
-        <v>0.09034837176974506</v>
+        <v>0.09072761554256249</v>
       </c>
       <c r="AF42">
-        <v>-0.0004028798049263699</v>
+        <v>-8.568835133256814e-05</v>
       </c>
       <c r="AG42">
-        <v>-0.1768215884999701</v>
+        <v>-0.1817099346592648</v>
       </c>
       <c r="AH42">
-        <v>0.01918732648593465</v>
+        <v>0.00793560223815803</v>
       </c>
       <c r="AI42">
-        <v>0.02348773408598495</v>
+        <v>0.02090907244040487</v>
       </c>
       <c r="AJ42">
-        <v>-0.1724589334449251</v>
+        <v>-0.1770098739304652</v>
       </c>
       <c r="AK42">
-        <v>-8.750020952070228</v>
+        <v>-8.749995581782866</v>
       </c>
       <c r="AL42">
-        <v>-6.249999271559845</v>
+        <v>-6.24997416522714</v>
       </c>
       <c r="AM42">
-        <v>7684.986451642482</v>
+        <v>7683.539647028998</v>
       </c>
       <c r="AN42">
-        <v>7693.355875922408</v>
+        <v>7691.729332389637</v>
       </c>
       <c r="AO42">
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.2211905203873214</v>
+        <v>0.2206281300478888</v>
       </c>
       <c r="AQ42">
-        <v>126.9884505589554</v>
+        <v>126.6656542734957</v>
       </c>
       <c r="AR42">
-        <v>140.1855959708286</v>
+        <v>139.8188221101076</v>
       </c>
       <c r="AS42">
-        <v>270.5945315160934</v>
+        <v>481.1324386090038</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -6902,144 +6902,144 @@
         <v>5</v>
       </c>
       <c r="AX42">
-        <v>2600.7</v>
+        <v>2600.1</v>
       </c>
     </row>
     <row r="43" spans="1:50">
       <c r="A43" s="1">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B43">
-        <v>25918</v>
+        <v>25912</v>
       </c>
       <c r="C43">
-        <v>6.733473090495228</v>
+        <v>6.709505297095212</v>
       </c>
       <c r="D43">
-        <v>2.250527925639437</v>
+        <v>2.251185480418868</v>
       </c>
       <c r="E43">
-        <v>0.6377675484020727</v>
+        <v>0.6361229830282894</v>
       </c>
       <c r="F43">
-        <v>389.4810532361291</v>
+        <v>389.9947799709412</v>
       </c>
       <c r="G43">
-        <v>428.2853900404875</v>
+        <v>427.6120988287387</v>
       </c>
       <c r="H43">
-        <v>423.282718295296</v>
+        <v>423.334645249013</v>
       </c>
       <c r="I43">
-        <v>426.5257760598454</v>
+        <v>426.3486390575277</v>
       </c>
       <c r="J43">
-        <v>79.28416780910841</v>
+        <v>79.28306087996522</v>
       </c>
       <c r="K43">
-        <v>78.29976886592107</v>
+        <v>78.29957518838648</v>
       </c>
       <c r="L43">
-        <v>62.95547633671028</v>
+        <v>62.95824668026497</v>
       </c>
       <c r="M43">
-        <v>75.81663431209871</v>
+        <v>75.82152603253159</v>
       </c>
       <c r="N43">
-        <v>62.98578215131257</v>
+        <v>62.97827200778185</v>
       </c>
       <c r="O43">
-        <v>76.26581470647457</v>
+        <v>76.26100758086422</v>
       </c>
       <c r="P43">
-        <v>348.9489057096208</v>
+        <v>348.8839453577273</v>
       </c>
       <c r="Q43">
-        <v>380.1046911215816</v>
+        <v>380.0333836621873</v>
       </c>
       <c r="R43">
-        <v>0.6262337571235655</v>
+        <v>0.6222623202363941</v>
       </c>
       <c r="S43">
-        <v>-0.6369182434541661</v>
+        <v>-0.6369101397222372</v>
       </c>
       <c r="T43">
-        <v>-0.3525272333894037</v>
+        <v>-0.3084085021668407</v>
       </c>
       <c r="U43">
         <v>120320</v>
       </c>
       <c r="V43">
-        <v>42161.98757438375</v>
+        <v>42161.38759141604</v>
       </c>
       <c r="W43">
-        <v>1.694235413322737</v>
+        <v>1.508925977528809</v>
       </c>
       <c r="X43">
-        <v>4.790106792798329</v>
+        <v>5.622626261243816</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>51.80776638839958</v>
+        <v>51.80777098191237</v>
       </c>
       <c r="AA43">
-        <v>5.390771181188255</v>
+        <v>5.389986631226838</v>
       </c>
       <c r="AB43">
-        <v>0.3304550514837623</v>
+        <v>0.3524636706842535</v>
       </c>
       <c r="AC43">
-        <v>-1.400429449178804</v>
+        <v>-1.422735322498184</v>
       </c>
       <c r="AD43">
-        <v>0.3474550166895057</v>
+        <v>0.2305708018854735</v>
       </c>
       <c r="AE43">
-        <v>0.09012590794288969</v>
+        <v>0.09076075505993726</v>
       </c>
       <c r="AF43">
-        <v>-0.0008066162366272053</v>
+        <v>0.0001619809386615131</v>
       </c>
       <c r="AG43">
-        <v>-0.1761855351920158</v>
+        <v>-0.1813072869602293</v>
       </c>
       <c r="AH43">
-        <v>0.02092381407710555</v>
+        <v>0.009944626487300002</v>
       </c>
       <c r="AI43">
-        <v>0.02357457000022938</v>
+        <v>0.0217433036803458</v>
       </c>
       <c r="AJ43">
-        <v>-0.1718858401366248</v>
+        <v>-0.1766532654264472</v>
       </c>
       <c r="AK43">
-        <v>-8.750336649428675</v>
+        <v>-8.74999048962343</v>
       </c>
       <c r="AL43">
-        <v>-6.249997972257579</v>
+        <v>-6.249969338762425</v>
       </c>
       <c r="AM43">
-        <v>7684.998312594119</v>
+        <v>7683.999735434795</v>
       </c>
       <c r="AN43">
-        <v>7693.501821896319</v>
+        <v>7692.199896204131</v>
       </c>
       <c r="AO43">
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.2213412184510931</v>
+        <v>0.2206833847404309</v>
       </c>
       <c r="AQ43">
-        <v>127.068904023171</v>
+        <v>126.6992681983637</v>
       </c>
       <c r="AR43">
-        <v>140.2783453605956</v>
+        <v>139.8571243777655</v>
       </c>
       <c r="AS43">
-        <v>232.8508479327668</v>
+        <v>448.0135344020851</v>
       </c>
       <c r="AT43">
         <v>0</v>
@@ -7054,144 +7054,144 @@
         <v>5</v>
       </c>
       <c r="AX43">
-        <v>2600.8</v>
+        <v>2600.2</v>
       </c>
     </row>
     <row r="44" spans="1:50">
       <c r="A44" s="1">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B44">
-        <v>25919</v>
+        <v>25913</v>
       </c>
       <c r="C44">
-        <v>6.739438110435519</v>
+        <v>6.70751370193883</v>
       </c>
       <c r="D44">
-        <v>2.250670036069185</v>
+        <v>2.251040029682448</v>
       </c>
       <c r="E44">
-        <v>0.6387661440533576</v>
+        <v>0.6377118390524732</v>
       </c>
       <c r="F44">
-        <v>389.3273851701731</v>
+        <v>389.9611155373603</v>
       </c>
       <c r="G44">
-        <v>428.4593602815497</v>
+        <v>427.5697847841071</v>
       </c>
       <c r="H44">
-        <v>423.2693459368579</v>
+        <v>423.3072695312476</v>
       </c>
       <c r="I44">
-        <v>426.5722521616599</v>
+        <v>426.374506585558</v>
       </c>
       <c r="J44">
-        <v>79.28503744339602</v>
+        <v>79.2825502138257</v>
       </c>
       <c r="K44">
-        <v>78.29933375349415</v>
+        <v>78.29989210831455</v>
       </c>
       <c r="L44">
-        <v>62.95398530841589</v>
+        <v>62.95927309086249</v>
       </c>
       <c r="M44">
-        <v>75.81485777359541</v>
+        <v>75.82269454119432</v>
       </c>
       <c r="N44">
-        <v>62.98647332507625</v>
+        <v>62.97962265442256</v>
       </c>
       <c r="O44">
-        <v>76.26558906375246</v>
+        <v>76.26145295404602</v>
       </c>
       <c r="P44">
-        <v>348.9597203592088</v>
+        <v>348.8947776109366</v>
       </c>
       <c r="Q44">
-        <v>380.1165927704783</v>
+        <v>380.0452606006535</v>
       </c>
       <c r="R44">
-        <v>0.6263874628409537</v>
+        <v>0.62326878404354</v>
       </c>
       <c r="S44">
-        <v>-0.6369142671927169</v>
+        <v>-0.6369206675587197</v>
       </c>
       <c r="T44">
-        <v>-0.3627724089217811</v>
+        <v>-0.3223638541329296</v>
       </c>
       <c r="U44">
         <v>120320</v>
       </c>
       <c r="V44">
-        <v>42162.08757785075</v>
+        <v>42161.48758857732</v>
       </c>
       <c r="W44">
-        <v>1.735603345129122</v>
+        <v>1.543281343492788</v>
       </c>
       <c r="X44">
-        <v>4.652093975151412</v>
+        <v>5.482998899085028</v>
       </c>
       <c r="Y44">
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>51.80776549650967</v>
+        <v>51.80777026071487</v>
       </c>
       <c r="AA44">
-        <v>5.3909020484225</v>
+        <v>5.390117352715751</v>
       </c>
       <c r="AB44">
-        <v>0.4044077704762181</v>
+        <v>0.3006808138400853</v>
       </c>
       <c r="AC44">
-        <v>-1.398330668923321</v>
+        <v>-1.418661897681963</v>
       </c>
       <c r="AD44">
-        <v>0.3392463718471627</v>
+        <v>0.2637731545793213</v>
       </c>
       <c r="AE44">
-        <v>0.08985248761758879</v>
+        <v>0.09072989276760125</v>
       </c>
       <c r="AF44">
-        <v>-0.00125174229240232</v>
+        <v>0.000266122710456268</v>
       </c>
       <c r="AG44">
-        <v>-0.1760482350590088</v>
+        <v>-0.1808420126145834</v>
       </c>
       <c r="AH44">
-        <v>0.02264637918610992</v>
+        <v>0.01188332878109628</v>
       </c>
       <c r="AI44">
-        <v>0.02369267827214287</v>
+        <v>0.02236511354025602</v>
       </c>
       <c r="AJ44">
-        <v>-0.1718193067926682</v>
+        <v>-0.1762421058206589</v>
       </c>
       <c r="AK44">
-        <v>-8.751911485072293</v>
+        <v>-8.749993774624718</v>
       </c>
       <c r="AL44">
-        <v>-6.249998792455503</v>
+        <v>-6.249990167919661</v>
       </c>
       <c r="AM44">
-        <v>7684.999796596424</v>
+        <v>7684.38185322251</v>
       </c>
       <c r="AN44">
-        <v>7693.596402363532</v>
+        <v>7692.562060137619</v>
       </c>
       <c r="AO44">
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.2214988395216702</v>
+        <v>0.2207543606990957</v>
       </c>
       <c r="AQ44">
-        <v>127.1554597923028</v>
+        <v>126.7431645181437</v>
       </c>
       <c r="AR44">
-        <v>140.3732780253883</v>
+        <v>139.904642285765</v>
       </c>
       <c r="AS44">
-        <v>195.0664940257471</v>
+        <v>414.2389553276246</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -7206,144 +7206,144 @@
         <v>5</v>
       </c>
       <c r="AX44">
-        <v>2600.9</v>
+        <v>2600.3</v>
       </c>
     </row>
     <row r="45" spans="1:50">
       <c r="A45" s="1">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B45">
-        <v>25920</v>
+        <v>25914</v>
       </c>
       <c r="C45">
-        <v>6.741176247060313</v>
+        <v>6.707150002762569</v>
       </c>
       <c r="D45">
-        <v>2.250832374949814</v>
+        <v>2.250843235915346</v>
       </c>
       <c r="E45">
-        <v>0.6402549712798069</v>
+        <v>0.6384703631383749</v>
       </c>
       <c r="F45">
-        <v>389.2033284941218</v>
+        <v>389.9093484859144</v>
       </c>
       <c r="G45">
-        <v>428.5612493140421</v>
+        <v>427.5916921434794</v>
       </c>
       <c r="H45">
-        <v>423.2570120551649</v>
+        <v>423.2893264873386</v>
       </c>
       <c r="I45">
-        <v>426.6115575759603</v>
+        <v>426.4031082606459</v>
       </c>
       <c r="J45">
-        <v>79.28555870927296</v>
+        <v>79.28220691784698</v>
       </c>
       <c r="K45">
-        <v>78.29887069203392</v>
+        <v>78.30007202579763</v>
       </c>
       <c r="L45">
-        <v>62.95312331974501</v>
+        <v>62.95958188853918</v>
       </c>
       <c r="M45">
-        <v>75.81378164382531</v>
+        <v>75.82306622578338</v>
       </c>
       <c r="N45">
-        <v>62.98659570355625</v>
+        <v>62.98094961814574</v>
       </c>
       <c r="O45">
-        <v>76.26449976927672</v>
+        <v>76.26226501110932</v>
       </c>
       <c r="P45">
-        <v>348.9705315627781</v>
+        <v>348.9056084261723</v>
       </c>
       <c r="Q45">
-        <v>380.1284972496259</v>
+        <v>380.0571381476575</v>
       </c>
       <c r="R45">
-        <v>0.6266090643173187</v>
+        <v>0.6246633214304876</v>
       </c>
       <c r="S45">
-        <v>-0.6369107369776756</v>
+        <v>-0.6369259018331674</v>
       </c>
       <c r="T45">
-        <v>-0.3767690817346268</v>
+        <v>-0.3316414217164611</v>
       </c>
       <c r="U45">
         <v>120320</v>
       </c>
       <c r="V45">
-        <v>42162.18758221246</v>
+        <v>42161.58758573861</v>
       </c>
       <c r="W45">
-        <v>1.784701782874168</v>
+        <v>1.573805567262825</v>
       </c>
       <c r="X45">
-        <v>4.514305020791324</v>
+        <v>5.343834108329137</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>51.80776456698109</v>
+        <v>51.80776953454439</v>
       </c>
       <c r="AA45">
-        <v>5.391032949044624</v>
+        <v>5.390248077367385</v>
       </c>
       <c r="AB45">
-        <v>0.4867098768462156</v>
+        <v>0.2628412874293304</v>
       </c>
       <c r="AC45">
-        <v>-1.396111861712016</v>
+        <v>-1.414572855547281</v>
       </c>
       <c r="AD45">
-        <v>0.3208300008539498</v>
+        <v>0.2933111316771503</v>
       </c>
       <c r="AE45">
-        <v>0.08956697087524358</v>
+        <v>0.09066878251573041</v>
       </c>
       <c r="AF45">
-        <v>-0.001674599967000051</v>
+        <v>0.0002377399689959767</v>
       </c>
       <c r="AG45">
-        <v>-0.1763308136139576</v>
+        <v>-0.1801233050743715</v>
       </c>
       <c r="AH45">
-        <v>0.02437654909992492</v>
+        <v>0.01376823177753274</v>
       </c>
       <c r="AI45">
-        <v>0.02393254277653716</v>
+        <v>0.02280679878959935</v>
       </c>
       <c r="AJ45">
-        <v>-0.1721805059274788</v>
+        <v>-0.1755829319378524</v>
       </c>
       <c r="AK45">
-        <v>-8.756576654948033</v>
+        <v>-8.750011588169949</v>
       </c>
       <c r="AL45">
-        <v>-6.249999849401153</v>
+        <v>-6.250006981602008</v>
       </c>
       <c r="AM45">
-        <v>7684.999801578477</v>
+        <v>7684.665773432269</v>
       </c>
       <c r="AN45">
-        <v>7693.606192677138</v>
+        <v>7692.825780151585</v>
       </c>
       <c r="AO45">
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.221653583294029</v>
+        <v>0.2208389168885961</v>
       </c>
       <c r="AQ45">
-        <v>127.2434345830785</v>
+        <v>126.794652828183</v>
       </c>
       <c r="AR45">
-        <v>140.4649546736111</v>
+        <v>139.9604226344749</v>
       </c>
       <c r="AS45">
-        <v>157.9145088948749</v>
+        <v>379.6694024375746</v>
       </c>
       <c r="AT45">
         <v>0</v>
@@ -7358,6 +7358,918 @@
         <v>5</v>
       </c>
       <c r="AX45">
+        <v>2600.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50">
+      <c r="A46" s="1">
+        <v>514</v>
+      </c>
+      <c r="B46">
+        <v>25915</v>
+      </c>
+      <c r="C46">
+        <v>6.7098410275479</v>
+      </c>
+      <c r="D46">
+        <v>2.250647528279813</v>
+      </c>
+      <c r="E46">
+        <v>0.6383626254153948</v>
+      </c>
+      <c r="F46">
+        <v>389.8414570599821</v>
+      </c>
+      <c r="G46">
+        <v>427.6909616056221</v>
+      </c>
+      <c r="H46">
+        <v>423.2842019408746</v>
+      </c>
+      <c r="I46">
+        <v>426.4288571400211</v>
+      </c>
+      <c r="J46">
+        <v>79.28210771620057</v>
+      </c>
+      <c r="K46">
+        <v>78.30015997581178</v>
+      </c>
+      <c r="L46">
+        <v>62.95928306912012</v>
+      </c>
+      <c r="M46">
+        <v>75.82244585801809</v>
+      </c>
+      <c r="N46">
+        <v>62.98218265500186</v>
+      </c>
+      <c r="O46">
+        <v>76.26330091365176</v>
+      </c>
+      <c r="P46">
+        <v>348.9164373555351</v>
+      </c>
+      <c r="Q46">
+        <v>380.0690184521466</v>
+      </c>
+      <c r="R46">
+        <v>0.6257625487261814</v>
+      </c>
+      <c r="S46">
+        <v>-0.6369229498686404</v>
+      </c>
+      <c r="T46">
+        <v>-0.3373612919730243</v>
+      </c>
+      <c r="U46">
+        <v>120320</v>
+      </c>
+      <c r="V46">
+        <v>42161.6875828999</v>
+      </c>
+      <c r="W46">
+        <v>1.601940479914461</v>
+      </c>
+      <c r="X46">
+        <v>5.205064179793468</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>51.80776879614969</v>
+      </c>
+      <c r="AA46">
+        <v>5.390378812226954</v>
+      </c>
+      <c r="AB46">
+        <v>0.2418596935711816</v>
+      </c>
+      <c r="AC46">
+        <v>-1.410349638246565</v>
+      </c>
+      <c r="AD46">
+        <v>0.3175121498035037</v>
+      </c>
+      <c r="AE46">
+        <v>0.09059732929901143</v>
+      </c>
+      <c r="AF46">
+        <v>0.0001163925301391128</v>
+      </c>
+      <c r="AG46">
+        <v>-0.1790771484610926</v>
+      </c>
+      <c r="AH46">
+        <v>0.01561255306463392</v>
+      </c>
+      <c r="AI46">
+        <v>0.02312681980026846</v>
+      </c>
+      <c r="AJ46">
+        <v>-0.1745971315726651</v>
+      </c>
+      <c r="AK46">
+        <v>-8.750031564109143</v>
+      </c>
+      <c r="AL46">
+        <v>-6.250009289498531</v>
+      </c>
+      <c r="AM46">
+        <v>7684.848062037842</v>
+      </c>
+      <c r="AN46">
+        <v>7693.023247654271</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0.2209382163262582</v>
+      </c>
+      <c r="AQ46">
+        <v>126.852279308087</v>
+      </c>
+      <c r="AR46">
+        <v>140.0251881664958</v>
+      </c>
+      <c r="AS46">
+        <v>344.2027544914009</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>2</v>
+      </c>
+      <c r="AW46">
+        <v>5</v>
+      </c>
+      <c r="AX46">
+        <v>2600.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50">
+      <c r="A47" s="1">
+        <v>515</v>
+      </c>
+      <c r="B47">
+        <v>25916</v>
+      </c>
+      <c r="C47">
+        <v>6.716120817482043</v>
+      </c>
+      <c r="D47">
+        <v>2.250506712899162</v>
+      </c>
+      <c r="E47">
+        <v>0.637817786392293</v>
+      </c>
+      <c r="F47">
+        <v>389.7505212639675</v>
+      </c>
+      <c r="G47">
+        <v>427.8596406682427</v>
+      </c>
+      <c r="H47">
+        <v>423.2871499652445</v>
+      </c>
+      <c r="I47">
+        <v>426.4538126757563</v>
+      </c>
+      <c r="J47">
+        <v>79.2824185597767</v>
+      </c>
+      <c r="K47">
+        <v>78.30016138424894</v>
+      </c>
+      <c r="L47">
+        <v>62.95842939438015</v>
+      </c>
+      <c r="M47">
+        <v>75.82090315273581</v>
+      </c>
+      <c r="N47">
+        <v>62.9833950229451</v>
+      </c>
+      <c r="O47">
+        <v>76.26438595750326</v>
+      </c>
+      <c r="P47">
+        <v>348.9272637589036</v>
+      </c>
+      <c r="Q47">
+        <v>380.0809034421652</v>
+      </c>
+      <c r="R47">
+        <v>0.6262465672867721</v>
+      </c>
+      <c r="S47">
+        <v>-0.6369197857271066</v>
+      </c>
+      <c r="T47">
+        <v>-0.3413740733008552</v>
+      </c>
+      <c r="U47">
+        <v>120320</v>
+      </c>
+      <c r="V47">
+        <v>42161.78758006118</v>
+      </c>
+      <c r="W47">
+        <v>1.629680932728445</v>
+      </c>
+      <c r="X47">
+        <v>5.06657676266147</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>51.8077680336774</v>
+      </c>
+      <c r="AA47">
+        <v>5.39050956747696</v>
+      </c>
+      <c r="AB47">
+        <v>0.2443473025897099</v>
+      </c>
+      <c r="AC47">
+        <v>-1.406360628522645</v>
+      </c>
+      <c r="AD47">
+        <v>0.3353759894871505</v>
+      </c>
+      <c r="AE47">
+        <v>0.09050087546281343</v>
+      </c>
+      <c r="AF47">
+        <v>-9.208234172185942e-05</v>
+      </c>
+      <c r="AG47">
+        <v>-0.1778724627775918</v>
+      </c>
+      <c r="AH47">
+        <v>0.0174191847905388</v>
+      </c>
+      <c r="AI47">
+        <v>0.02335090657204864</v>
+      </c>
+      <c r="AJ47">
+        <v>-0.1734511233113962</v>
+      </c>
+      <c r="AK47">
+        <v>-8.750024050852129</v>
+      </c>
+      <c r="AL47">
+        <v>-6.2500039594686</v>
+      </c>
+      <c r="AM47">
+        <v>7684.945502207082</v>
+      </c>
+      <c r="AN47">
+        <v>7693.192917535343</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0.2210550249136767</v>
+      </c>
+      <c r="AQ47">
+        <v>126.9163894640115</v>
+      </c>
+      <c r="AR47">
+        <v>140.1002543965868</v>
+      </c>
+      <c r="AS47">
+        <v>307.8087411063124</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>2</v>
+      </c>
+      <c r="AW47">
+        <v>5</v>
+      </c>
+      <c r="AX47">
+        <v>2600.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50">
+      <c r="A48" s="1">
+        <v>516</v>
+      </c>
+      <c r="B48">
+        <v>25917</v>
+      </c>
+      <c r="C48">
+        <v>6.724830954172213</v>
+      </c>
+      <c r="D48">
+        <v>2.250463203248617</v>
+      </c>
+      <c r="E48">
+        <v>0.6374708000023476</v>
+      </c>
+      <c r="F48">
+        <v>389.6291725833733</v>
+      </c>
+      <c r="G48">
+        <v>428.0710689529508</v>
+      </c>
+      <c r="H48">
+        <v>423.2889333124647</v>
+      </c>
+      <c r="I48">
+        <v>426.4847394821854</v>
+      </c>
+      <c r="J48">
+        <v>79.28317775829996</v>
+      </c>
+      <c r="K48">
+        <v>78.3000473105415</v>
+      </c>
+      <c r="L48">
+        <v>62.95709108237242</v>
+      </c>
+      <c r="M48">
+        <v>75.81880073222582</v>
+      </c>
+      <c r="N48">
+        <v>62.98465109195617</v>
+      </c>
+      <c r="O48">
+        <v>76.26531605585426</v>
+      </c>
+      <c r="P48">
+        <v>348.9380867914753</v>
+      </c>
+      <c r="Q48">
+        <v>380.0927943051916</v>
+      </c>
+      <c r="R48">
+        <v>0.6262722908407923</v>
+      </c>
+      <c r="S48">
+        <v>-0.6369191757084783</v>
+      </c>
+      <c r="T48">
+        <v>-0.3457964561995802</v>
+      </c>
+      <c r="U48">
+        <v>120320</v>
+      </c>
+      <c r="V48">
+        <v>42161.88757722246</v>
+      </c>
+      <c r="W48">
+        <v>1.659584612720876</v>
+      </c>
+      <c r="X48">
+        <v>4.928272648222372</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>51.80776723405423</v>
+      </c>
+      <c r="AA48">
+        <v>5.390640354447123</v>
+      </c>
+      <c r="AB48">
+        <v>0.2745633953365321</v>
+      </c>
+      <c r="AC48">
+        <v>-1.403014993081092</v>
+      </c>
+      <c r="AD48">
+        <v>0.3458012206572731</v>
+      </c>
+      <c r="AE48">
+        <v>0.09034837176974506</v>
+      </c>
+      <c r="AF48">
+        <v>-0.0004028798049263699</v>
+      </c>
+      <c r="AG48">
+        <v>-0.1768215884999701</v>
+      </c>
+      <c r="AH48">
+        <v>0.01918732648593465</v>
+      </c>
+      <c r="AI48">
+        <v>0.02348773408598495</v>
+      </c>
+      <c r="AJ48">
+        <v>-0.1724589334449251</v>
+      </c>
+      <c r="AK48">
+        <v>-8.750020952070228</v>
+      </c>
+      <c r="AL48">
+        <v>-6.249999271559845</v>
+      </c>
+      <c r="AM48">
+        <v>7684.986451642482</v>
+      </c>
+      <c r="AN48">
+        <v>7693.355875922408</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0.2211905203873214</v>
+      </c>
+      <c r="AQ48">
+        <v>126.9884505589554</v>
+      </c>
+      <c r="AR48">
+        <v>140.1855959708286</v>
+      </c>
+      <c r="AS48">
+        <v>270.5945315160934</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>5</v>
+      </c>
+      <c r="AX48">
+        <v>2600.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50">
+      <c r="A49" s="1">
+        <v>517</v>
+      </c>
+      <c r="B49">
+        <v>25918</v>
+      </c>
+      <c r="C49">
+        <v>6.733473090495228</v>
+      </c>
+      <c r="D49">
+        <v>2.250527925639437</v>
+      </c>
+      <c r="E49">
+        <v>0.6377675484020727</v>
+      </c>
+      <c r="F49">
+        <v>389.4810532361291</v>
+      </c>
+      <c r="G49">
+        <v>428.2853900404875</v>
+      </c>
+      <c r="H49">
+        <v>423.282718295296</v>
+      </c>
+      <c r="I49">
+        <v>426.5257760598454</v>
+      </c>
+      <c r="J49">
+        <v>79.28416780910841</v>
+      </c>
+      <c r="K49">
+        <v>78.29976886592107</v>
+      </c>
+      <c r="L49">
+        <v>62.95547633671028</v>
+      </c>
+      <c r="M49">
+        <v>75.81663431209871</v>
+      </c>
+      <c r="N49">
+        <v>62.98578215131257</v>
+      </c>
+      <c r="O49">
+        <v>76.26581470647457</v>
+      </c>
+      <c r="P49">
+        <v>348.9489057096208</v>
+      </c>
+      <c r="Q49">
+        <v>380.1046911215816</v>
+      </c>
+      <c r="R49">
+        <v>0.6262337571235655</v>
+      </c>
+      <c r="S49">
+        <v>-0.6369182434541661</v>
+      </c>
+      <c r="T49">
+        <v>-0.3525272333894037</v>
+      </c>
+      <c r="U49">
+        <v>120320</v>
+      </c>
+      <c r="V49">
+        <v>42161.98757438375</v>
+      </c>
+      <c r="W49">
+        <v>1.694235413322737</v>
+      </c>
+      <c r="X49">
+        <v>4.790106792798329</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>51.80776638839958</v>
+      </c>
+      <c r="AA49">
+        <v>5.390771181188255</v>
+      </c>
+      <c r="AB49">
+        <v>0.3304550514837623</v>
+      </c>
+      <c r="AC49">
+        <v>-1.400429449178804</v>
+      </c>
+      <c r="AD49">
+        <v>0.3474550166895057</v>
+      </c>
+      <c r="AE49">
+        <v>0.09012590794288969</v>
+      </c>
+      <c r="AF49">
+        <v>-0.0008066162366272053</v>
+      </c>
+      <c r="AG49">
+        <v>-0.1761855351920158</v>
+      </c>
+      <c r="AH49">
+        <v>0.02092381407710555</v>
+      </c>
+      <c r="AI49">
+        <v>0.02357457000022938</v>
+      </c>
+      <c r="AJ49">
+        <v>-0.1718858401366248</v>
+      </c>
+      <c r="AK49">
+        <v>-8.750336649428675</v>
+      </c>
+      <c r="AL49">
+        <v>-6.249997972257579</v>
+      </c>
+      <c r="AM49">
+        <v>7684.998312594119</v>
+      </c>
+      <c r="AN49">
+        <v>7693.501821896319</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0.2213412184510931</v>
+      </c>
+      <c r="AQ49">
+        <v>127.068904023171</v>
+      </c>
+      <c r="AR49">
+        <v>140.2783453605956</v>
+      </c>
+      <c r="AS49">
+        <v>232.8508479327668</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>2</v>
+      </c>
+      <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>2600.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50">
+      <c r="A50" s="1">
+        <v>518</v>
+      </c>
+      <c r="B50">
+        <v>25919</v>
+      </c>
+      <c r="C50">
+        <v>6.739438110435519</v>
+      </c>
+      <c r="D50">
+        <v>2.250670036069185</v>
+      </c>
+      <c r="E50">
+        <v>0.6387661440533576</v>
+      </c>
+      <c r="F50">
+        <v>389.3273851701731</v>
+      </c>
+      <c r="G50">
+        <v>428.4593602815497</v>
+      </c>
+      <c r="H50">
+        <v>423.2693459368579</v>
+      </c>
+      <c r="I50">
+        <v>426.5722521616599</v>
+      </c>
+      <c r="J50">
+        <v>79.28503744339602</v>
+      </c>
+      <c r="K50">
+        <v>78.29933375349415</v>
+      </c>
+      <c r="L50">
+        <v>62.95398530841589</v>
+      </c>
+      <c r="M50">
+        <v>75.81485777359541</v>
+      </c>
+      <c r="N50">
+        <v>62.98647332507625</v>
+      </c>
+      <c r="O50">
+        <v>76.26558906375246</v>
+      </c>
+      <c r="P50">
+        <v>348.9597203592088</v>
+      </c>
+      <c r="Q50">
+        <v>380.1165927704783</v>
+      </c>
+      <c r="R50">
+        <v>0.6263874628409537</v>
+      </c>
+      <c r="S50">
+        <v>-0.6369142671927169</v>
+      </c>
+      <c r="T50">
+        <v>-0.3627724089217811</v>
+      </c>
+      <c r="U50">
+        <v>120320</v>
+      </c>
+      <c r="V50">
+        <v>42162.08757785075</v>
+      </c>
+      <c r="W50">
+        <v>1.735603345129122</v>
+      </c>
+      <c r="X50">
+        <v>4.652093975151412</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>51.80776549650967</v>
+      </c>
+      <c r="AA50">
+        <v>5.3909020484225</v>
+      </c>
+      <c r="AB50">
+        <v>0.4044077704762181</v>
+      </c>
+      <c r="AC50">
+        <v>-1.398330668923321</v>
+      </c>
+      <c r="AD50">
+        <v>0.3392463718471627</v>
+      </c>
+      <c r="AE50">
+        <v>0.08985248761758879</v>
+      </c>
+      <c r="AF50">
+        <v>-0.00125174229240232</v>
+      </c>
+      <c r="AG50">
+        <v>-0.1760482350590088</v>
+      </c>
+      <c r="AH50">
+        <v>0.02264637918610992</v>
+      </c>
+      <c r="AI50">
+        <v>0.02369267827214287</v>
+      </c>
+      <c r="AJ50">
+        <v>-0.1718193067926682</v>
+      </c>
+      <c r="AK50">
+        <v>-8.751911485072293</v>
+      </c>
+      <c r="AL50">
+        <v>-6.249998792455503</v>
+      </c>
+      <c r="AM50">
+        <v>7684.999796596424</v>
+      </c>
+      <c r="AN50">
+        <v>7693.596402363532</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0.2214988395216702</v>
+      </c>
+      <c r="AQ50">
+        <v>127.1554597923028</v>
+      </c>
+      <c r="AR50">
+        <v>140.3732780253883</v>
+      </c>
+      <c r="AS50">
+        <v>195.0664940257471</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>2</v>
+      </c>
+      <c r="AW50">
+        <v>5</v>
+      </c>
+      <c r="AX50">
+        <v>2600.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50">
+      <c r="A51" s="1">
+        <v>519</v>
+      </c>
+      <c r="B51">
+        <v>25920</v>
+      </c>
+      <c r="C51">
+        <v>6.741176247060313</v>
+      </c>
+      <c r="D51">
+        <v>2.250832374949814</v>
+      </c>
+      <c r="E51">
+        <v>0.6402549712798069</v>
+      </c>
+      <c r="F51">
+        <v>389.2033284941218</v>
+      </c>
+      <c r="G51">
+        <v>428.5612493140421</v>
+      </c>
+      <c r="H51">
+        <v>423.2570120551649</v>
+      </c>
+      <c r="I51">
+        <v>426.6115575759603</v>
+      </c>
+      <c r="J51">
+        <v>79.28555870927296</v>
+      </c>
+      <c r="K51">
+        <v>78.29887069203392</v>
+      </c>
+      <c r="L51">
+        <v>62.95312331974501</v>
+      </c>
+      <c r="M51">
+        <v>75.81378164382531</v>
+      </c>
+      <c r="N51">
+        <v>62.98659570355625</v>
+      </c>
+      <c r="O51">
+        <v>76.26449976927672</v>
+      </c>
+      <c r="P51">
+        <v>348.9705315627781</v>
+      </c>
+      <c r="Q51">
+        <v>380.1284972496259</v>
+      </c>
+      <c r="R51">
+        <v>0.6266090643173187</v>
+      </c>
+      <c r="S51">
+        <v>-0.6369107369776756</v>
+      </c>
+      <c r="T51">
+        <v>-0.3767690817346268</v>
+      </c>
+      <c r="U51">
+        <v>120320</v>
+      </c>
+      <c r="V51">
+        <v>42162.18758221246</v>
+      </c>
+      <c r="W51">
+        <v>1.784701782874168</v>
+      </c>
+      <c r="X51">
+        <v>4.514305020791324</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>51.80776456698109</v>
+      </c>
+      <c r="AA51">
+        <v>5.391032949044624</v>
+      </c>
+      <c r="AB51">
+        <v>0.4867098768462156</v>
+      </c>
+      <c r="AC51">
+        <v>-1.396111861712016</v>
+      </c>
+      <c r="AD51">
+        <v>0.3208300008539498</v>
+      </c>
+      <c r="AE51">
+        <v>0.08956697087524358</v>
+      </c>
+      <c r="AF51">
+        <v>-0.001674599967000051</v>
+      </c>
+      <c r="AG51">
+        <v>-0.1763308136139576</v>
+      </c>
+      <c r="AH51">
+        <v>0.02437654909992492</v>
+      </c>
+      <c r="AI51">
+        <v>0.02393254277653716</v>
+      </c>
+      <c r="AJ51">
+        <v>-0.1721805059274788</v>
+      </c>
+      <c r="AK51">
+        <v>-8.756576654948033</v>
+      </c>
+      <c r="AL51">
+        <v>-6.249999849401153</v>
+      </c>
+      <c r="AM51">
+        <v>7684.999801578477</v>
+      </c>
+      <c r="AN51">
+        <v>7693.606192677138</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0.221653583294029</v>
+      </c>
+      <c r="AQ51">
+        <v>127.2434345830785</v>
+      </c>
+      <c r="AR51">
+        <v>140.4649546736111</v>
+      </c>
+      <c r="AS51">
+        <v>157.9145088948749</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="AX51">
         <v>2601</v>
       </c>
     </row>
